--- a/TableTeams.xlsx
+++ b/TableTeams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>team</t>
   </si>
@@ -31,6 +31,12 @@
     <t>threatAllowed</t>
   </si>
   <si>
+    <t>threat GW13</t>
+  </si>
+  <si>
+    <t>threat GW13 Adj</t>
+  </si>
+  <si>
     <t>threat GW12</t>
   </si>
   <si>
@@ -115,46 +121,46 @@
     <t>Everton</t>
   </si>
   <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
     <t>Man Utd</t>
   </si>
   <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>West Ham</t>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Spurs</t>
   </si>
   <si>
     <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Spurs</t>
   </si>
   <si>
     <t>Sheffield Utd</t>
@@ -518,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,1675 +618,1789 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>3931</v>
+        <v>4113</v>
       </c>
       <c r="D2">
-        <v>3627.274079033054</v>
+        <v>3857.290120421657</v>
       </c>
       <c r="E2">
-        <v>3145.7</v>
+        <v>3282.1</v>
       </c>
       <c r="F2">
-        <v>1413</v>
+        <v>1542</v>
       </c>
       <c r="G2">
+        <v>182</v>
+      </c>
+      <c r="H2">
+        <v>263.8100197758734</v>
+      </c>
+      <c r="I2">
         <v>252</v>
       </c>
-      <c r="H2">
-        <v>384.57147102526</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>369.4152</v>
+      </c>
+      <c r="K2">
         <v>447</v>
       </c>
-      <c r="J2">
-        <v>353.1471923076923</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>348.6726853494147</v>
+      </c>
+      <c r="M2">
         <v>435</v>
       </c>
-      <c r="L2">
-        <v>294.6038575667656</v>
-      </c>
-      <c r="M2">
+      <c r="N2">
+        <v>315.3714144411474</v>
+      </c>
+      <c r="O2">
         <v>309</v>
       </c>
-      <c r="N2">
-        <v>279.119129287599</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
+        <v>275.307982171799</v>
+      </c>
+      <c r="Q2">
         <v>240</v>
       </c>
-      <c r="P2">
-        <v>239.7782101167315</v>
-      </c>
-      <c r="Q2">
+      <c r="R2">
+        <v>243.4206642066421</v>
+      </c>
+      <c r="S2">
         <v>257</v>
       </c>
-      <c r="R2">
-        <v>346.6209455022981</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>328.1749709639954</v>
+      </c>
+      <c r="U2">
         <v>401</v>
       </c>
-      <c r="T2">
-        <v>383.1135348837209</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
+        <v>375.5361584327087</v>
+      </c>
+      <c r="W2">
         <v>382</v>
       </c>
-      <c r="V2">
-        <v>274.6469023451172</v>
-      </c>
-      <c r="W2">
+      <c r="X2">
+        <v>270.437797810689</v>
+      </c>
+      <c r="Y2">
         <v>185</v>
       </c>
-      <c r="X2">
-        <v>187.2885657959586</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
+        <v>179.0477552816901</v>
+      </c>
+      <c r="AA2">
         <v>317</v>
       </c>
-      <c r="Z2">
-        <v>274.1682947368421</v>
-      </c>
-      <c r="AA2">
+      <c r="AB2">
+        <v>273.4606904668498</v>
+      </c>
+      <c r="AC2">
         <v>469</v>
       </c>
-      <c r="AB2">
-        <v>395.4732758620689</v>
-      </c>
-      <c r="AC2">
+      <c r="AD2">
+        <v>402.5308743169399</v>
+      </c>
+      <c r="AE2">
         <v>237</v>
       </c>
-      <c r="AD2">
-        <v>214.7426996029996</v>
+      <c r="AF2">
+        <v>212.1039072039072</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2764</v>
+        <v>2958</v>
       </c>
       <c r="D3">
-        <v>2743.072619645008</v>
+        <v>2951.678318718645</v>
       </c>
       <c r="E3">
-        <v>2370.9</v>
+        <v>2532.7</v>
       </c>
       <c r="F3">
-        <v>1346</v>
+        <v>1500</v>
       </c>
       <c r="G3">
+        <v>194</v>
+      </c>
+      <c r="H3">
+        <v>172.8470826580227</v>
+      </c>
+      <c r="I3">
         <v>158</v>
       </c>
-      <c r="H3">
-        <v>229.6870488322718</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>225.3088197146563</v>
+      </c>
+      <c r="K3">
         <v>348</v>
       </c>
-      <c r="J3">
-        <v>235.6830860534124</v>
-      </c>
-      <c r="K3">
+      <c r="L3">
+        <v>252.2971315529179</v>
+      </c>
+      <c r="M3">
         <v>343</v>
       </c>
-      <c r="L3">
-        <v>289.226724137931</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>294.3882513661202</v>
+      </c>
+      <c r="O3">
         <v>117</v>
       </c>
-      <c r="N3">
-        <v>166.5486486486486</v>
-      </c>
-      <c r="O3">
+      <c r="P3">
+        <v>178.2891891891892</v>
+      </c>
+      <c r="Q3">
         <v>258</v>
       </c>
-      <c r="P3">
-        <v>379.0828326180257</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>381.2608870967742</v>
+      </c>
+      <c r="S3">
         <v>151</v>
       </c>
-      <c r="R3">
-        <v>185.8412822049131</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
+        <v>198.9418214499701</v>
+      </c>
+      <c r="U3">
         <v>122</v>
       </c>
-      <c r="T3">
-        <v>187.7155056179775</v>
-      </c>
-      <c r="U3">
+      <c r="V3">
+        <v>176.839683586025</v>
+      </c>
+      <c r="W3">
         <v>318</v>
       </c>
-      <c r="V3">
-        <v>270.2539511791477</v>
-      </c>
-      <c r="W3">
+      <c r="X3">
+        <v>289.3050062060406</v>
+      </c>
+      <c r="Y3">
         <v>202</v>
       </c>
-      <c r="X3">
-        <v>202.9981409001957</v>
-      </c>
-      <c r="Y3">
+      <c r="Z3">
+        <v>197.8520267260579</v>
+      </c>
+      <c r="AA3">
         <v>362</v>
       </c>
-      <c r="Z3">
-        <v>307.647579644187</v>
-      </c>
-      <c r="AA3">
+      <c r="AB3">
+        <v>300.0383716547305</v>
+      </c>
+      <c r="AC3">
         <v>163</v>
       </c>
-      <c r="AB3">
-        <v>128.7762692307692</v>
-      </c>
-      <c r="AC3">
+      <c r="AD3">
+        <v>127.1446257538134</v>
+      </c>
+      <c r="AE3">
         <v>222</v>
       </c>
-      <c r="AD3">
-        <v>159.6115505775289</v>
+      <c r="AF3">
+        <v>157.1654217643271</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>2623</v>
+        <v>2752</v>
       </c>
       <c r="D4">
-        <v>2674.865093648727</v>
+        <v>2868.919560273652</v>
       </c>
       <c r="E4">
-        <v>2333.799999999999</v>
+        <v>2468.8</v>
       </c>
       <c r="F4">
-        <v>1335</v>
+        <v>1517</v>
       </c>
       <c r="G4">
+        <v>129</v>
+      </c>
+      <c r="H4">
+        <v>183.9546692607004</v>
+      </c>
+      <c r="I4">
         <v>259</v>
       </c>
-      <c r="H4">
-        <v>233.9542216358839</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>230.7597649918963</v>
+      </c>
+      <c r="K4">
         <v>260</v>
       </c>
-      <c r="J4">
-        <v>248.4027906976744</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>243.4897785349233</v>
+      </c>
+      <c r="M4">
         <v>245</v>
       </c>
-      <c r="L4">
-        <v>246.2106164383562</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>239.9690423162583</v>
+      </c>
+      <c r="O4">
         <v>259</v>
       </c>
-      <c r="N4">
-        <v>220.1124948282996</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
+        <v>235.628920148945</v>
+      </c>
+      <c r="Q4">
         <v>157</v>
       </c>
-      <c r="P4">
-        <v>124.0360384615385</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>122.4644554806669</v>
+      </c>
+      <c r="S4">
         <v>339</v>
       </c>
-      <c r="R4">
-        <v>343.1936421882701</v>
-      </c>
-      <c r="S4">
+      <c r="T4">
+        <v>328.0929137323944</v>
+      </c>
+      <c r="U4">
         <v>103</v>
       </c>
-      <c r="T4">
-        <v>157.1859583952452</v>
-      </c>
-      <c r="U4">
+      <c r="V4">
+        <v>150.9911333333334</v>
+      </c>
+      <c r="W4">
         <v>229</v>
       </c>
-      <c r="V4">
-        <v>228.7883754863813</v>
-      </c>
-      <c r="W4">
+      <c r="X4">
+        <v>232.2638837638377</v>
+      </c>
+      <c r="Y4">
         <v>162</v>
       </c>
-      <c r="X4">
-        <v>199.3793888556022</v>
-      </c>
-      <c r="Y4">
+      <c r="Z4">
+        <v>213.4342720191732</v>
+      </c>
+      <c r="AA4">
         <v>287</v>
       </c>
-      <c r="Z4">
-        <v>206.3446622331116</v>
-      </c>
-      <c r="AA4">
+      <c r="AB4">
+        <v>203.1823245331616</v>
+      </c>
+      <c r="AC4">
         <v>163</v>
       </c>
-      <c r="AB4">
-        <v>239.4980686695279</v>
-      </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>240.874126344086</v>
+      </c>
+      <c r="AE4">
         <v>160</v>
       </c>
-      <c r="AD4">
-        <v>227.7588357588358</v>
+      <c r="AF4">
+        <v>243.8142758142758</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>2333</v>
+        <v>2582</v>
       </c>
       <c r="D5">
-        <v>2290.068257422684</v>
+        <v>2470.745159320201</v>
       </c>
       <c r="E5">
-        <v>1823.3</v>
+        <v>2020.1</v>
       </c>
       <c r="F5">
-        <v>1523</v>
+        <v>1722</v>
       </c>
       <c r="G5">
+        <v>249</v>
+      </c>
+      <c r="H5">
+        <v>176.2801352221507</v>
+      </c>
+      <c r="I5">
         <v>341</v>
       </c>
-      <c r="H5">
-        <v>269.4031153846154</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
+        <v>265.9896771904931</v>
+      </c>
+      <c r="K5">
         <v>118</v>
       </c>
-      <c r="J5">
-        <v>99.50073891625615</v>
-      </c>
-      <c r="K5">
+      <c r="L5">
+        <v>101.2764246682279</v>
+      </c>
+      <c r="M5">
         <v>143</v>
       </c>
-      <c r="L5">
-        <v>144.7689995071464</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>138.3990757042254</v>
+      </c>
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="N5">
-        <v>271.8262020291133</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>268.4859584859585</v>
+      </c>
+      <c r="Q5">
         <v>145</v>
       </c>
-      <c r="P5">
-        <v>145.7164872798434</v>
-      </c>
-      <c r="Q5">
+      <c r="R5">
+        <v>142.0224944320713</v>
+      </c>
+      <c r="S5">
         <v>235</v>
       </c>
-      <c r="R5">
-        <v>341.6231422505308</v>
-      </c>
-      <c r="S5">
+      <c r="T5">
+        <v>335.1112191958496</v>
+      </c>
+      <c r="U5">
         <v>236</v>
       </c>
-      <c r="T5">
-        <v>290.453924505692</v>
-      </c>
-      <c r="U5">
+      <c r="V5">
+        <v>310.9289394847214</v>
+      </c>
+      <c r="W5">
         <v>209</v>
       </c>
-      <c r="V5">
-        <v>180.7608</v>
-      </c>
-      <c r="W5">
+      <c r="X5">
+        <v>180.2942722636328</v>
+      </c>
+      <c r="Y5">
         <v>230</v>
       </c>
-      <c r="X5">
-        <v>229.7874513618677</v>
-      </c>
-      <c r="Y5">
+      <c r="Z5">
+        <v>233.2781365313653</v>
+      </c>
+      <c r="AA5">
         <v>131</v>
       </c>
-      <c r="Z5">
-        <v>88.71978239366963</v>
-      </c>
-      <c r="AA5">
+      <c r="AB5">
+        <v>94.97392021101221</v>
+      </c>
+      <c r="AC5">
         <v>119</v>
       </c>
-      <c r="AB5">
-        <v>113.6920465116279</v>
-      </c>
-      <c r="AC5">
+      <c r="AD5">
+        <v>111.443398637138</v>
+      </c>
+      <c r="AE5">
         <v>126</v>
       </c>
-      <c r="AD5">
-        <v>113.8155672823219</v>
+      <c r="AF5">
+        <v>112.261507293355</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>2087</v>
+        <v>2292</v>
       </c>
       <c r="D6">
-        <v>2036.048366615245</v>
+        <v>2242.953401100532</v>
       </c>
       <c r="E6">
-        <v>1957.6</v>
+        <v>2168.3</v>
       </c>
       <c r="F6">
-        <v>1443</v>
+        <v>1488</v>
       </c>
       <c r="G6">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="H6">
-        <v>314.8472646623953</v>
+        <v>235.1816461267606</v>
       </c>
       <c r="I6">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="J6">
-        <v>108.1105263157895</v>
+        <v>180.6860912174896</v>
       </c>
       <c r="K6">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="L6">
-        <v>204.1877493874694</v>
+        <v>152.3549027552674</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="N6">
-        <v>91.56463595839524</v>
+        <v>305.7711245122384</v>
       </c>
       <c r="O6">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="P6">
-        <v>102.8324782788581</v>
+        <v>169.4475278396437</v>
       </c>
       <c r="Q6">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="R6">
-        <v>137.6765411667356</v>
+        <v>67.43293333333334</v>
       </c>
       <c r="S6">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="T6">
-        <v>114.1670048522276</v>
+        <v>170.1258998758792</v>
       </c>
       <c r="U6">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="V6">
-        <v>133.7075107296137</v>
+        <v>168.2218579234973</v>
       </c>
       <c r="W6">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="X6">
-        <v>218.0506153846154</v>
+        <v>170.6699930699931</v>
       </c>
       <c r="Y6">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="Z6">
-        <v>208.6618733509235</v>
+        <v>156.1400156924284</v>
       </c>
       <c r="AA6">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB6">
-        <v>109.898346303502</v>
+        <v>171.274415817855</v>
       </c>
       <c r="AC6">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="AD6">
-        <v>292.3438202247191</v>
+        <v>163.7941331575478</v>
+      </c>
+      <c r="AE6">
+        <v>130</v>
+      </c>
+      <c r="AF6">
+        <v>131.8528597785978</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>2049</v>
+        <v>2232</v>
       </c>
       <c r="D7">
-        <v>1997.395762751777</v>
+        <v>2203.410402365127</v>
       </c>
       <c r="E7">
-        <v>1996.4</v>
+        <v>2080.1</v>
       </c>
       <c r="F7">
-        <v>1398</v>
+        <v>2653</v>
       </c>
       <c r="G7">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H7">
-        <v>185.268431940422</v>
+        <v>170.8262149698475</v>
       </c>
       <c r="I7">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="J7">
-        <v>154.4639841688654</v>
+        <v>143.3422715053763</v>
       </c>
       <c r="K7">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="L7">
-        <v>309.6950769230769</v>
+        <v>138.9526291512915</v>
       </c>
       <c r="M7">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="N7">
-        <v>173.854843444227</v>
+        <v>168.3922609400324</v>
       </c>
       <c r="O7">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="P7">
-        <v>70.19955423476968</v>
+        <v>167.3219292989814</v>
       </c>
       <c r="Q7">
         <v>187</v>
       </c>
       <c r="R7">
-        <v>158.9229209764171</v>
+        <v>161.3159278148293</v>
       </c>
       <c r="S7">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="T7">
-        <v>165.2724137931034</v>
+        <v>220.9566874566875</v>
       </c>
       <c r="U7">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="V7">
-        <v>159.431185031185</v>
+        <v>189.9478404220244</v>
       </c>
       <c r="W7">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="X7">
-        <v>156.5440421052631</v>
+        <v>95.52291311754685</v>
       </c>
       <c r="Y7">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="Z7">
-        <v>159.9958058717795</v>
+        <v>260.9155347384856</v>
       </c>
       <c r="AA7">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="AB7">
-        <v>173.8676404494382</v>
+        <v>129.0021333333333</v>
       </c>
       <c r="AC7">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="AD7">
-        <v>129.8798638132296</v>
+        <v>221.3591982182628</v>
+      </c>
+      <c r="AE7">
+        <v>149</v>
+      </c>
+      <c r="AF7">
+        <v>135.5548613984278</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>2013</v>
+        <v>1970</v>
       </c>
       <c r="D8">
-        <v>1993.834255702797</v>
+        <v>2125.363199282622</v>
       </c>
       <c r="E8">
-        <v>1909.3</v>
+        <v>1510.9</v>
       </c>
       <c r="F8">
-        <v>2417</v>
+        <v>2549</v>
       </c>
       <c r="G8">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H8">
-        <v>142.5233905579399</v>
+        <v>113.5963099630996</v>
       </c>
       <c r="I8">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="J8">
-        <v>136.8733949416342</v>
+        <v>179.2235415804717</v>
       </c>
       <c r="K8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L8">
-        <v>170.7233509234828</v>
+        <v>286.4817740817741</v>
       </c>
       <c r="M8">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="N8">
-        <v>156.3035949670461</v>
+        <v>154.5223594548552</v>
       </c>
       <c r="O8">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="P8">
-        <v>161.7333473684211</v>
+        <v>103.3610431423052</v>
       </c>
       <c r="Q8">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="R8">
-        <v>206.4064449064449</v>
+        <v>71.27983415001884</v>
       </c>
       <c r="S8">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="T8">
-        <v>177.4395647873393</v>
+        <v>187.9401709401709</v>
       </c>
       <c r="U8">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="V8">
-        <v>97.45032558139535</v>
+        <v>70.20255409719759</v>
       </c>
       <c r="W8">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="X8">
-        <v>256.3408866995074</v>
+        <v>215.803774680604</v>
       </c>
       <c r="Y8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Z8">
-        <v>134.2947994056464</v>
+        <v>144.8200268817205</v>
       </c>
       <c r="AA8">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="AB8">
-        <v>227.1167318982387</v>
+        <v>246.698897535668</v>
       </c>
       <c r="AC8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AD8">
-        <v>126.6284236657013</v>
+        <v>111.6487306297395</v>
+      </c>
+      <c r="AE8">
+        <v>182</v>
+      </c>
+      <c r="AF8">
+        <v>239.784182144997</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>1858</v>
+        <v>1915</v>
       </c>
       <c r="D9">
-        <v>1983.827214807227</v>
+        <v>2124.959509239591</v>
       </c>
       <c r="E9">
-        <v>1422.1</v>
+        <v>1550.4</v>
       </c>
       <c r="F9">
-        <v>2375</v>
+        <v>2819</v>
       </c>
       <c r="G9">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H9">
-        <v>167.4214729002896</v>
+        <v>195.6051262721448</v>
       </c>
       <c r="I9">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="J9">
-        <v>267.616632016632</v>
+        <v>79.1706155632985</v>
       </c>
       <c r="K9">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="L9">
-        <v>157.6402325581395</v>
+        <v>75.57827496757459</v>
       </c>
       <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>100.4873655913979</v>
+      </c>
+      <c r="O9">
+        <v>174</v>
+      </c>
+      <c r="P9">
+        <v>176.4799815498155</v>
+      </c>
+      <c r="Q9">
+        <v>107</v>
+      </c>
+      <c r="R9">
+        <v>155.097099538563</v>
+      </c>
+      <c r="S9">
+        <v>175</v>
+      </c>
+      <c r="T9">
+        <v>150.198087431694</v>
+      </c>
+      <c r="U9">
+        <v>264</v>
+      </c>
+      <c r="V9">
+        <v>227.7401333856414</v>
+      </c>
+      <c r="W9">
+        <v>152</v>
+      </c>
+      <c r="X9">
+        <v>200.2593169562612</v>
+      </c>
+      <c r="Y9">
+        <v>126</v>
+      </c>
+      <c r="Z9">
+        <v>192.0037422037422</v>
+      </c>
+      <c r="AA9">
+        <v>174</v>
+      </c>
+      <c r="AB9">
+        <v>168.4016725352113</v>
+      </c>
+      <c r="AC9">
+        <v>178</v>
+      </c>
+      <c r="AD9">
+        <v>260.9361333333333</v>
+      </c>
+      <c r="AE9">
         <v>146</v>
       </c>
-      <c r="N9">
-        <v>104.9697584879244</v>
-      </c>
-      <c r="O9">
-        <v>86</v>
-      </c>
-      <c r="P9">
-        <v>73.08754654530409</v>
-      </c>
-      <c r="Q9">
-        <v>210</v>
-      </c>
-      <c r="R9">
-        <v>190.2783414203793</v>
-      </c>
-      <c r="S9">
-        <v>90</v>
-      </c>
-      <c r="T9">
-        <v>71.10346153846154</v>
-      </c>
-      <c r="U9">
-        <v>169</v>
-      </c>
-      <c r="V9">
-        <v>227.9336178594878</v>
-      </c>
-      <c r="W9">
-        <v>98</v>
-      </c>
-      <c r="X9">
-        <v>143.9927038626609</v>
-      </c>
-      <c r="Y9">
-        <v>173</v>
-      </c>
-      <c r="Z9">
-        <v>251.4927813163482</v>
-      </c>
-      <c r="AA9">
-        <v>154</v>
-      </c>
-      <c r="AB9">
-        <v>104.2965380811078</v>
-      </c>
-      <c r="AC9">
-        <v>182</v>
-      </c>
-      <c r="AD9">
-        <v>223.9941282204913</v>
+      <c r="AF9">
+        <v>143.0019599109131</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>2069</v>
+        <v>2195</v>
       </c>
       <c r="D10">
-        <v>1983.429996766187</v>
+        <v>2108.519381941373</v>
       </c>
       <c r="E10">
-        <v>1734.1</v>
+        <v>1881</v>
       </c>
       <c r="F10">
-        <v>2267</v>
+        <v>2457</v>
       </c>
       <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>108.1426229508197</v>
+      </c>
+      <c r="I10">
         <v>87</v>
       </c>
-      <c r="H10">
-        <v>87.42989236790606</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>85.21349665924276</v>
+      </c>
+      <c r="K10">
         <v>255</v>
       </c>
-      <c r="J10">
-        <v>216.7130740587505</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
+        <v>231.989863467108</v>
+      </c>
+      <c r="M10">
         <v>148</v>
       </c>
-      <c r="L10">
-        <v>182.1490713001797</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
+        <v>194.9893349310965</v>
+      </c>
+      <c r="O10">
         <v>114</v>
       </c>
-      <c r="N10">
-        <v>153.7540380827315</v>
-      </c>
-      <c r="O10">
+      <c r="P10">
+        <v>145.5717770034843</v>
+      </c>
+      <c r="Q10">
         <v>133</v>
       </c>
-      <c r="P10">
-        <v>120.138654353562</v>
-      </c>
-      <c r="Q10">
+      <c r="R10">
+        <v>118.4982576985413</v>
+      </c>
+      <c r="S10">
         <v>309</v>
       </c>
-      <c r="R10">
-        <v>267.2492210526316</v>
-      </c>
-      <c r="S10">
+      <c r="T10">
+        <v>266.5594743036485</v>
+      </c>
+      <c r="U10">
         <v>101</v>
       </c>
-      <c r="T10">
-        <v>143.7727650727651</v>
-      </c>
-      <c r="U10">
+      <c r="V10">
+        <v>153.9077616077616</v>
+      </c>
+      <c r="W10">
         <v>152</v>
       </c>
-      <c r="V10">
-        <v>102.942037586548</v>
-      </c>
-      <c r="W10">
+      <c r="X10">
+        <v>110.1987471150676</v>
+      </c>
+      <c r="Y10">
         <v>280</v>
       </c>
-      <c r="X10">
-        <v>201.3118655932797</v>
-      </c>
-      <c r="Y10">
+      <c r="Z10">
+        <v>198.2266580811333</v>
+      </c>
+      <c r="AA10">
         <v>310</v>
       </c>
-      <c r="Z10">
-        <v>296.1725581395349</v>
-      </c>
-      <c r="AA10">
+      <c r="AB10">
+        <v>290.3147359454855</v>
+      </c>
+      <c r="AC10">
         <v>113</v>
       </c>
-      <c r="AB10">
-        <v>114.3978807294233</v>
-      </c>
-      <c r="AC10">
+      <c r="AD10">
+        <v>109.3643045774648</v>
+      </c>
+      <c r="AE10">
         <v>67</v>
       </c>
-      <c r="AD10">
-        <v>97.39893842887473</v>
+      <c r="AF10">
+        <v>95.54234760051882</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>1966</v>
+        <v>2002</v>
       </c>
       <c r="D11">
-        <v>1967.122998195379</v>
+        <v>2094.799396484753</v>
       </c>
       <c r="E11">
-        <v>1698.8</v>
+        <v>1664.3</v>
       </c>
       <c r="F11">
-        <v>3033</v>
+        <v>3106</v>
       </c>
       <c r="G11">
+        <v>199</v>
+      </c>
+      <c r="H11">
+        <v>254.1121370499419</v>
+      </c>
+      <c r="I11">
+        <v>171</v>
+      </c>
+      <c r="J11">
+        <v>160.1413543441227</v>
+      </c>
+      <c r="K11">
+        <v>84</v>
+      </c>
+      <c r="L11">
+        <v>81.29735915492958</v>
+      </c>
+      <c r="M11">
+        <v>109</v>
+      </c>
+      <c r="N11">
+        <v>166.0984753984754</v>
+      </c>
+      <c r="O11">
+        <v>91</v>
+      </c>
+      <c r="P11">
+        <v>78.50133385641428</v>
+      </c>
+      <c r="Q11">
+        <v>349</v>
+      </c>
+      <c r="R11">
+        <v>253.0221233102539</v>
+      </c>
+      <c r="S11">
+        <v>181</v>
+      </c>
+      <c r="T11">
+        <v>161.264546191248</v>
+      </c>
+      <c r="U11">
+        <v>120</v>
+      </c>
+      <c r="V11">
+        <v>117.5358574610245</v>
+      </c>
+      <c r="W11">
+        <v>112</v>
+      </c>
+      <c r="X11">
+        <v>159.7125810635538</v>
+      </c>
+      <c r="Y11">
+        <v>108</v>
+      </c>
+      <c r="Z11">
+        <v>96.65494505494506</v>
+      </c>
+      <c r="AA11">
+        <v>115</v>
+      </c>
+      <c r="AB11">
+        <v>166.6931443638761</v>
+      </c>
+      <c r="AC11">
+        <v>238</v>
+      </c>
+      <c r="AD11">
+        <v>216.5238725693008</v>
+      </c>
+      <c r="AE11">
         <v>125</v>
       </c>
-      <c r="H11">
-        <v>124.8844844357977</v>
-      </c>
-      <c r="I11">
-        <v>84</v>
-      </c>
-      <c r="J11">
-        <v>128.1904903417533</v>
-      </c>
-      <c r="K11">
-        <v>160</v>
-      </c>
-      <c r="L11">
-        <v>232.5944798301486</v>
-      </c>
-      <c r="M11">
-        <v>318</v>
-      </c>
-      <c r="N11">
-        <v>321.9338590438639</v>
-      </c>
-      <c r="O11">
-        <v>268</v>
-      </c>
-      <c r="P11">
-        <v>192.6842142107105</v>
-      </c>
-      <c r="Q11">
-        <v>138</v>
-      </c>
-      <c r="R11">
-        <v>138.6818982387476</v>
-      </c>
-      <c r="S11">
-        <v>182</v>
-      </c>
-      <c r="T11">
-        <v>154.6736450144808</v>
-      </c>
-      <c r="U11">
-        <v>107</v>
-      </c>
-      <c r="V11">
-        <v>96.95134539038376</v>
-      </c>
-      <c r="W11">
-        <v>107</v>
-      </c>
-      <c r="X11">
-        <v>96.65290237467018</v>
-      </c>
-      <c r="Y11">
-        <v>143</v>
-      </c>
-      <c r="Z11">
-        <v>192.8669074195666</v>
-      </c>
-      <c r="AA11">
-        <v>248</v>
-      </c>
-      <c r="AB11">
-        <v>214.4912842105263</v>
-      </c>
-      <c r="AC11">
-        <v>86</v>
-      </c>
-      <c r="AD11">
-        <v>72.51748768472906</v>
+      <c r="AF11">
+        <v>183.2416666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>1865</v>
+        <v>2039</v>
       </c>
       <c r="D12">
-        <v>1948.65172943331</v>
+        <v>2081.68996408983</v>
       </c>
       <c r="E12">
-        <v>1492.9</v>
+        <v>1673.3</v>
       </c>
       <c r="F12">
-        <v>2056</v>
+        <v>2168</v>
       </c>
       <c r="G12">
+        <v>174</v>
+      </c>
+      <c r="H12">
+        <v>150.1014515496273</v>
+      </c>
+      <c r="I12">
         <v>227</v>
       </c>
-      <c r="H12">
-        <v>153.735806132542</v>
-      </c>
-      <c r="I12">
+      <c r="J12">
+        <v>164.5731289152654</v>
+      </c>
+      <c r="K12">
         <v>345</v>
       </c>
-      <c r="J12">
-        <v>293.2000413736037</v>
-      </c>
-      <c r="K12">
+      <c r="L12">
+        <v>285.9481718808896</v>
+      </c>
+      <c r="M12">
         <v>165</v>
       </c>
-      <c r="L12">
-        <v>140.2261067438974</v>
-      </c>
-      <c r="M12">
+      <c r="N12">
+        <v>150.1110881257758</v>
+      </c>
+      <c r="O12">
         <v>45</v>
       </c>
-      <c r="N12">
-        <v>35.55173076923077</v>
-      </c>
-      <c r="O12">
+      <c r="P12">
+        <v>35.1012770485988</v>
+      </c>
+      <c r="Q12">
         <v>73</v>
       </c>
-      <c r="P12">
-        <v>106.1212314225053</v>
-      </c>
-      <c r="Q12">
+      <c r="R12">
+        <v>104.0983787289235</v>
+      </c>
+      <c r="S12">
         <v>88</v>
       </c>
-      <c r="R12">
-        <v>84.07479069767442</v>
-      </c>
-      <c r="S12">
+      <c r="T12">
+        <v>82.41192504258944</v>
+      </c>
+      <c r="U12">
         <v>214</v>
       </c>
-      <c r="T12">
-        <v>193.3058047493404</v>
-      </c>
-      <c r="U12">
+      <c r="V12">
+        <v>190.6663695299838</v>
+      </c>
+      <c r="W12">
         <v>170</v>
       </c>
-      <c r="V12">
-        <v>261.570786516854</v>
-      </c>
-      <c r="W12">
+      <c r="X12">
+        <v>246.4159525379038</v>
+      </c>
+      <c r="Y12">
         <v>184</v>
       </c>
-      <c r="X12">
-        <v>248.1644123440578</v>
-      </c>
-      <c r="Y12">
+      <c r="Z12">
+        <v>234.957955865273</v>
+      </c>
+      <c r="AA12">
         <v>180</v>
       </c>
-      <c r="Z12">
-        <v>180.8894324853229</v>
-      </c>
-      <c r="AA12">
+      <c r="AB12">
+        <v>176.3037861915367</v>
+      </c>
+      <c r="AC12">
         <v>84</v>
       </c>
-      <c r="AB12">
-        <v>119.5733887733888</v>
-      </c>
-      <c r="AC12">
+      <c r="AD12">
+        <v>128.0024948024948</v>
+      </c>
+      <c r="AE12">
         <v>90</v>
       </c>
-      <c r="AD12">
-        <v>132.2381974248927</v>
+      <c r="AF12">
+        <v>132.9979838709677</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>1679</v>
+        <v>1954</v>
       </c>
       <c r="D13">
-        <v>1935.897635949428</v>
+        <v>2055.149467102764</v>
       </c>
       <c r="E13">
-        <v>1368.9</v>
+        <v>1420.8</v>
       </c>
       <c r="F13">
-        <v>2600</v>
+        <v>2468</v>
       </c>
       <c r="G13">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="H13">
-        <v>83.62061720288904</v>
+        <v>225.7537333333333</v>
       </c>
       <c r="I13">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J13">
-        <v>77.04692144373672</v>
+        <v>44.93467369808834</v>
       </c>
       <c r="K13">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="L13">
-        <v>99.91330472103003</v>
+        <v>165.5086021505377</v>
       </c>
       <c r="M13">
+        <v>190</v>
+      </c>
+      <c r="N13">
+        <v>157.4787033546928</v>
+      </c>
+      <c r="O13">
+        <v>84</v>
+      </c>
+      <c r="P13">
+        <v>119.7844357976654</v>
+      </c>
+      <c r="Q13">
+        <v>182</v>
+      </c>
+      <c r="R13">
+        <v>162.8814814814815</v>
+      </c>
+      <c r="S13">
+        <v>228</v>
+      </c>
+      <c r="T13">
+        <v>161.4131358660657</v>
+      </c>
+      <c r="U13">
+        <v>170</v>
+      </c>
+      <c r="V13">
+        <v>172.4229704797048</v>
+      </c>
+      <c r="W13">
         <v>174</v>
       </c>
-      <c r="N13">
-        <v>173.8392023346303</v>
-      </c>
-      <c r="O13">
-        <v>107</v>
-      </c>
-      <c r="P13">
-        <v>164.6357303370786</v>
-      </c>
-      <c r="Q13">
-        <v>175</v>
-      </c>
-      <c r="R13">
-        <v>147.5646551724138</v>
-      </c>
-      <c r="S13">
-        <v>264</v>
-      </c>
-      <c r="T13">
-        <v>228.3294315789474</v>
-      </c>
-      <c r="U13">
-        <v>152</v>
-      </c>
-      <c r="V13">
-        <v>187.0720191731576</v>
-      </c>
-      <c r="W13">
-        <v>126</v>
-      </c>
       <c r="X13">
-        <v>179.3600831600831</v>
+        <v>149.33981264637</v>
       </c>
       <c r="Y13">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="Z13">
-        <v>176.1524889107935</v>
+        <v>181.9729310913287</v>
       </c>
       <c r="AA13">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="AB13">
-        <v>271.6417533432392</v>
+        <v>169.1461538461539</v>
       </c>
       <c r="AC13">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="AD13">
-        <v>146.7214285714286</v>
+        <v>115.9396045536249</v>
+      </c>
+      <c r="AE13">
+        <v>179</v>
+      </c>
+      <c r="AF13">
+        <v>228.5732288037166</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>1803</v>
+        <v>2000</v>
       </c>
       <c r="D14">
-        <v>1833.370870704138</v>
+        <v>2011.322121145523</v>
       </c>
       <c r="E14">
-        <v>1512.4</v>
+        <v>1797.1</v>
       </c>
       <c r="F14">
-        <v>2857</v>
+        <v>2348</v>
       </c>
       <c r="G14">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="H14">
-        <v>163.3726046511628</v>
+        <v>196.8725612472161</v>
       </c>
       <c r="I14">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="J14">
-        <v>85.03913257762444</v>
+        <v>92.03380553766902</v>
       </c>
       <c r="K14">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="L14">
-        <v>155.1607068607069</v>
+        <v>211.6278180619644</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N14">
-        <v>78.70446315789474</v>
+        <v>69.87481365241271</v>
       </c>
       <c r="O14">
-        <v>349</v>
+        <v>87</v>
       </c>
       <c r="P14">
-        <v>236.3603363006924</v>
+        <v>74.66990632318502</v>
       </c>
       <c r="Q14">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="R14">
-        <v>163.4969656992084</v>
+        <v>118.5745955662073</v>
       </c>
       <c r="S14">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="T14">
-        <v>120.5929549902153</v>
+        <v>205.8933118081181</v>
       </c>
       <c r="U14">
+        <v>106</v>
+      </c>
+      <c r="V14">
+        <v>151.1565499351492</v>
+      </c>
+      <c r="W14">
+        <v>287</v>
+      </c>
+      <c r="X14">
+        <v>237.8757255936676</v>
+      </c>
+      <c r="Y14">
+        <v>156</v>
+      </c>
+      <c r="Z14">
+        <v>141.9232105916425</v>
+      </c>
+      <c r="AA14">
+        <v>287</v>
+      </c>
+      <c r="AB14">
+        <v>256.851566951567</v>
+      </c>
+      <c r="AC14">
+        <v>114</v>
+      </c>
+      <c r="AD14">
+        <v>145.5717770034843</v>
+      </c>
+      <c r="AE14">
         <v>112</v>
       </c>
-      <c r="V14">
-        <v>162.816135881104</v>
-      </c>
-      <c r="W14">
-        <v>108</v>
-      </c>
-      <c r="X14">
-        <v>97.85743273048081</v>
-      </c>
-      <c r="Y14">
-        <v>115</v>
-      </c>
-      <c r="Z14">
-        <v>176.9449438202247</v>
-      </c>
-      <c r="AA14">
-        <v>238</v>
-      </c>
-      <c r="AB14">
-        <v>202.2655357881671</v>
-      </c>
-      <c r="AC14">
-        <v>125</v>
-      </c>
-      <c r="AD14">
-        <v>190.7596582466568</v>
+      <c r="AF14">
+        <v>108.3964788732394</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>1799</v>
+        <v>2087</v>
       </c>
       <c r="D15">
-        <v>1832.870742491774</v>
+        <v>1997.506850940397</v>
       </c>
       <c r="E15">
-        <v>1632.4</v>
+        <v>1957.6</v>
       </c>
       <c r="F15">
-        <v>2150</v>
+        <v>1443</v>
       </c>
       <c r="G15">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>93.46622331116556</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="J15">
-        <v>224.6431460674157</v>
+        <v>300.9937940140845</v>
       </c>
       <c r="K15">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="L15">
-        <v>70.05562105263158</v>
+        <v>107.8315025500196</v>
       </c>
       <c r="M15">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="N15">
-        <v>73.36071428571428</v>
+        <v>201.0584674822923</v>
       </c>
       <c r="O15">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P15">
-        <v>110.7663271420012</v>
+        <v>87.956</v>
       </c>
       <c r="Q15">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="R15">
-        <v>202.8124027237354</v>
+        <v>110.0814646255689</v>
       </c>
       <c r="S15">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="T15">
-        <v>154.0938428874734</v>
+        <v>134.271315491896</v>
       </c>
       <c r="U15">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="V15">
-        <v>243.9084402151427</v>
+        <v>112.7641025641026</v>
       </c>
       <c r="W15">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="X15">
-        <v>132.5774100124121</v>
+        <v>134.4757392473118</v>
       </c>
       <c r="Y15">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Z15">
-        <v>260.0470666078518</v>
+        <v>215.2878325647393</v>
       </c>
       <c r="AA15">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="AB15">
-        <v>153.7540380827315</v>
+        <v>205.8127633711507</v>
       </c>
       <c r="AC15">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD15">
-        <v>113.3855101034993</v>
+        <v>111.5678044280443</v>
+      </c>
+      <c r="AE15">
+        <v>190</v>
+      </c>
+      <c r="AF15">
+        <v>275.4060646011865</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>1934</v>
+        <v>2024</v>
       </c>
       <c r="D16">
-        <v>1823.540461118386</v>
+        <v>1961.458758228407</v>
       </c>
       <c r="E16">
-        <v>1818.1</v>
+        <v>1941.5</v>
       </c>
       <c r="F16">
-        <v>2029</v>
+        <v>2272</v>
       </c>
       <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>132.9979838709677</v>
+      </c>
+      <c r="I16">
         <v>81</v>
       </c>
-      <c r="H16">
-        <v>115.3029106029106</v>
-      </c>
-      <c r="I16">
+      <c r="J16">
+        <v>123.4309771309771</v>
+      </c>
+      <c r="K16">
         <v>270</v>
       </c>
-      <c r="J16">
-        <v>194.1221561078054</v>
-      </c>
-      <c r="K16">
+      <c r="L16">
+        <v>191.1471345782357</v>
+      </c>
+      <c r="M16">
         <v>94</v>
       </c>
-      <c r="L16">
-        <v>126.7796454366382</v>
-      </c>
-      <c r="M16">
+      <c r="N16">
+        <v>120.032868757259</v>
+      </c>
+      <c r="O16">
         <v>238</v>
       </c>
-      <c r="N16">
-        <v>161.1855588526212</v>
-      </c>
-      <c r="O16">
+      <c r="P16">
+        <v>172.5480382459611</v>
+      </c>
+      <c r="Q16">
         <v>242</v>
       </c>
-      <c r="P16">
-        <v>204.0608374384236</v>
-      </c>
-      <c r="Q16">
+      <c r="R16">
+        <v>207.7024980483997</v>
+      </c>
+      <c r="S16">
         <v>92</v>
       </c>
-      <c r="R16">
-        <v>141.5559550561798</v>
-      </c>
-      <c r="S16">
+      <c r="T16">
+        <v>133.3545154911009</v>
+      </c>
+      <c r="U16">
         <v>207</v>
       </c>
-      <c r="T16">
-        <v>175.9200248241622</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
+        <v>188.3211832850641</v>
+      </c>
+      <c r="W16">
         <v>181</v>
       </c>
-      <c r="V16">
-        <v>181.894373776908</v>
-      </c>
-      <c r="W16">
+      <c r="X16">
+        <v>177.2832516703786</v>
+      </c>
+      <c r="Y16">
         <v>111</v>
       </c>
-      <c r="X16">
-        <v>161.3624203821656</v>
-      </c>
-      <c r="Y16">
+      <c r="Z16">
+        <v>158.2865758754864</v>
+      </c>
+      <c r="AA16">
         <v>180</v>
       </c>
-      <c r="Z16">
-        <v>142.2069230769231</v>
-      </c>
-      <c r="AA16">
+      <c r="AB16">
+        <v>140.4051081943952</v>
+      </c>
+      <c r="AC16">
         <v>167</v>
       </c>
-      <c r="AB16">
-        <v>151.3165857962065</v>
-      </c>
-      <c r="AC16">
+      <c r="AD16">
+        <v>149.4571835571836</v>
+      </c>
+      <c r="AE16">
         <v>71</v>
       </c>
-      <c r="AD16">
-        <v>67.83306976744187</v>
+      <c r="AF16">
+        <v>66.49143952299829</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1941</v>
+      </c>
+      <c r="D17">
+        <v>1945.988965169587</v>
+      </c>
+      <c r="E17">
+        <v>1594</v>
+      </c>
+      <c r="F17">
+        <v>2245</v>
+      </c>
+      <c r="G17">
+        <v>198</v>
+      </c>
+      <c r="H17">
+        <v>185.4268313458262</v>
+      </c>
+      <c r="I17">
+        <v>213</v>
+      </c>
+      <c r="J17">
+        <v>190.6250305250305</v>
+      </c>
+      <c r="K17">
         <v>44</v>
       </c>
-      <c r="C17">
-        <v>1800</v>
-      </c>
-      <c r="D17">
-        <v>1818.966652173941</v>
-      </c>
-      <c r="E17">
-        <v>1248.7</v>
-      </c>
-      <c r="F17">
-        <v>2274</v>
-      </c>
-      <c r="G17">
-        <v>31</v>
-      </c>
-      <c r="H17">
-        <v>47.69820224719101</v>
-      </c>
-      <c r="I17">
-        <v>112</v>
-      </c>
-      <c r="J17">
-        <v>164.5630901287554</v>
-      </c>
-      <c r="K17">
-        <v>190</v>
-      </c>
       <c r="L17">
-        <v>161.4724865535788</v>
+        <v>57.96980227681247</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="N17">
-        <v>122.112101910828</v>
+        <v>229.0218852999341</v>
       </c>
       <c r="O17">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="P17">
-        <v>164.9078958976621</v>
+        <v>242.3518817204301</v>
       </c>
       <c r="Q17">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="R17">
-        <v>163.9253762688134</v>
+        <v>160.8951219512195</v>
       </c>
       <c r="S17">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T17">
-        <v>169.8428988326848</v>
+        <v>125.423574019123</v>
       </c>
       <c r="U17">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="V17">
-        <v>146.7214285714286</v>
+        <v>159.2892788151964</v>
       </c>
       <c r="W17">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="X17">
-        <v>169.9898120672601</v>
+        <v>34.84172535211268</v>
       </c>
       <c r="Y17">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="Z17">
-        <v>158.0076923076923</v>
+        <v>87.956</v>
       </c>
       <c r="AA17">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="AB17">
-        <v>108.3048532055123</v>
+        <v>159.237684501845</v>
       </c>
       <c r="AC17">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="AD17">
-        <v>241.4208141825345</v>
+        <v>188.1456087448172</v>
+      </c>
+      <c r="AE17">
+        <v>160</v>
+      </c>
+      <c r="AF17">
+        <v>124.8045406172401</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>1743</v>
+        <v>1930</v>
       </c>
       <c r="D18">
-        <v>1784.282981643881</v>
+        <v>1945.007493253425</v>
       </c>
       <c r="E18">
-        <v>1516.4</v>
+        <v>1997.4</v>
       </c>
       <c r="F18">
-        <v>2044</v>
+        <v>2562</v>
       </c>
       <c r="G18">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="H18">
-        <v>192.9966034406705</v>
+        <v>170.041107041107</v>
       </c>
       <c r="I18">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="J18">
-        <v>54.15242660275614</v>
+        <v>209.4817855002996</v>
       </c>
       <c r="K18">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="L18">
-        <v>243.1069662921348</v>
+        <v>66.40116144018583</v>
       </c>
       <c r="M18">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="N18">
-        <v>240.9673819742489</v>
+        <v>192.0372666666667</v>
       </c>
       <c r="O18">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="P18">
-        <v>169.9386736703874</v>
+        <v>171.3793441226576</v>
       </c>
       <c r="Q18">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="R18">
-        <v>117.1642927794263</v>
+        <v>85.16866197183099</v>
       </c>
       <c r="S18">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="T18">
-        <v>161.7684634231712</v>
+        <v>105.3038311457964</v>
       </c>
       <c r="U18">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="V18">
-        <v>36.44534253326761</v>
+        <v>193.5859543010753</v>
       </c>
       <c r="W18">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="X18">
-        <v>91.56463595839524</v>
+        <v>125.6259724473258</v>
       </c>
       <c r="Y18">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Z18">
-        <v>156.8549124513619</v>
+        <v>133.4424802110818</v>
       </c>
       <c r="AA18">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="AB18">
-        <v>192.9171286719073</v>
+        <v>150.1110881257758</v>
       </c>
       <c r="AC18">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AD18">
-        <v>126.4061538461538</v>
+        <v>115.506420233463</v>
+      </c>
+      <c r="AE18">
+        <v>313</v>
+      </c>
+      <c r="AF18">
+        <v>226.9224200461589</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>1740</v>
+        <v>1966</v>
       </c>
       <c r="D19">
-        <v>1762.946034926595</v>
+        <v>1923.040590224021</v>
       </c>
       <c r="E19">
-        <v>1836.2</v>
+        <v>1698.8</v>
       </c>
       <c r="F19">
-        <v>2436</v>
+        <v>3033</v>
       </c>
       <c r="G19">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>195.6871779508688</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="J19">
-        <v>70.13342087984242</v>
+        <v>126.7815959409594</v>
       </c>
       <c r="K19">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L19">
-        <v>199.9161218424963</v>
+        <v>123.1384</v>
       </c>
       <c r="M19">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="N19">
-        <v>174.8373488372093</v>
+        <v>228.1608300907912</v>
       </c>
       <c r="O19">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="P19">
-        <v>89.08861508132084</v>
+        <v>307.768573943662</v>
       </c>
       <c r="Q19">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="R19">
-        <v>106.6551923076923</v>
+        <v>189.7312298776562</v>
       </c>
       <c r="S19">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="T19">
-        <v>192.4800429184549</v>
+        <v>135.1662360801782</v>
       </c>
       <c r="U19">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="V19">
-        <v>127.3650395778364</v>
+        <v>150.8480211081794</v>
       </c>
       <c r="W19">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="X19">
-        <v>136.8266859743484</v>
+        <v>95.75999185999187</v>
       </c>
       <c r="Y19">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="Z19">
-        <v>140.2261067438974</v>
+        <v>95.3331847649919</v>
       </c>
       <c r="AA19">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="AB19">
-        <v>117.7509554140127</v>
+        <v>182.603193960511</v>
       </c>
       <c r="AC19">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="AD19">
-        <v>211.9793273986152</v>
+        <v>213.9377010592389</v>
+      </c>
+      <c r="AE19">
+        <v>86</v>
+      </c>
+      <c r="AF19">
+        <v>73.81163153786105</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>1569</v>
       </c>
       <c r="D20">
-        <v>1612.98059033602</v>
+        <v>1583.097309370354</v>
       </c>
       <c r="E20">
         <v>1549.3</v>
@@ -2289,90 +2409,96 @@
         <v>1669</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>129</v>
       </c>
-      <c r="H20">
-        <v>108.7762315270936</v>
-      </c>
-      <c r="I20">
+      <c r="J20">
+        <v>110.7174473067916</v>
+      </c>
+      <c r="K20">
         <v>201</v>
       </c>
-      <c r="J20">
-        <v>201.9931996086106</v>
-      </c>
-      <c r="K20">
+      <c r="L20">
+        <v>196.8725612472161</v>
+      </c>
+      <c r="M20">
         <v>161</v>
       </c>
-      <c r="L20">
-        <v>145.8800617556242</v>
-      </c>
-      <c r="M20">
-        <v>104</v>
-      </c>
       <c r="N20">
-        <v>88.38494000827473</v>
+        <v>144.0874643874644</v>
       </c>
       <c r="O20">
         <v>104</v>
       </c>
       <c r="P20">
-        <v>99.36111627906976</v>
+        <v>86.19886920467395</v>
       </c>
       <c r="Q20">
+        <v>104</v>
+      </c>
+      <c r="R20">
+        <v>97.39591141396934</v>
+      </c>
+      <c r="S20">
         <v>149</v>
       </c>
-      <c r="R20">
-        <v>227.3855126300148</v>
-      </c>
-      <c r="S20">
+      <c r="T20">
+        <v>218.4240666666667</v>
+      </c>
+      <c r="U20">
         <v>29</v>
       </c>
-      <c r="T20">
-        <v>39.11286933683519</v>
-      </c>
-      <c r="U20">
+      <c r="V20">
+        <v>37.03141695702671</v>
+      </c>
+      <c r="W20">
         <v>214</v>
       </c>
-      <c r="V20">
-        <v>169.0682307692308</v>
-      </c>
-      <c r="W20">
+      <c r="X20">
+        <v>166.9260730755587</v>
+      </c>
+      <c r="Y20">
         <v>64</v>
       </c>
-      <c r="X20">
-        <v>98.47370786516854</v>
-      </c>
-      <c r="Y20">
+      <c r="Z20">
+        <v>92.76835860250495</v>
+      </c>
+      <c r="AA20">
         <v>113</v>
       </c>
-      <c r="Z20">
-        <v>166.0324034334764</v>
-      </c>
-      <c r="AA20">
+      <c r="AB20">
+        <v>166.9863575268817</v>
+      </c>
+      <c r="AC20">
         <v>213</v>
       </c>
-      <c r="AB20">
-        <v>192.4025065963061</v>
-      </c>
-      <c r="AC20">
+      <c r="AD20">
+        <v>189.7754051863857</v>
+      </c>
+      <c r="AE20">
         <v>88</v>
       </c>
-      <c r="AD20">
-        <v>76.10981052631578</v>
+      <c r="AF20">
+        <v>75.91337779521382</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>1457</v>
       </c>
       <c r="D21">
-        <v>1431.55365663444</v>
+        <v>1425.100031327543</v>
       </c>
       <c r="E21">
         <v>1358.9</v>
@@ -2381,76 +2507,82 @@
         <v>2417</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>275</v>
       </c>
-      <c r="H21">
-        <v>237.8431578947368</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
+        <v>237.2293056100432</v>
+      </c>
+      <c r="K21">
         <v>169</v>
       </c>
-      <c r="J21">
-        <v>153.1287604764005</v>
-      </c>
-      <c r="K21">
+      <c r="L21">
+        <v>151.24708994709</v>
+      </c>
+      <c r="M21">
         <v>151</v>
       </c>
-      <c r="L21">
-        <v>150.8604571984436</v>
-      </c>
-      <c r="M21">
+      <c r="N21">
+        <v>153.152167896679</v>
+      </c>
+      <c r="O21">
         <v>27</v>
       </c>
-      <c r="N21">
-        <v>41.54359550561797</v>
-      </c>
-      <c r="O21">
+      <c r="P21">
+        <v>39.13665128543177</v>
+      </c>
+      <c r="Q21">
         <v>109</v>
       </c>
-      <c r="P21">
-        <v>155.1607068607069</v>
-      </c>
-      <c r="Q21">
+      <c r="R21">
+        <v>166.0984753984754</v>
+      </c>
+      <c r="S21">
         <v>13</v>
       </c>
-      <c r="R21">
-        <v>19.10107296137339</v>
-      </c>
-      <c r="S21">
+      <c r="T21">
+        <v>19.21081989247312</v>
+      </c>
+      <c r="U21">
         <v>126</v>
       </c>
-      <c r="T21">
-        <v>127.5586988664367</v>
-      </c>
-      <c r="U21">
+      <c r="V21">
+        <v>121.9460387323944</v>
+      </c>
+      <c r="W21">
         <v>70</v>
       </c>
-      <c r="V21">
-        <v>106.8254086181278</v>
-      </c>
-      <c r="W21">
+      <c r="X21">
+        <v>102.6153333333333</v>
+      </c>
+      <c r="Y21">
         <v>176</v>
       </c>
-      <c r="X21">
-        <v>168.1495813953488</v>
-      </c>
-      <c r="Y21">
+      <c r="Z21">
+        <v>164.8238500851789</v>
+      </c>
+      <c r="AA21">
         <v>113</v>
       </c>
-      <c r="Z21">
-        <v>95.28460591133005</v>
-      </c>
-      <c r="AA21">
+      <c r="AB21">
+        <v>96.98505074160812</v>
+      </c>
+      <c r="AC21">
         <v>135</v>
       </c>
-      <c r="AB21">
-        <v>97.06107805390269</v>
-      </c>
-      <c r="AC21">
+      <c r="AD21">
+        <v>95.57356728911783</v>
+      </c>
+      <c r="AE21">
         <v>93</v>
       </c>
-      <c r="AD21">
-        <v>79.03653289201489</v>
+      <c r="AF21">
+        <v>77.08168111571806</v>
       </c>
     </row>
   </sheetData>

--- a/TableTeams.xlsx
+++ b/TableTeams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>team</t>
   </si>
@@ -25,6 +25,9 @@
     <t>threat Adjusted</t>
   </si>
   <si>
+    <t>Matches</t>
+  </si>
+  <si>
     <t>creativity</t>
   </si>
   <si>
@@ -124,21 +127,24 @@
     <t>Leicester</t>
   </si>
   <si>
+    <t>Man Utd</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
     <t>Bournemouth</t>
   </si>
   <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
     <t>Wolves</t>
   </si>
   <si>
@@ -146,9 +152,6 @@
   </si>
   <si>
     <t>Watford</t>
-  </si>
-  <si>
-    <t>Man Utd</t>
   </si>
   <si>
     <t>Brighton</t>
@@ -524,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,1965 +627,2028 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>4113</v>
       </c>
       <c r="D2">
-        <v>3857.290120421657</v>
+        <v>3887.569298775384</v>
       </c>
       <c r="E2">
-        <v>3282.1</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>3283.2</v>
+      </c>
+      <c r="G2">
         <v>1542</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>182</v>
       </c>
-      <c r="H2">
-        <v>263.8100197758734</v>
-      </c>
       <c r="I2">
+        <v>266.0055372445616</v>
+      </c>
+      <c r="J2">
         <v>252</v>
       </c>
-      <c r="J2">
-        <v>369.4152</v>
-      </c>
       <c r="K2">
+        <v>372.4895999999999</v>
+      </c>
+      <c r="L2">
         <v>447</v>
       </c>
-      <c r="L2">
-        <v>348.6726853494147</v>
-      </c>
       <c r="M2">
+        <v>351.5744590280241</v>
+      </c>
+      <c r="N2">
         <v>435</v>
       </c>
-      <c r="N2">
-        <v>315.3714144411474</v>
-      </c>
       <c r="O2">
+        <v>317.996043521266</v>
+      </c>
+      <c r="P2">
         <v>309</v>
       </c>
-      <c r="P2">
-        <v>275.307982171799</v>
-      </c>
       <c r="Q2">
+        <v>277.5991896272285</v>
+      </c>
+      <c r="R2">
         <v>240</v>
       </c>
-      <c r="R2">
-        <v>243.4206642066421</v>
-      </c>
       <c r="S2">
+        <v>245.2202764976959</v>
+      </c>
+      <c r="T2">
         <v>257</v>
       </c>
-      <c r="T2">
-        <v>328.1749709639954</v>
-      </c>
       <c r="U2">
+        <v>330.9061556329848</v>
+      </c>
+      <c r="V2">
         <v>401</v>
       </c>
-      <c r="V2">
-        <v>375.5361584327087</v>
-      </c>
       <c r="W2">
+        <v>378.6614991482112</v>
+      </c>
+      <c r="X2">
         <v>382</v>
       </c>
-      <c r="X2">
-        <v>270.437797810689</v>
-      </c>
       <c r="Y2">
+        <v>272.5129987129987</v>
+      </c>
+      <c r="Z2">
         <v>185</v>
       </c>
-      <c r="Z2">
-        <v>179.0477552816901</v>
-      </c>
       <c r="AA2">
+        <v>180.537852112676</v>
+      </c>
+      <c r="AB2">
         <v>317</v>
       </c>
-      <c r="AB2">
-        <v>273.4606904668498</v>
-      </c>
       <c r="AC2">
+        <v>275.7365241271086</v>
+      </c>
+      <c r="AD2">
         <v>469</v>
       </c>
-      <c r="AD2">
-        <v>402.5308743169399</v>
-      </c>
       <c r="AE2">
+        <v>404.46005445352</v>
+      </c>
+      <c r="AF2">
         <v>237</v>
       </c>
-      <c r="AF2">
-        <v>212.1039072039072</v>
+      <c r="AG2">
+        <v>213.8691086691086</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>2958</v>
       </c>
       <c r="D3">
-        <v>2951.678318718645</v>
+        <v>2933.895210187076</v>
       </c>
       <c r="E3">
-        <v>2532.7</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>2532.599999999999</v>
+      </c>
+      <c r="G3">
         <v>1500</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>194</v>
       </c>
-      <c r="H3">
-        <v>172.8470826580227</v>
-      </c>
       <c r="I3">
+        <v>174.2855753646677</v>
+      </c>
+      <c r="J3">
         <v>158</v>
       </c>
-      <c r="J3">
-        <v>225.3088197146563</v>
-      </c>
       <c r="K3">
+        <v>227.1839169909209</v>
+      </c>
+      <c r="L3">
         <v>348</v>
       </c>
-      <c r="L3">
-        <v>252.2971315529179</v>
-      </c>
       <c r="M3">
+        <v>254.3968348170129</v>
+      </c>
+      <c r="N3">
         <v>343</v>
       </c>
-      <c r="N3">
-        <v>294.3882513661202</v>
-      </c>
       <c r="O3">
+        <v>295.7991443018281</v>
+      </c>
+      <c r="P3">
         <v>117</v>
       </c>
-      <c r="P3">
-        <v>178.2891891891892</v>
-      </c>
       <c r="Q3">
+        <v>161.6276635514018</v>
+      </c>
+      <c r="R3">
         <v>258</v>
       </c>
-      <c r="R3">
-        <v>381.2608870967742</v>
-      </c>
       <c r="S3">
+        <v>381.1043304463691</v>
+      </c>
+      <c r="T3">
         <v>151</v>
       </c>
-      <c r="T3">
-        <v>198.9418214499701</v>
-      </c>
       <c r="U3">
+        <v>184.3596916299559</v>
+      </c>
+      <c r="V3">
         <v>122</v>
       </c>
-      <c r="V3">
-        <v>176.839683586025</v>
-      </c>
       <c r="W3">
+        <v>178.3114040870138</v>
+      </c>
+      <c r="X3">
         <v>318</v>
       </c>
-      <c r="X3">
-        <v>289.3050062060406</v>
-      </c>
       <c r="Y3">
+        <v>291.7127016963178</v>
+      </c>
+      <c r="Z3">
         <v>202</v>
       </c>
-      <c r="Z3">
-        <v>197.8520267260579</v>
-      </c>
       <c r="AA3">
+        <v>199.4986191536748</v>
+      </c>
+      <c r="AB3">
         <v>362</v>
       </c>
-      <c r="AB3">
-        <v>300.0383716547305</v>
-      </c>
       <c r="AC3">
+        <v>299.0411326378539</v>
+      </c>
+      <c r="AD3">
         <v>163</v>
       </c>
-      <c r="AD3">
-        <v>127.1446257538134</v>
-      </c>
       <c r="AE3">
+        <v>128.2027669386307</v>
+      </c>
+      <c r="AF3">
         <v>222</v>
       </c>
-      <c r="AF3">
-        <v>157.1654217643271</v>
+      <c r="AG3">
+        <v>158.3714285714286</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2752</v>
       </c>
       <c r="D4">
-        <v>2868.919560273652</v>
+        <v>2848.109684466281</v>
       </c>
       <c r="E4">
-        <v>2468.8</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>2470</v>
+      </c>
+      <c r="G4">
         <v>1517</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>129</v>
       </c>
-      <c r="H4">
-        <v>183.9546692607004</v>
-      </c>
       <c r="I4">
+        <v>185.4856031128405</v>
+      </c>
+      <c r="J4">
         <v>259</v>
       </c>
-      <c r="J4">
-        <v>230.7597649918963</v>
-      </c>
       <c r="K4">
+        <v>232.680226904376</v>
+      </c>
+      <c r="L4">
         <v>260</v>
       </c>
-      <c r="L4">
-        <v>243.4897785349233</v>
-      </c>
       <c r="M4">
+        <v>245.5161839863714</v>
+      </c>
+      <c r="N4">
         <v>245</v>
       </c>
-      <c r="N4">
-        <v>239.9690423162583</v>
-      </c>
       <c r="O4">
+        <v>241.9661469933185</v>
+      </c>
+      <c r="P4">
         <v>259</v>
       </c>
-      <c r="P4">
-        <v>235.628920148945</v>
-      </c>
       <c r="Q4">
+        <v>237.5899048407116</v>
+      </c>
+      <c r="R4">
         <v>157</v>
       </c>
-      <c r="R4">
-        <v>122.4644554806669</v>
-      </c>
       <c r="S4">
+        <v>123.483646683221</v>
+      </c>
+      <c r="T4">
         <v>339</v>
       </c>
-      <c r="T4">
-        <v>328.0929137323944</v>
-      </c>
       <c r="U4">
+        <v>330.8234154929577</v>
+      </c>
+      <c r="V4">
         <v>103</v>
       </c>
-      <c r="V4">
-        <v>150.9911333333334</v>
-      </c>
       <c r="W4">
+        <v>152.2477333333333</v>
+      </c>
+      <c r="X4">
         <v>229</v>
       </c>
-      <c r="X4">
-        <v>232.2638837638377</v>
-      </c>
       <c r="Y4">
+        <v>233.9810138248848</v>
+      </c>
+      <c r="Z4">
         <v>162</v>
       </c>
-      <c r="Z4">
-        <v>213.4342720191732</v>
-      </c>
       <c r="AA4">
+        <v>197.7898678414097</v>
+      </c>
+      <c r="AB4">
         <v>287</v>
       </c>
-      <c r="AB4">
-        <v>203.1823245331616</v>
-      </c>
       <c r="AC4">
+        <v>204.7414414414414</v>
+      </c>
+      <c r="AD4">
         <v>163</v>
       </c>
-      <c r="AD4">
-        <v>240.874126344086</v>
-      </c>
       <c r="AE4">
+        <v>240.7752165223184</v>
+      </c>
+      <c r="AF4">
         <v>160</v>
       </c>
-      <c r="AF4">
-        <v>243.8142758142758</v>
+      <c r="AG4">
+        <v>221.0292834890966</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="D5">
-        <v>2470.745159320201</v>
+        <v>2466.667397108195</v>
       </c>
       <c r="E5">
-        <v>2020.1</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>2020</v>
+      </c>
+      <c r="G5">
         <v>1722</v>
       </c>
-      <c r="G5">
-        <v>249</v>
-      </c>
       <c r="H5">
-        <v>176.2801352221507</v>
+        <v>251</v>
       </c>
       <c r="I5">
+        <v>179.0595881595881</v>
+      </c>
+      <c r="J5">
         <v>341</v>
       </c>
-      <c r="J5">
-        <v>265.9896771904931</v>
-      </c>
       <c r="K5">
+        <v>268.2033345157857</v>
+      </c>
+      <c r="L5">
         <v>118</v>
       </c>
-      <c r="L5">
-        <v>101.2764246682279</v>
-      </c>
       <c r="M5">
+        <v>101.7618047452353</v>
+      </c>
+      <c r="N5">
         <v>143</v>
       </c>
-      <c r="N5">
-        <v>138.3990757042254</v>
-      </c>
       <c r="O5">
+        <v>139.5508802816901</v>
+      </c>
+      <c r="P5">
         <v>300</v>
       </c>
-      <c r="P5">
-        <v>268.4859584859585</v>
-      </c>
       <c r="Q5">
+        <v>270.7203907203907</v>
+      </c>
+      <c r="R5">
         <v>145</v>
       </c>
-      <c r="R5">
-        <v>142.0224944320713</v>
-      </c>
       <c r="S5">
+        <v>143.2044543429844</v>
+      </c>
+      <c r="T5">
         <v>235</v>
       </c>
-      <c r="T5">
-        <v>335.1112191958496</v>
-      </c>
       <c r="U5">
+        <v>337.9001297016861</v>
+      </c>
+      <c r="V5">
         <v>236</v>
       </c>
-      <c r="V5">
-        <v>310.9289394847214</v>
-      </c>
       <c r="W5">
+        <v>288.1383259911894</v>
+      </c>
+      <c r="X5">
         <v>209</v>
       </c>
-      <c r="X5">
-        <v>180.2942722636328</v>
-      </c>
       <c r="Y5">
+        <v>181.7947430364849</v>
+      </c>
+      <c r="Z5">
         <v>230</v>
       </c>
-      <c r="Z5">
-        <v>233.2781365313653</v>
-      </c>
       <c r="AA5">
+        <v>235.0027649769585</v>
+      </c>
+      <c r="AB5">
         <v>131</v>
       </c>
-      <c r="AB5">
-        <v>94.97392021101221</v>
-      </c>
       <c r="AC5">
+        <v>95.76432575008241</v>
+      </c>
+      <c r="AD5">
         <v>119</v>
       </c>
-      <c r="AD5">
-        <v>111.443398637138</v>
-      </c>
       <c r="AE5">
+        <v>112.3708688245315</v>
+      </c>
+      <c r="AF5">
         <v>126</v>
       </c>
-      <c r="AF5">
-        <v>112.261507293355</v>
+      <c r="AG5">
+        <v>113.1957860615883</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>2292</v>
       </c>
       <c r="D6">
-        <v>2242.953401100532</v>
+        <v>2227.450014756482</v>
       </c>
       <c r="E6">
-        <v>2168.3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1488</v>
+        <v>2166.2</v>
       </c>
       <c r="G6">
+        <v>1501</v>
+      </c>
+      <c r="H6">
         <v>243</v>
       </c>
-      <c r="H6">
-        <v>235.1816461267606</v>
-      </c>
       <c r="I6">
+        <v>237.1389084507042</v>
+      </c>
+      <c r="J6">
         <v>218</v>
       </c>
-      <c r="J6">
-        <v>180.6860912174896</v>
-      </c>
       <c r="K6">
+        <v>180.0855439642325</v>
+      </c>
+      <c r="L6">
         <v>171</v>
       </c>
-      <c r="L6">
-        <v>152.3549027552674</v>
-      </c>
       <c r="M6">
+        <v>153.6228525121556</v>
+      </c>
+      <c r="N6">
         <v>392</v>
       </c>
-      <c r="N6">
-        <v>305.7711245122384</v>
-      </c>
       <c r="O6">
+        <v>308.3158566867683</v>
+      </c>
+      <c r="P6">
         <v>173</v>
       </c>
-      <c r="P6">
-        <v>169.4475278396437</v>
-      </c>
       <c r="Q6">
+        <v>170.8577282850779</v>
+      </c>
+      <c r="R6">
         <v>46</v>
       </c>
-      <c r="R6">
-        <v>67.43293333333334</v>
-      </c>
       <c r="S6">
+        <v>67.99413333333334</v>
+      </c>
+      <c r="T6">
         <v>187</v>
       </c>
-      <c r="T6">
-        <v>170.1258998758792</v>
-      </c>
       <c r="U6">
+        <v>171.5417459660736</v>
+      </c>
+      <c r="V6">
         <v>196</v>
       </c>
-      <c r="V6">
-        <v>168.2218579234973</v>
-      </c>
       <c r="W6">
+        <v>169.0280824581875</v>
+      </c>
+      <c r="X6">
         <v>112</v>
       </c>
-      <c r="X6">
-        <v>170.6699930699931</v>
-      </c>
       <c r="Y6">
+        <v>154.7204984423676</v>
+      </c>
+      <c r="Z6">
         <v>181</v>
       </c>
-      <c r="Z6">
-        <v>156.1400156924284</v>
-      </c>
       <c r="AA6">
+        <v>157.4394664574343</v>
+      </c>
+      <c r="AB6">
         <v>130</v>
       </c>
-      <c r="AB6">
-        <v>171.274415817855</v>
-      </c>
       <c r="AC6">
+        <v>158.7202643171806</v>
+      </c>
+      <c r="AD6">
         <v>113</v>
       </c>
-      <c r="AD6">
-        <v>163.7941331575478</v>
-      </c>
       <c r="AE6">
+        <v>165.1572841133816</v>
+      </c>
+      <c r="AF6">
         <v>130</v>
       </c>
-      <c r="AF6">
-        <v>131.8528597785978</v>
+      <c r="AG6">
+        <v>132.8276497695853</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D7">
-        <v>2203.410402365127</v>
+        <v>2190.634535029393</v>
       </c>
       <c r="E7">
-        <v>2080.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2653</v>
+        <v>2096.8</v>
       </c>
       <c r="G7">
-        <v>219</v>
+        <v>1605</v>
       </c>
       <c r="H7">
-        <v>170.8262149698475</v>
+        <v>147</v>
       </c>
       <c r="I7">
-        <v>97</v>
+        <v>179.4759911894273</v>
       </c>
       <c r="J7">
-        <v>143.3422715053763</v>
+        <v>311</v>
       </c>
       <c r="K7">
-        <v>137</v>
+        <v>303.4987676056338</v>
       </c>
       <c r="L7">
-        <v>138.9526291512915</v>
+        <v>125</v>
       </c>
       <c r="M7">
-        <v>189</v>
+        <v>108.7289132993331</v>
       </c>
       <c r="N7">
-        <v>168.3922609400324</v>
+        <v>284</v>
       </c>
       <c r="O7">
-        <v>127</v>
+        <v>202.601287001287</v>
       </c>
       <c r="P7">
-        <v>167.3219292989814</v>
+        <v>60</v>
       </c>
       <c r="Q7">
-        <v>187</v>
+        <v>88.688</v>
       </c>
       <c r="R7">
-        <v>161.3159278148293</v>
+        <v>121</v>
       </c>
       <c r="S7">
-        <v>145</v>
+        <v>110.9976003309888</v>
       </c>
       <c r="T7">
-        <v>220.9566874566875</v>
+        <v>162</v>
       </c>
       <c r="U7">
-        <v>262</v>
+        <v>133.8250372578241</v>
       </c>
       <c r="V7">
-        <v>189.9478404220244</v>
+        <v>126</v>
       </c>
       <c r="W7">
-        <v>102</v>
+        <v>113.7025641025641</v>
       </c>
       <c r="X7">
-        <v>95.52291311754685</v>
+        <v>91</v>
       </c>
       <c r="Y7">
-        <v>304</v>
+        <v>134.4205196535643</v>
       </c>
       <c r="Z7">
-        <v>260.9155347384856</v>
+        <v>276</v>
       </c>
       <c r="AA7">
-        <v>88</v>
+        <v>217.0795317488471</v>
       </c>
       <c r="AB7">
-        <v>129.0021333333333</v>
+        <v>231</v>
       </c>
       <c r="AC7">
-        <v>226</v>
+        <v>207.5256077795786</v>
       </c>
       <c r="AD7">
-        <v>221.3591982182628</v>
+        <v>110</v>
       </c>
       <c r="AE7">
-        <v>149</v>
+        <v>112.3926267281106</v>
       </c>
       <c r="AF7">
-        <v>135.5548613984278</v>
+        <v>190</v>
+      </c>
+      <c r="AG7">
+        <v>277.6980883322346</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>1970</v>
+        <v>2232</v>
       </c>
       <c r="D8">
-        <v>2125.363199282622</v>
+        <v>2183.301317434205</v>
       </c>
       <c r="E8">
-        <v>1510.9</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2549</v>
+        <v>2078.9</v>
       </c>
       <c r="G8">
-        <v>112</v>
+        <v>2684</v>
       </c>
       <c r="H8">
-        <v>113.5963099630996</v>
+        <v>219</v>
       </c>
       <c r="I8">
-        <v>197</v>
+        <v>172.2478893224548</v>
       </c>
       <c r="J8">
-        <v>179.2235415804717</v>
+        <v>97</v>
       </c>
       <c r="K8">
-        <v>188</v>
+        <v>143.2834110592938</v>
       </c>
       <c r="L8">
-        <v>286.4817740817741</v>
+        <v>137</v>
       </c>
       <c r="M8">
-        <v>165</v>
+        <v>139.9799078341014</v>
       </c>
       <c r="N8">
-        <v>154.5223594548552</v>
+        <v>189</v>
       </c>
       <c r="O8">
-        <v>146</v>
+        <v>169.7936790923825</v>
       </c>
       <c r="P8">
-        <v>103.3610431423052</v>
+        <v>127</v>
       </c>
       <c r="Q8">
-        <v>86</v>
+        <v>155.0574889867841</v>
       </c>
       <c r="R8">
-        <v>71.27983415001884</v>
+        <v>187</v>
       </c>
       <c r="S8">
-        <v>210</v>
+        <v>162.6584542958023</v>
       </c>
       <c r="T8">
-        <v>187.9401709401709</v>
+        <v>145</v>
       </c>
       <c r="U8">
-        <v>90</v>
+        <v>200.3077881619938</v>
       </c>
       <c r="V8">
-        <v>70.20255409719759</v>
+        <v>262</v>
       </c>
       <c r="W8">
-        <v>169</v>
+        <v>191.5286515001648</v>
       </c>
       <c r="X8">
-        <v>215.803774680604</v>
+        <v>102</v>
       </c>
       <c r="Y8">
-        <v>98</v>
+        <v>96.31788756388416</v>
       </c>
       <c r="Z8">
-        <v>144.8200268817205</v>
+        <v>304</v>
       </c>
       <c r="AA8">
-        <v>173</v>
+        <v>262.166005445352</v>
       </c>
       <c r="AB8">
-        <v>246.698897535668</v>
+        <v>88</v>
       </c>
       <c r="AC8">
-        <v>154</v>
+        <v>130.0757333333333</v>
       </c>
       <c r="AD8">
-        <v>111.6487306297395</v>
+        <v>226</v>
       </c>
       <c r="AE8">
-        <v>182</v>
+        <v>223.201425389755</v>
       </c>
       <c r="AF8">
-        <v>239.784182144997</v>
+        <v>149</v>
+      </c>
+      <c r="AG8">
+        <v>136.6829954489036</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>1915</v>
+        <v>1946</v>
       </c>
       <c r="D9">
-        <v>2124.959509239591</v>
+        <v>2128.516471823294</v>
       </c>
       <c r="E9">
-        <v>1550.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>1550.7</v>
+      </c>
+      <c r="G9">
         <v>2819</v>
       </c>
-      <c r="G9">
-        <v>236</v>
-      </c>
       <c r="H9">
-        <v>195.6051262721448</v>
+        <v>267</v>
       </c>
       <c r="I9">
+        <v>220.5634873323397</v>
+      </c>
+      <c r="J9">
         <v>62</v>
       </c>
-      <c r="J9">
-        <v>79.1706155632985</v>
-      </c>
       <c r="K9">
+        <v>79.82950058072009</v>
+      </c>
+      <c r="L9">
         <v>53</v>
       </c>
-      <c r="L9">
-        <v>75.57827496757459</v>
-      </c>
       <c r="M9">
+        <v>76.20726329442282</v>
+      </c>
+      <c r="N9">
         <v>68</v>
       </c>
-      <c r="N9">
-        <v>100.4873655913979</v>
-      </c>
       <c r="O9">
+        <v>100.4461025982678</v>
+      </c>
+      <c r="P9">
         <v>174</v>
       </c>
-      <c r="P9">
-        <v>176.4799815498155</v>
-      </c>
       <c r="Q9">
+        <v>177.7847004608295</v>
+      </c>
+      <c r="R9">
         <v>107</v>
       </c>
-      <c r="R9">
-        <v>155.097099538563</v>
-      </c>
       <c r="S9">
+        <v>156.3878707976269</v>
+      </c>
+      <c r="T9">
         <v>175</v>
       </c>
-      <c r="T9">
-        <v>150.198087431694</v>
-      </c>
       <c r="U9">
+        <v>150.9179307662388</v>
+      </c>
+      <c r="V9">
         <v>264</v>
       </c>
-      <c r="V9">
-        <v>227.7401333856414</v>
-      </c>
       <c r="W9">
+        <v>229.6354648881914</v>
+      </c>
+      <c r="X9">
         <v>152</v>
       </c>
-      <c r="X9">
-        <v>200.2593169562612</v>
-      </c>
       <c r="Y9">
+        <v>185.5806167400881</v>
+      </c>
+      <c r="Z9">
         <v>126</v>
       </c>
-      <c r="Z9">
-        <v>192.0037422037422</v>
-      </c>
       <c r="AA9">
+        <v>174.0605607476635</v>
+      </c>
+      <c r="AB9">
         <v>174</v>
       </c>
-      <c r="AB9">
-        <v>168.4016725352113</v>
-      </c>
       <c r="AC9">
+        <v>169.8031690140845</v>
+      </c>
+      <c r="AD9">
         <v>178</v>
       </c>
-      <c r="AD9">
-        <v>260.9361333333333</v>
-      </c>
       <c r="AE9">
+        <v>263.1077333333333</v>
+      </c>
+      <c r="AF9">
         <v>146</v>
       </c>
-      <c r="AF9">
-        <v>143.0019599109131</v>
+      <c r="AG9">
+        <v>144.1920712694877</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>2195</v>
+        <v>2204</v>
       </c>
       <c r="D10">
-        <v>2108.519381941373</v>
+        <v>2101.739277307466</v>
       </c>
       <c r="E10">
-        <v>1881</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>1881.6</v>
+      </c>
+      <c r="G10">
         <v>2457</v>
       </c>
-      <c r="G10">
-        <v>126</v>
-      </c>
       <c r="H10">
-        <v>108.1426229508197</v>
+        <v>135</v>
       </c>
       <c r="I10">
+        <v>116.4224037339557</v>
+      </c>
+      <c r="J10">
         <v>87</v>
       </c>
-      <c r="J10">
-        <v>85.21349665924276</v>
-      </c>
       <c r="K10">
+        <v>85.92267260579064</v>
+      </c>
+      <c r="L10">
         <v>255</v>
       </c>
-      <c r="L10">
-        <v>231.989863467108</v>
-      </c>
       <c r="M10">
+        <v>233.9205626810095</v>
+      </c>
+      <c r="N10">
         <v>148</v>
       </c>
-      <c r="N10">
-        <v>194.9893349310965</v>
-      </c>
       <c r="O10">
+        <v>180.6969162995595</v>
+      </c>
+      <c r="P10">
         <v>114</v>
       </c>
-      <c r="P10">
-        <v>145.5717770034843</v>
-      </c>
       <c r="Q10">
+        <v>146.783275261324</v>
+      </c>
+      <c r="R10">
         <v>133</v>
       </c>
-      <c r="R10">
-        <v>118.4982576985413</v>
-      </c>
       <c r="S10">
+        <v>119.4844408427877</v>
+      </c>
+      <c r="T10">
         <v>309</v>
       </c>
-      <c r="T10">
-        <v>266.5594743036485</v>
-      </c>
       <c r="U10">
+        <v>268.7778736759513</v>
+      </c>
+      <c r="V10">
         <v>101</v>
       </c>
-      <c r="V10">
-        <v>153.9077616077616</v>
-      </c>
       <c r="W10">
+        <v>139.5247352024922</v>
+      </c>
+      <c r="X10">
         <v>152</v>
       </c>
-      <c r="X10">
-        <v>110.1987471150676</v>
-      </c>
       <c r="Y10">
+        <v>111.1158588855918</v>
+      </c>
+      <c r="Z10">
         <v>280</v>
       </c>
-      <c r="Z10">
-        <v>198.2266580811333</v>
-      </c>
       <c r="AA10">
+        <v>199.7477477477478</v>
+      </c>
+      <c r="AB10">
         <v>310</v>
       </c>
-      <c r="AB10">
-        <v>290.3147359454855</v>
-      </c>
       <c r="AC10">
+        <v>292.7308347529813</v>
+      </c>
+      <c r="AD10">
         <v>113</v>
       </c>
-      <c r="AD10">
-        <v>109.3643045774648</v>
-      </c>
       <c r="AE10">
+        <v>110.2744718309859</v>
+      </c>
+      <c r="AF10">
         <v>67</v>
       </c>
-      <c r="AF10">
-        <v>95.54234760051882</v>
+      <c r="AG10">
+        <v>96.33748378728923</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2002</v>
       </c>
       <c r="D11">
-        <v>2094.799396484753</v>
+        <v>2095.32843105301</v>
       </c>
       <c r="E11">
-        <v>1664.3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3106</v>
+        <v>1640.1</v>
       </c>
       <c r="G11">
+        <v>3108</v>
+      </c>
+      <c r="H11">
         <v>199</v>
       </c>
-      <c r="H11">
-        <v>254.1121370499419</v>
-      </c>
       <c r="I11">
+        <v>256.2269454123112</v>
+      </c>
+      <c r="J11">
         <v>171</v>
       </c>
-      <c r="J11">
-        <v>160.1413543441227</v>
-      </c>
       <c r="K11">
+        <v>161.4741056218058</v>
+      </c>
+      <c r="L11">
         <v>84</v>
       </c>
-      <c r="L11">
-        <v>81.29735915492958</v>
-      </c>
       <c r="M11">
+        <v>81.97394366197183</v>
+      </c>
+      <c r="N11">
         <v>109</v>
       </c>
-      <c r="N11">
-        <v>166.0984753984754</v>
-      </c>
       <c r="O11">
+        <v>150.576199376947</v>
+      </c>
+      <c r="P11">
         <v>91</v>
       </c>
-      <c r="P11">
-        <v>78.50133385641428</v>
-      </c>
       <c r="Q11">
+        <v>79.15464888191447</v>
+      </c>
+      <c r="R11">
         <v>349</v>
       </c>
-      <c r="R11">
-        <v>253.0221233102539</v>
-      </c>
       <c r="S11">
+        <v>255.1278602044181</v>
+      </c>
+      <c r="T11">
         <v>181</v>
       </c>
-      <c r="T11">
-        <v>161.264546191248</v>
-      </c>
       <c r="U11">
+        <v>162.6066450567261</v>
+      </c>
+      <c r="V11">
         <v>120</v>
       </c>
-      <c r="V11">
-        <v>117.5358574610245</v>
-      </c>
       <c r="W11">
+        <v>118.5140311804009</v>
+      </c>
+      <c r="X11">
         <v>112</v>
       </c>
-      <c r="X11">
-        <v>159.7125810635538</v>
-      </c>
       <c r="Y11">
+        <v>161.0417639429312</v>
+      </c>
+      <c r="Z11">
         <v>108</v>
       </c>
-      <c r="Z11">
-        <v>96.65494505494506</v>
-      </c>
       <c r="AA11">
+        <v>97.45934065934065</v>
+      </c>
+      <c r="AB11">
         <v>115</v>
       </c>
-      <c r="AB11">
-        <v>166.6931443638761</v>
-      </c>
       <c r="AC11">
+        <v>168.0804218852999</v>
+      </c>
+      <c r="AD11">
         <v>238</v>
       </c>
-      <c r="AD11">
-        <v>216.5238725693008</v>
-      </c>
       <c r="AE11">
+        <v>218.3258585022755</v>
+      </c>
+      <c r="AF11">
         <v>125</v>
       </c>
-      <c r="AF11">
-        <v>183.2416666666667</v>
+      <c r="AG11">
+        <v>184.7666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>2039</v>
+        <v>1972</v>
       </c>
       <c r="D12">
-        <v>2081.68996408983</v>
+        <v>2094.099286853719</v>
       </c>
       <c r="E12">
-        <v>1673.3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2168</v>
+        <v>1511.5</v>
       </c>
       <c r="G12">
-        <v>174</v>
+        <v>2549</v>
       </c>
       <c r="H12">
-        <v>150.1014515496273</v>
+        <v>114</v>
       </c>
       <c r="I12">
-        <v>227</v>
+        <v>116.4796313364055</v>
       </c>
       <c r="J12">
-        <v>164.5731289152654</v>
+        <v>197</v>
       </c>
       <c r="K12">
-        <v>345</v>
+        <v>180.7151013653289</v>
       </c>
       <c r="L12">
-        <v>285.9481718808896</v>
+        <v>188</v>
       </c>
       <c r="M12">
+        <v>259.7094080996885</v>
+      </c>
+      <c r="N12">
         <v>165</v>
       </c>
-      <c r="N12">
-        <v>150.1110881257758</v>
-      </c>
       <c r="O12">
-        <v>45</v>
+        <v>155.8083475298126</v>
       </c>
       <c r="P12">
-        <v>35.1012770485988</v>
+        <v>146</v>
       </c>
       <c r="Q12">
-        <v>73</v>
+        <v>104.1541827541827</v>
       </c>
       <c r="R12">
-        <v>104.0983787289235</v>
+        <v>86</v>
       </c>
       <c r="S12">
-        <v>88</v>
+        <v>71.04292101341281</v>
       </c>
       <c r="T12">
-        <v>82.41192504258944</v>
+        <v>210</v>
       </c>
       <c r="U12">
-        <v>214</v>
+        <v>189.5042735042735</v>
       </c>
       <c r="V12">
-        <v>190.6663695299838</v>
+        <v>90</v>
       </c>
       <c r="W12">
-        <v>170</v>
+        <v>70.78680383114579</v>
       </c>
       <c r="X12">
-        <v>246.4159525379038</v>
+        <v>169</v>
       </c>
       <c r="Y12">
-        <v>184</v>
+        <v>217.5997677119628</v>
       </c>
       <c r="Z12">
-        <v>234.957955865273</v>
+        <v>98</v>
       </c>
       <c r="AA12">
-        <v>180</v>
+        <v>144.7605596269154</v>
       </c>
       <c r="AB12">
-        <v>176.3037861915367</v>
+        <v>173</v>
       </c>
       <c r="AC12">
-        <v>84</v>
+        <v>248.7520103761349</v>
       </c>
       <c r="AD12">
-        <v>128.0024948024948</v>
+        <v>154</v>
       </c>
       <c r="AE12">
-        <v>90</v>
+        <v>112.5779096604022</v>
       </c>
       <c r="AF12">
-        <v>132.9979838709677</v>
+        <v>182</v>
+      </c>
+      <c r="AG12">
+        <v>222.2083700440529</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:33">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13">
-        <v>1954</v>
+        <v>2039</v>
       </c>
       <c r="D13">
-        <v>2055.149467102764</v>
+        <v>2081.495466595416</v>
       </c>
       <c r="E13">
-        <v>1420.8</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2468</v>
+        <v>1674.1</v>
       </c>
       <c r="G13">
-        <v>154</v>
+        <v>2170</v>
       </c>
       <c r="H13">
-        <v>225.7537333333333</v>
+        <v>174</v>
       </c>
       <c r="I13">
-        <v>31</v>
+        <v>151.3506473126716</v>
       </c>
       <c r="J13">
-        <v>44.93467369808834</v>
+        <v>227</v>
       </c>
       <c r="K13">
-        <v>112</v>
+        <v>165.9427629409825</v>
       </c>
       <c r="L13">
-        <v>165.5086021505377</v>
+        <v>345</v>
       </c>
       <c r="M13">
-        <v>190</v>
+        <v>284.9977645305514</v>
       </c>
       <c r="N13">
-        <v>157.4787033546928</v>
+        <v>165</v>
       </c>
       <c r="O13">
+        <v>151.360364087712</v>
+      </c>
+      <c r="P13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>35.39340191557289</v>
+      </c>
+      <c r="R13">
+        <v>73</v>
+      </c>
+      <c r="S13">
+        <v>104.9647211413748</v>
+      </c>
+      <c r="T13">
+        <v>88</v>
+      </c>
+      <c r="U13">
+        <v>83.09778534923338</v>
+      </c>
+      <c r="V13">
+        <v>214</v>
+      </c>
+      <c r="W13">
+        <v>192.2531604538088</v>
+      </c>
+      <c r="X13">
+        <v>170</v>
+      </c>
+      <c r="Y13">
+        <v>248.466710613052</v>
+      </c>
+      <c r="Z13">
+        <v>184</v>
+      </c>
+      <c r="AA13">
+        <v>236.913356562137</v>
+      </c>
+      <c r="AB13">
+        <v>180</v>
+      </c>
+      <c r="AC13">
+        <v>177.7710467706013</v>
+      </c>
+      <c r="AD13">
         <v>84</v>
       </c>
-      <c r="P13">
-        <v>119.7844357976654</v>
-      </c>
-      <c r="Q13">
-        <v>182</v>
-      </c>
-      <c r="R13">
-        <v>162.8814814814815</v>
-      </c>
-      <c r="S13">
-        <v>228</v>
-      </c>
-      <c r="T13">
-        <v>161.4131358660657</v>
-      </c>
-      <c r="U13">
-        <v>170</v>
-      </c>
-      <c r="V13">
-        <v>172.4229704797048</v>
-      </c>
-      <c r="W13">
-        <v>174</v>
-      </c>
-      <c r="X13">
-        <v>149.33981264637</v>
-      </c>
-      <c r="Y13">
-        <v>251</v>
-      </c>
-      <c r="Z13">
-        <v>181.9729310913287</v>
-      </c>
-      <c r="AA13">
-        <v>111</v>
-      </c>
-      <c r="AB13">
-        <v>169.1461538461539</v>
-      </c>
-      <c r="AC13">
-        <v>88</v>
-      </c>
-      <c r="AD13">
-        <v>115.9396045536249</v>
-      </c>
       <c r="AE13">
-        <v>179</v>
+        <v>116.0403738317757</v>
       </c>
       <c r="AF13">
-        <v>228.5732288037166</v>
+        <v>90</v>
+      </c>
+      <c r="AG13">
+        <v>132.9433710859427</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:33">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>2000</v>
+        <v>1954</v>
       </c>
       <c r="D14">
-        <v>2011.322121145523</v>
+        <v>2041.503775834629</v>
       </c>
       <c r="E14">
-        <v>1797.1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2348</v>
+        <v>1420.5</v>
       </c>
       <c r="G14">
-        <v>201</v>
+        <v>2468</v>
       </c>
       <c r="H14">
-        <v>196.8725612472161</v>
+        <v>154</v>
       </c>
       <c r="I14">
-        <v>130</v>
+        <v>227.6325333333333</v>
       </c>
       <c r="J14">
-        <v>92.03380553766902</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>146</v>
+        <v>45.30863546473302</v>
       </c>
       <c r="L14">
-        <v>211.6278180619644</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>81</v>
+        <v>165.4406395736176</v>
       </c>
       <c r="N14">
-        <v>69.87481365241271</v>
+        <v>190</v>
       </c>
       <c r="O14">
-        <v>87</v>
+        <v>156.9552906110283</v>
       </c>
       <c r="P14">
-        <v>74.66990632318502</v>
+        <v>84</v>
       </c>
       <c r="Q14">
-        <v>90</v>
+        <v>120.7813229571984</v>
       </c>
       <c r="R14">
-        <v>118.5745955662073</v>
+        <v>182</v>
       </c>
       <c r="S14">
-        <v>203</v>
+        <v>164.237037037037</v>
       </c>
       <c r="T14">
-        <v>205.8933118081181</v>
+        <v>228</v>
       </c>
       <c r="U14">
-        <v>106</v>
+        <v>162.6517374517374</v>
       </c>
       <c r="V14">
-        <v>151.1565499351492</v>
+        <v>170</v>
       </c>
       <c r="W14">
-        <v>287</v>
+        <v>173.6976958525345</v>
       </c>
       <c r="X14">
-        <v>237.8757255936676</v>
+        <v>174</v>
       </c>
       <c r="Y14">
-        <v>156</v>
+        <v>150.0555425904317</v>
       </c>
       <c r="Z14">
-        <v>141.9232105916425</v>
+        <v>251</v>
       </c>
       <c r="AA14">
-        <v>287</v>
+        <v>183.4873722387075</v>
       </c>
       <c r="AB14">
-        <v>256.851566951567</v>
+        <v>111</v>
       </c>
       <c r="AC14">
-        <v>114</v>
+        <v>153.3390654205607</v>
       </c>
       <c r="AD14">
-        <v>145.5717770034843</v>
+        <v>88</v>
       </c>
       <c r="AE14">
-        <v>112</v>
+        <v>107.4414096916299</v>
       </c>
       <c r="AF14">
-        <v>108.3964788732394</v>
+        <v>179</v>
+      </c>
+      <c r="AG14">
+        <v>230.475493612079</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:33">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>2087</v>
+        <v>2000</v>
       </c>
       <c r="D15">
-        <v>1997.506850940397</v>
+        <v>2015.09794450064</v>
       </c>
       <c r="E15">
-        <v>1957.6</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1443</v>
+        <v>1798.1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2348</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="I15">
-        <v>311</v>
+        <v>198.5110022271715</v>
       </c>
       <c r="J15">
-        <v>300.9937940140845</v>
+        <v>130</v>
       </c>
       <c r="K15">
-        <v>125</v>
+        <v>92.74002574002574</v>
       </c>
       <c r="L15">
-        <v>107.8315025500196</v>
+        <v>146</v>
       </c>
       <c r="M15">
-        <v>284</v>
+        <v>213.3890573500329</v>
       </c>
       <c r="N15">
-        <v>201.0584674822923</v>
+        <v>81</v>
       </c>
       <c r="O15">
-        <v>60</v>
+        <v>70.45633581796783</v>
       </c>
       <c r="P15">
-        <v>87.956</v>
+        <v>87</v>
       </c>
       <c r="Q15">
-        <v>121</v>
+        <v>75.02777129521587</v>
       </c>
       <c r="R15">
-        <v>110.0814646255689</v>
+        <v>90</v>
       </c>
       <c r="S15">
-        <v>162</v>
+        <v>109.8832599118943</v>
       </c>
       <c r="T15">
-        <v>134.271315491896</v>
+        <v>203</v>
       </c>
       <c r="U15">
-        <v>126</v>
+        <v>207.4154838709677</v>
       </c>
       <c r="V15">
-        <v>112.7641025641026</v>
+        <v>106</v>
       </c>
       <c r="W15">
-        <v>91</v>
+        <v>152.4145265888456</v>
       </c>
       <c r="X15">
-        <v>134.4757392473118</v>
+        <v>287</v>
       </c>
       <c r="Y15">
-        <v>276</v>
+        <v>237.0850968703427</v>
       </c>
       <c r="Z15">
-        <v>215.2878325647393</v>
+        <v>156</v>
       </c>
       <c r="AA15">
-        <v>231</v>
+        <v>143.1043442283823</v>
       </c>
       <c r="AB15">
-        <v>205.8127633711507</v>
+        <v>287</v>
       </c>
       <c r="AC15">
-        <v>110</v>
+        <v>258.9891737891738</v>
       </c>
       <c r="AD15">
-        <v>111.5678044280443</v>
+        <v>114</v>
       </c>
       <c r="AE15">
-        <v>190</v>
+        <v>146.783275261324</v>
       </c>
       <c r="AF15">
-        <v>275.4060646011865</v>
+        <v>112</v>
+      </c>
+      <c r="AG15">
+        <v>109.2985915492958</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:33">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16">
-        <v>2024</v>
+        <v>2037</v>
       </c>
       <c r="D16">
-        <v>1961.458758228407</v>
+        <v>1982.40485932653</v>
       </c>
       <c r="E16">
-        <v>1941.5</v>
+        <v>0</v>
       </c>
       <c r="F16">
+        <v>1938.1</v>
+      </c>
+      <c r="G16">
         <v>2272</v>
       </c>
-      <c r="G16">
-        <v>90</v>
-      </c>
       <c r="H16">
-        <v>132.9979838709677</v>
+        <v>103</v>
       </c>
       <c r="I16">
+        <v>152.1463024650233</v>
+      </c>
+      <c r="J16">
         <v>81</v>
       </c>
-      <c r="J16">
-        <v>123.4309771309771</v>
-      </c>
       <c r="K16">
+        <v>111.8960747663551</v>
+      </c>
+      <c r="L16">
         <v>270</v>
       </c>
-      <c r="L16">
-        <v>191.1471345782357</v>
-      </c>
       <c r="M16">
+        <v>192.6138996138996</v>
+      </c>
+      <c r="N16">
         <v>94</v>
       </c>
-      <c r="N16">
-        <v>120.032868757259</v>
-      </c>
       <c r="O16">
+        <v>121.0318234610917</v>
+      </c>
+      <c r="P16">
         <v>238</v>
       </c>
-      <c r="P16">
-        <v>172.5480382459611</v>
-      </c>
       <c r="Q16">
+        <v>173.9840422024398</v>
+      </c>
+      <c r="R16">
         <v>242</v>
       </c>
-      <c r="R16">
-        <v>207.7024980483997</v>
-      </c>
       <c r="S16">
+        <v>208.6979385453131</v>
+      </c>
+      <c r="T16">
         <v>92</v>
       </c>
-      <c r="T16">
-        <v>133.3545154911009</v>
-      </c>
       <c r="U16">
+        <v>134.4643375082399</v>
+      </c>
+      <c r="V16">
         <v>207</v>
       </c>
-      <c r="V16">
-        <v>188.3211832850641</v>
-      </c>
       <c r="W16">
+        <v>189.8884567645842</v>
+      </c>
+      <c r="X16">
         <v>181</v>
       </c>
-      <c r="X16">
-        <v>177.2832516703786</v>
-      </c>
       <c r="Y16">
+        <v>178.7586636971047</v>
+      </c>
+      <c r="Z16">
         <v>111</v>
       </c>
-      <c r="Z16">
-        <v>158.2865758754864</v>
-      </c>
       <c r="AA16">
+        <v>159.6038910505837</v>
+      </c>
+      <c r="AB16">
         <v>180</v>
       </c>
-      <c r="AB16">
-        <v>140.4051081943952</v>
-      </c>
       <c r="AC16">
+        <v>141.5736076622916</v>
+      </c>
+      <c r="AD16">
         <v>167</v>
       </c>
-      <c r="AD16">
-        <v>149.4571835571836</v>
-      </c>
       <c r="AE16">
+        <v>150.7010175010175</v>
+      </c>
+      <c r="AF16">
         <v>71</v>
       </c>
-      <c r="AF16">
-        <v>66.49143952299829</v>
+      <c r="AG16">
+        <v>67.04480408858602</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:33">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1941</v>
       </c>
       <c r="D17">
-        <v>1945.988965169587</v>
+        <v>1952.893665822379</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>1594</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2245</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>198</v>
       </c>
-      <c r="H17">
-        <v>185.4268313458262</v>
-      </c>
       <c r="I17">
+        <v>186.9700170357751</v>
+      </c>
+      <c r="J17">
         <v>213</v>
       </c>
-      <c r="J17">
-        <v>190.6250305250305</v>
-      </c>
       <c r="K17">
+        <v>192.2114774114774</v>
+      </c>
+      <c r="L17">
         <v>44</v>
       </c>
-      <c r="L17">
-        <v>57.96980227681247</v>
-      </c>
       <c r="M17">
+        <v>53.72070484581497</v>
+      </c>
+      <c r="N17">
         <v>158</v>
       </c>
-      <c r="N17">
-        <v>229.0218852999341</v>
-      </c>
       <c r="O17">
+        <v>230.9278839815425</v>
+      </c>
+      <c r="P17">
         <v>164</v>
       </c>
-      <c r="P17">
-        <v>242.3518817204301</v>
-      </c>
       <c r="Q17">
+        <v>242.25236508994</v>
+      </c>
+      <c r="R17">
         <v>126</v>
       </c>
-      <c r="R17">
-        <v>160.8951219512195</v>
-      </c>
       <c r="S17">
+        <v>162.2341463414634</v>
+      </c>
+      <c r="T17">
         <v>173</v>
       </c>
-      <c r="T17">
-        <v>125.423574019123</v>
-      </c>
       <c r="U17">
+        <v>126.4673920211012</v>
+      </c>
+      <c r="V17">
         <v>225</v>
       </c>
-      <c r="V17">
-        <v>159.2892788151964</v>
-      </c>
       <c r="W17">
+        <v>160.511583011583</v>
+      </c>
+      <c r="X17">
         <v>36</v>
       </c>
-      <c r="X17">
-        <v>34.84172535211268</v>
-      </c>
       <c r="Y17">
+        <v>35.13169014084507</v>
+      </c>
+      <c r="Z17">
         <v>60</v>
       </c>
-      <c r="Z17">
-        <v>87.956</v>
-      </c>
       <c r="AA17">
+        <v>88.688</v>
+      </c>
+      <c r="AB17">
         <v>157</v>
       </c>
-      <c r="AB17">
-        <v>159.237684501845</v>
-      </c>
       <c r="AC17">
+        <v>160.414930875576</v>
+      </c>
+      <c r="AD17">
         <v>227</v>
       </c>
-      <c r="AD17">
-        <v>188.1456087448172</v>
-      </c>
       <c r="AE17">
+        <v>187.5202682563338</v>
+      </c>
+      <c r="AF17">
         <v>160</v>
       </c>
-      <c r="AF17">
-        <v>124.8045406172401</v>
+      <c r="AG17">
+        <v>125.8432068109259</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:33">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>1930</v>
       </c>
       <c r="D18">
-        <v>1945.007493253425</v>
+        <v>1940.851782299268</v>
       </c>
       <c r="E18">
-        <v>1997.4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2562</v>
+        <v>1997.5</v>
       </c>
       <c r="G18">
+        <v>2571</v>
+      </c>
+      <c r="H18">
         <v>190</v>
       </c>
-      <c r="H18">
-        <v>170.041107041107</v>
-      </c>
       <c r="I18">
+        <v>171.4562474562474</v>
+      </c>
+      <c r="J18">
         <v>159</v>
       </c>
-      <c r="J18">
-        <v>209.4817855002996</v>
-      </c>
       <c r="K18">
+        <v>194.1270925110132</v>
+      </c>
+      <c r="L18">
         <v>52</v>
       </c>
-      <c r="L18">
-        <v>66.40116144018583</v>
-      </c>
       <c r="M18">
+        <v>66.95377468060394</v>
+      </c>
+      <c r="N18">
         <v>131</v>
       </c>
-      <c r="N18">
-        <v>192.0372666666667</v>
-      </c>
       <c r="O18">
+        <v>193.6354666666666</v>
+      </c>
+      <c r="P18">
         <v>183</v>
       </c>
-      <c r="P18">
-        <v>171.3793441226576</v>
-      </c>
       <c r="Q18">
+        <v>172.8056218057922</v>
+      </c>
+      <c r="R18">
         <v>88</v>
       </c>
-      <c r="R18">
-        <v>85.16866197183099</v>
-      </c>
       <c r="S18">
+        <v>85.87746478873238</v>
+      </c>
+      <c r="T18">
         <v>135</v>
       </c>
-      <c r="T18">
-        <v>105.3038311457964</v>
-      </c>
       <c r="U18">
+        <v>106.1802057467187</v>
+      </c>
+      <c r="V18">
         <v>131</v>
       </c>
-      <c r="V18">
-        <v>193.5859543010753</v>
-      </c>
       <c r="W18">
+        <v>193.5064623584277</v>
+      </c>
+      <c r="X18">
         <v>141</v>
       </c>
-      <c r="X18">
-        <v>125.6259724473258</v>
-      </c>
       <c r="Y18">
+        <v>126.6714748784441</v>
+      </c>
+      <c r="Z18">
         <v>161</v>
       </c>
-      <c r="Z18">
-        <v>133.4424802110818</v>
-      </c>
       <c r="AA18">
+        <v>132.998956780924</v>
+      </c>
+      <c r="AB18">
         <v>165</v>
       </c>
-      <c r="AB18">
-        <v>150.1110881257758</v>
-      </c>
       <c r="AC18">
+        <v>151.360364087712</v>
+      </c>
+      <c r="AD18">
         <v>81</v>
       </c>
-      <c r="AD18">
-        <v>115.506420233463</v>
-      </c>
       <c r="AE18">
+        <v>116.4677042801556</v>
+      </c>
+      <c r="AF18">
         <v>313</v>
       </c>
-      <c r="AF18">
-        <v>226.9224200461589</v>
+      <c r="AG18">
+        <v>228.8109462578305</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:33">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>1966</v>
       </c>
       <c r="D19">
-        <v>1923.040590224021</v>
+        <v>1936.786546063506</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>1698.8</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3033</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>125</v>
       </c>
-      <c r="J19">
-        <v>126.7815959409594</v>
-      </c>
       <c r="K19">
+        <v>127.7188940092166</v>
+      </c>
+      <c r="L19">
         <v>84</v>
       </c>
-      <c r="L19">
-        <v>123.1384</v>
-      </c>
       <c r="M19">
+        <v>124.1632</v>
+      </c>
+      <c r="N19">
         <v>160</v>
       </c>
-      <c r="N19">
-        <v>228.1608300907912</v>
-      </c>
       <c r="O19">
+        <v>230.0596627756161</v>
+      </c>
+      <c r="P19">
         <v>318</v>
       </c>
-      <c r="P19">
-        <v>307.768573943662</v>
-      </c>
       <c r="Q19">
+        <v>310.3299295774648</v>
+      </c>
+      <c r="R19">
         <v>268</v>
       </c>
-      <c r="R19">
-        <v>189.7312298776562</v>
-      </c>
       <c r="S19">
+        <v>191.18712998713</v>
+      </c>
+      <c r="T19">
         <v>138</v>
       </c>
-      <c r="T19">
-        <v>135.1662360801782</v>
-      </c>
       <c r="U19">
+        <v>136.291135857461</v>
+      </c>
+      <c r="V19">
         <v>182</v>
       </c>
-      <c r="V19">
-        <v>150.8480211081794</v>
-      </c>
       <c r="W19">
+        <v>150.3466467958271</v>
+      </c>
+      <c r="X19">
         <v>107</v>
       </c>
-      <c r="X19">
-        <v>95.75999185999187</v>
-      </c>
       <c r="Y19">
+        <v>96.55693935693935</v>
+      </c>
+      <c r="Z19">
         <v>107</v>
       </c>
-      <c r="Z19">
-        <v>95.3331847649919</v>
-      </c>
       <c r="AA19">
+        <v>96.12658022690438</v>
+      </c>
+      <c r="AB19">
         <v>143</v>
       </c>
-      <c r="AB19">
-        <v>182.603193960511</v>
-      </c>
       <c r="AC19">
+        <v>184.1228803716608</v>
+      </c>
+      <c r="AD19">
         <v>248</v>
       </c>
-      <c r="AD19">
-        <v>213.9377010592389</v>
-      </c>
       <c r="AE19">
+        <v>215.7181639858768</v>
+      </c>
+      <c r="AF19">
         <v>86</v>
       </c>
-      <c r="AF19">
-        <v>73.81163153786105</v>
+      <c r="AG19">
+        <v>74.16538311940879</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:33">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>1569</v>
+        <v>1731</v>
       </c>
       <c r="D20">
-        <v>1583.097309370354</v>
+        <v>1817.211573209091</v>
       </c>
       <c r="E20">
-        <v>1549.3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1669</v>
+        <v>1690.4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1816</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I20">
+        <v>223.7921495327103</v>
+      </c>
+      <c r="J20">
         <v>129</v>
       </c>
-      <c r="J20">
-        <v>110.7174473067916</v>
-      </c>
       <c r="K20">
+        <v>111.2480746791132</v>
+      </c>
+      <c r="L20">
         <v>201</v>
       </c>
-      <c r="L20">
-        <v>196.8725612472161</v>
-      </c>
       <c r="M20">
+        <v>198.5110022271715</v>
+      </c>
+      <c r="N20">
         <v>161</v>
       </c>
-      <c r="N20">
-        <v>144.0874643874644</v>
-      </c>
       <c r="O20">
+        <v>145.2866096866097</v>
+      </c>
+      <c r="P20">
         <v>104</v>
       </c>
-      <c r="P20">
-        <v>86.19886920467395</v>
-      </c>
       <c r="Q20">
+        <v>85.91236959761549</v>
+      </c>
+      <c r="R20">
         <v>104</v>
       </c>
-      <c r="R20">
-        <v>97.39591141396934</v>
-      </c>
       <c r="S20">
+        <v>98.20647359454854</v>
+      </c>
+      <c r="T20">
         <v>149</v>
       </c>
-      <c r="T20">
-        <v>218.4240666666667</v>
-      </c>
       <c r="U20">
+        <v>220.2418666666667</v>
+      </c>
+      <c r="V20">
         <v>29</v>
       </c>
-      <c r="V20">
-        <v>37.03141695702671</v>
-      </c>
       <c r="W20">
+        <v>37.33960511033681</v>
+      </c>
+      <c r="X20">
         <v>214</v>
       </c>
-      <c r="X20">
-        <v>166.9260730755587</v>
-      </c>
       <c r="Y20">
+        <v>168.3152891096133</v>
+      </c>
+      <c r="Z20">
         <v>64</v>
       </c>
-      <c r="Z20">
-        <v>92.76835860250495</v>
-      </c>
       <c r="AA20">
+        <v>93.54040870138431</v>
+      </c>
+      <c r="AB20">
         <v>113</v>
       </c>
-      <c r="AB20">
-        <v>166.9863575268817</v>
-      </c>
       <c r="AC20">
+        <v>166.9177881412392</v>
+      </c>
+      <c r="AD20">
         <v>213</v>
       </c>
-      <c r="AD20">
-        <v>189.7754051863857</v>
-      </c>
       <c r="AE20">
+        <v>191.3547811993517</v>
+      </c>
+      <c r="AF20">
         <v>88</v>
       </c>
-      <c r="AF20">
-        <v>75.91337779521382</v>
+      <c r="AG20">
+        <v>76.54515496273048</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:33">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1457</v>
       </c>
       <c r="D21">
-        <v>1425.100031327543</v>
+        <v>1418.443461554032</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>1358.9</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2417</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>275</v>
       </c>
-      <c r="J21">
-        <v>237.2293056100432</v>
-      </c>
       <c r="K21">
+        <v>239.2036092585328</v>
+      </c>
+      <c r="L21">
         <v>169</v>
       </c>
-      <c r="L21">
-        <v>151.24708994709</v>
-      </c>
       <c r="M21">
+        <v>152.5058201058201</v>
+      </c>
+      <c r="N21">
         <v>151</v>
       </c>
-      <c r="N21">
-        <v>153.152167896679</v>
-      </c>
       <c r="O21">
+        <v>154.2844239631336</v>
+      </c>
+      <c r="P21">
         <v>27</v>
       </c>
-      <c r="P21">
-        <v>39.13665128543177</v>
-      </c>
       <c r="Q21">
+        <v>39.4623599208965</v>
+      </c>
+      <c r="R21">
         <v>109</v>
       </c>
-      <c r="R21">
-        <v>166.0984753984754</v>
-      </c>
       <c r="S21">
+        <v>150.576199376947</v>
+      </c>
+      <c r="T21">
         <v>13</v>
       </c>
-      <c r="T21">
-        <v>19.21081989247312</v>
-      </c>
       <c r="U21">
+        <v>19.20293137908061</v>
+      </c>
+      <c r="V21">
         <v>126</v>
       </c>
-      <c r="V21">
-        <v>121.9460387323944</v>
-      </c>
       <c r="W21">
+        <v>122.9609154929577</v>
+      </c>
+      <c r="X21">
         <v>70</v>
       </c>
-      <c r="X21">
-        <v>102.6153333333333</v>
-      </c>
       <c r="Y21">
+        <v>103.4693333333333</v>
+      </c>
+      <c r="Z21">
         <v>176</v>
       </c>
-      <c r="Z21">
-        <v>164.8238500851789</v>
-      </c>
       <c r="AA21">
+        <v>166.1955706984668</v>
+      </c>
+      <c r="AB21">
         <v>113</v>
       </c>
-      <c r="AB21">
-        <v>96.98505074160812</v>
-      </c>
       <c r="AC21">
+        <v>97.44986386619992</v>
+      </c>
+      <c r="AD21">
         <v>135</v>
       </c>
-      <c r="AD21">
-        <v>95.57356728911783</v>
-      </c>
       <c r="AE21">
+        <v>96.3069498069498</v>
+      </c>
+      <c r="AF21">
         <v>93</v>
       </c>
-      <c r="AF21">
-        <v>77.08168111571806</v>
+      <c r="AG21">
+        <v>76.82548435171385</v>
       </c>
     </row>
   </sheetData>

--- a/TableTeams.xlsx
+++ b/TableTeams.xlsx
@@ -133,21 +133,24 @@
     <t>Arsenal</t>
   </si>
   <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
     <t>Southampton</t>
   </si>
   <si>
     <t>West Ham</t>
   </si>
   <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
     <t>Norwich</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
@@ -161,9 +164,6 @@
   </si>
   <si>
     <t>Spurs</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
   </si>
   <si>
     <t>Sheffield Utd</t>
@@ -642,7 +642,7 @@
         <v>4113</v>
       </c>
       <c r="D2">
-        <v>3887.569298775384</v>
+        <v>3906.517537486269</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -657,79 +657,79 @@
         <v>182</v>
       </c>
       <c r="I2">
-        <v>266.0055372445616</v>
+        <v>268.3390243902439</v>
       </c>
       <c r="J2">
         <v>252</v>
       </c>
       <c r="K2">
-        <v>372.4895999999999</v>
+        <v>375.7572</v>
       </c>
       <c r="L2">
         <v>447</v>
       </c>
       <c r="M2">
-        <v>351.5744590280241</v>
+        <v>354.6585846044697</v>
       </c>
       <c r="N2">
         <v>435</v>
       </c>
       <c r="O2">
-        <v>317.996043521266</v>
+        <v>306.9220031545742</v>
       </c>
       <c r="P2">
         <v>309</v>
       </c>
       <c r="Q2">
-        <v>277.5991896272285</v>
+        <v>280.0343800648298</v>
       </c>
       <c r="R2">
         <v>240</v>
       </c>
       <c r="S2">
-        <v>245.2202764976959</v>
+        <v>247.59963099631</v>
       </c>
       <c r="T2">
         <v>257</v>
       </c>
       <c r="U2">
-        <v>330.9061556329848</v>
+        <v>333.8089721254356</v>
       </c>
       <c r="V2">
         <v>401</v>
       </c>
       <c r="W2">
-        <v>378.6614991482112</v>
+        <v>381.983241056218</v>
       </c>
       <c r="X2">
         <v>382</v>
       </c>
       <c r="Y2">
-        <v>272.5129987129987</v>
+        <v>274.9035714285715</v>
       </c>
       <c r="Z2">
         <v>185</v>
       </c>
       <c r="AA2">
-        <v>180.537852112676</v>
+        <v>182.1215889084507</v>
       </c>
       <c r="AB2">
         <v>317</v>
       </c>
       <c r="AC2">
-        <v>275.7365241271086</v>
+        <v>276.6359929769801</v>
       </c>
       <c r="AD2">
         <v>469</v>
       </c>
       <c r="AE2">
-        <v>404.46005445352</v>
+        <v>408.0081096849476</v>
       </c>
       <c r="AF2">
         <v>237</v>
       </c>
       <c r="AG2">
-        <v>213.8691086691086</v>
+        <v>215.7452380952381</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -743,7 +743,7 @@
         <v>2958</v>
       </c>
       <c r="D3">
-        <v>2933.895210187076</v>
+        <v>2921.962679656396</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,79 +758,79 @@
         <v>194</v>
       </c>
       <c r="I3">
-        <v>174.2855753646677</v>
+        <v>175.8144651539708</v>
       </c>
       <c r="J3">
         <v>158</v>
       </c>
       <c r="K3">
-        <v>227.1839169909209</v>
+        <v>229.1768482490272</v>
       </c>
       <c r="L3">
         <v>348</v>
       </c>
       <c r="M3">
-        <v>254.3968348170129</v>
+        <v>245.5376025236593</v>
       </c>
       <c r="N3">
         <v>343</v>
       </c>
       <c r="O3">
-        <v>295.7991443018281</v>
+        <v>298.3939906651109</v>
       </c>
       <c r="P3">
         <v>117</v>
       </c>
       <c r="Q3">
-        <v>161.6276635514018</v>
+        <v>163.2489394884591</v>
       </c>
       <c r="R3">
         <v>258</v>
       </c>
       <c r="S3">
-        <v>381.1043304463691</v>
+        <v>384.4475016655563</v>
       </c>
       <c r="T3">
         <v>151</v>
       </c>
       <c r="U3">
-        <v>184.3596916299559</v>
+        <v>185.976954845815</v>
       </c>
       <c r="V3">
         <v>122</v>
       </c>
       <c r="W3">
-        <v>178.3114040870138</v>
+        <v>179.8756097560976</v>
       </c>
       <c r="X3">
         <v>318</v>
       </c>
       <c r="Y3">
-        <v>291.7127016963178</v>
+        <v>267.4895449417074</v>
       </c>
       <c r="Z3">
         <v>202</v>
       </c>
       <c r="AA3">
-        <v>199.4986191536748</v>
+        <v>201.2486859688196</v>
       </c>
       <c r="AB3">
         <v>362</v>
       </c>
       <c r="AC3">
-        <v>299.0411326378539</v>
+        <v>301.6644187779434</v>
       </c>
       <c r="AD3">
         <v>163</v>
       </c>
       <c r="AE3">
-        <v>128.2027669386307</v>
+        <v>129.3274033345158</v>
       </c>
       <c r="AF3">
         <v>222</v>
       </c>
       <c r="AG3">
-        <v>158.3714285714286</v>
+        <v>159.7607142857143</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -844,7 +844,7 @@
         <v>2752</v>
       </c>
       <c r="D4">
-        <v>2848.109684466281</v>
+        <v>2851.777022136241</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,79 +859,79 @@
         <v>129</v>
       </c>
       <c r="I4">
-        <v>185.4856031128405</v>
+        <v>187.1127431906615</v>
       </c>
       <c r="J4">
         <v>259</v>
       </c>
       <c r="K4">
-        <v>232.680226904376</v>
+        <v>234.7213735818476</v>
       </c>
       <c r="L4">
         <v>260</v>
       </c>
       <c r="M4">
-        <v>245.5161839863714</v>
+        <v>247.6699318568995</v>
       </c>
       <c r="N4">
         <v>245</v>
       </c>
       <c r="O4">
-        <v>241.9661469933185</v>
+        <v>244.0887527839644</v>
       </c>
       <c r="P4">
         <v>259</v>
       </c>
       <c r="Q4">
-        <v>237.5899048407116</v>
+        <v>217.8609815720195</v>
       </c>
       <c r="R4">
         <v>157</v>
       </c>
       <c r="S4">
-        <v>123.483646683221</v>
+        <v>124.5668854203618</v>
       </c>
       <c r="T4">
         <v>339</v>
       </c>
       <c r="U4">
-        <v>330.8234154929577</v>
+        <v>333.7255061619718</v>
       </c>
       <c r="V4">
         <v>103</v>
       </c>
       <c r="W4">
-        <v>152.2477333333333</v>
+        <v>153.5833</v>
       </c>
       <c r="X4">
         <v>229</v>
       </c>
       <c r="Y4">
-        <v>233.9810138248848</v>
+        <v>236.2513145756458</v>
       </c>
       <c r="Z4">
         <v>162</v>
       </c>
       <c r="AA4">
-        <v>197.7898678414097</v>
+        <v>199.5249449339207</v>
       </c>
       <c r="AB4">
         <v>287</v>
       </c>
       <c r="AC4">
-        <v>204.7414414414414</v>
+        <v>206.5375</v>
       </c>
       <c r="AD4">
         <v>163</v>
       </c>
       <c r="AE4">
-        <v>240.7752165223184</v>
+        <v>242.8873750832778</v>
       </c>
       <c r="AF4">
         <v>160</v>
       </c>
       <c r="AG4">
-        <v>221.0292834890966</v>
+        <v>223.2464129756706</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -945,7 +945,7 @@
         <v>2584</v>
       </c>
       <c r="D5">
-        <v>2466.667397108195</v>
+        <v>2483.347746123975</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,79 +960,79 @@
         <v>251</v>
       </c>
       <c r="I5">
-        <v>179.0595881595881</v>
+        <v>180.6303571428572</v>
       </c>
       <c r="J5">
         <v>341</v>
       </c>
       <c r="K5">
-        <v>268.2033345157857</v>
+        <v>270.5561014544165</v>
       </c>
       <c r="L5">
         <v>118</v>
       </c>
       <c r="M5">
-        <v>101.7618047452353</v>
+        <v>102.6544924154026</v>
       </c>
       <c r="N5">
         <v>143</v>
       </c>
       <c r="O5">
-        <v>139.5508802816901</v>
+        <v>140.7750660211268</v>
       </c>
       <c r="P5">
         <v>300</v>
       </c>
       <c r="Q5">
-        <v>270.7203907203907</v>
+        <v>273.0952380952381</v>
       </c>
       <c r="R5">
         <v>145</v>
       </c>
       <c r="S5">
-        <v>143.2044543429844</v>
+        <v>144.4606904231626</v>
       </c>
       <c r="T5">
         <v>235</v>
       </c>
       <c r="U5">
-        <v>337.9001297016861</v>
+        <v>340.8642996108949</v>
       </c>
       <c r="V5">
         <v>236</v>
       </c>
       <c r="W5">
-        <v>288.1383259911894</v>
+        <v>290.6659691629956</v>
       </c>
       <c r="X5">
         <v>209</v>
       </c>
       <c r="Y5">
-        <v>181.7947430364849</v>
+        <v>182.3877682403433</v>
       </c>
       <c r="Z5">
         <v>230</v>
       </c>
       <c r="AA5">
-        <v>235.0027649769585</v>
+        <v>237.282979704797</v>
       </c>
       <c r="AB5">
         <v>131</v>
       </c>
       <c r="AC5">
-        <v>95.76432575008241</v>
+        <v>92.42938485804417</v>
       </c>
       <c r="AD5">
         <v>119</v>
       </c>
       <c r="AE5">
-        <v>112.3708688245315</v>
+        <v>113.3566226575809</v>
       </c>
       <c r="AF5">
         <v>126</v>
       </c>
       <c r="AG5">
-        <v>113.1957860615883</v>
+        <v>114.1887763371151</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1046,7 +1046,7 @@
         <v>2292</v>
       </c>
       <c r="D6">
-        <v>2227.450014756482</v>
+        <v>2230.691484582446</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1061,79 +1061,79 @@
         <v>243</v>
       </c>
       <c r="I6">
-        <v>237.1389084507042</v>
+        <v>239.2191681338028</v>
       </c>
       <c r="J6">
         <v>218</v>
       </c>
       <c r="K6">
-        <v>180.0855439642325</v>
+        <v>181.6653129657228</v>
       </c>
       <c r="L6">
         <v>171</v>
       </c>
       <c r="M6">
-        <v>153.6228525121556</v>
+        <v>154.970482171799</v>
       </c>
       <c r="N6">
         <v>392</v>
       </c>
       <c r="O6">
-        <v>308.3158566867683</v>
+        <v>311.0205037247251</v>
       </c>
       <c r="P6">
         <v>173</v>
       </c>
       <c r="Q6">
-        <v>170.8577282850779</v>
+        <v>172.3565478841871</v>
       </c>
       <c r="R6">
         <v>46</v>
       </c>
       <c r="S6">
-        <v>67.99413333333334</v>
+        <v>68.59060000000001</v>
       </c>
       <c r="T6">
         <v>187</v>
       </c>
       <c r="U6">
-        <v>171.5417459660736</v>
+        <v>157.2973110191801</v>
       </c>
       <c r="V6">
         <v>196</v>
       </c>
       <c r="W6">
-        <v>169.0280824581875</v>
+        <v>170.5108518086348</v>
       </c>
       <c r="X6">
         <v>112</v>
       </c>
       <c r="Y6">
-        <v>154.7204984423676</v>
+        <v>156.2724890829695</v>
       </c>
       <c r="Z6">
         <v>181</v>
       </c>
       <c r="AA6">
-        <v>157.4394664574343</v>
+        <v>157.9530433086227</v>
       </c>
       <c r="AB6">
         <v>130</v>
       </c>
       <c r="AC6">
-        <v>158.7202643171806</v>
+        <v>160.1126101321586</v>
       </c>
       <c r="AD6">
         <v>113</v>
       </c>
       <c r="AE6">
-        <v>165.1572841133816</v>
+        <v>166.6060975609756</v>
       </c>
       <c r="AF6">
         <v>130</v>
       </c>
       <c r="AG6">
-        <v>132.8276497695853</v>
+        <v>134.1164667896679</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1147,94 +1147,94 @@
         <v>2234</v>
       </c>
       <c r="D7">
-        <v>2190.634535029393</v>
+        <v>2199.16626724136</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2096.8</v>
+        <v>2097.4</v>
       </c>
       <c r="G7">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H7">
         <v>147</v>
       </c>
       <c r="I7">
-        <v>179.4759911894273</v>
+        <v>181.0504129955947</v>
       </c>
       <c r="J7">
         <v>311</v>
       </c>
       <c r="K7">
-        <v>303.4987676056338</v>
+        <v>306.1611575704225</v>
       </c>
       <c r="L7">
         <v>125</v>
       </c>
       <c r="M7">
-        <v>108.7289132993331</v>
+        <v>109.0835934451814</v>
       </c>
       <c r="N7">
         <v>284</v>
       </c>
       <c r="O7">
-        <v>202.601287001287</v>
+        <v>204.3785714285714</v>
       </c>
       <c r="P7">
         <v>60</v>
       </c>
       <c r="Q7">
-        <v>88.688</v>
+        <v>89.46599999999999</v>
       </c>
       <c r="R7">
         <v>121</v>
       </c>
       <c r="S7">
-        <v>110.9976003309888</v>
+        <v>101.7806130124107</v>
       </c>
       <c r="T7">
         <v>162</v>
       </c>
       <c r="U7">
-        <v>133.8250372578241</v>
+        <v>134.9989940387481</v>
       </c>
       <c r="V7">
         <v>126</v>
       </c>
       <c r="W7">
-        <v>113.7025641025641</v>
+        <v>114.7</v>
       </c>
       <c r="X7">
         <v>91</v>
       </c>
       <c r="Y7">
-        <v>134.4205196535643</v>
+        <v>135.5997001998668</v>
       </c>
       <c r="Z7">
         <v>276</v>
       </c>
       <c r="AA7">
-        <v>217.0795317488471</v>
+        <v>218.9838240510819</v>
       </c>
       <c r="AB7">
         <v>231</v>
       </c>
       <c r="AC7">
-        <v>207.5256077795786</v>
+        <v>209.3460899513776</v>
       </c>
       <c r="AD7">
         <v>110</v>
       </c>
       <c r="AE7">
-        <v>112.3926267281106</v>
+        <v>113.4831642066421</v>
       </c>
       <c r="AF7">
         <v>190</v>
       </c>
       <c r="AG7">
-        <v>277.6980883322346</v>
+        <v>280.1341463414634</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1248,7 +1248,7 @@
         <v>2232</v>
       </c>
       <c r="D8">
-        <v>2183.301317434205</v>
+        <v>2181.041124738705</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1263,79 +1263,79 @@
         <v>219</v>
       </c>
       <c r="I8">
-        <v>172.2478893224548</v>
+        <v>173.7589038666194</v>
       </c>
       <c r="J8">
         <v>97</v>
       </c>
       <c r="K8">
-        <v>143.2834110592938</v>
+        <v>144.5403397734844</v>
       </c>
       <c r="L8">
         <v>137</v>
       </c>
       <c r="M8">
-        <v>139.9799078341014</v>
+        <v>141.3381226937269</v>
       </c>
       <c r="N8">
         <v>189</v>
       </c>
       <c r="O8">
-        <v>169.7936790923825</v>
+        <v>171.2831645056726</v>
       </c>
       <c r="P8">
         <v>127</v>
       </c>
       <c r="Q8">
-        <v>155.0574889867841</v>
+        <v>156.4177037444934</v>
       </c>
       <c r="R8">
         <v>187</v>
       </c>
       <c r="S8">
-        <v>162.6584542958023</v>
+        <v>163.1890557939914</v>
       </c>
       <c r="T8">
         <v>145</v>
       </c>
       <c r="U8">
-        <v>200.3077881619938</v>
+        <v>202.3170617592015</v>
       </c>
       <c r="V8">
         <v>262</v>
       </c>
       <c r="W8">
-        <v>191.5286515001648</v>
+        <v>184.8587697160883</v>
       </c>
       <c r="X8">
         <v>102</v>
       </c>
       <c r="Y8">
-        <v>96.31788756388416</v>
+        <v>97.16281942078365</v>
       </c>
       <c r="Z8">
         <v>304</v>
       </c>
       <c r="AA8">
-        <v>262.166005445352</v>
+        <v>264.4658109684947</v>
       </c>
       <c r="AB8">
         <v>88</v>
       </c>
       <c r="AC8">
-        <v>130.0757333333333</v>
+        <v>131.2168</v>
       </c>
       <c r="AD8">
         <v>226</v>
       </c>
       <c r="AE8">
-        <v>223.201425389755</v>
+        <v>225.159420935412</v>
       </c>
       <c r="AF8">
         <v>149</v>
       </c>
       <c r="AG8">
-        <v>136.6829954489036</v>
+        <v>125.3331515607371</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1346,97 +1346,97 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>1946</v>
+        <v>2208</v>
       </c>
       <c r="D9">
-        <v>2128.516471823294</v>
+        <v>2156.268084906123</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1550.7</v>
+        <v>1925.5</v>
       </c>
       <c r="G9">
-        <v>2819</v>
+        <v>3170</v>
       </c>
       <c r="H9">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="I9">
-        <v>220.5634873323397</v>
+        <v>203.5612260248214</v>
       </c>
       <c r="J9">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K9">
-        <v>79.82950058072009</v>
+        <v>128.9581411439114</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M9">
-        <v>76.20726329442282</v>
+        <v>125.2524</v>
       </c>
       <c r="N9">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="O9">
-        <v>100.4461025982678</v>
+        <v>232.0778210116732</v>
       </c>
       <c r="P9">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="Q9">
-        <v>177.7847004608295</v>
+        <v>313.0522447183099</v>
       </c>
       <c r="R9">
+        <v>268</v>
+      </c>
+      <c r="S9">
+        <v>192.8642857142857</v>
+      </c>
+      <c r="T9">
+        <v>138</v>
+      </c>
+      <c r="U9">
+        <v>137.4867260579065</v>
+      </c>
+      <c r="V9">
+        <v>182</v>
+      </c>
+      <c r="W9">
+        <v>151.6655365126676</v>
+      </c>
+      <c r="X9">
         <v>107</v>
       </c>
-      <c r="S9">
-        <v>156.3878707976269</v>
-      </c>
-      <c r="T9">
-        <v>175</v>
-      </c>
-      <c r="U9">
-        <v>150.9179307662388</v>
-      </c>
-      <c r="V9">
-        <v>264</v>
-      </c>
-      <c r="W9">
-        <v>229.6354648881914</v>
-      </c>
-      <c r="X9">
-        <v>152</v>
-      </c>
       <c r="Y9">
-        <v>185.5806167400881</v>
+        <v>97.40396825396826</v>
       </c>
       <c r="Z9">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="AA9">
-        <v>174.0605607476635</v>
+        <v>96.96983387358185</v>
       </c>
       <c r="AB9">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="AC9">
-        <v>169.8031690140845</v>
+        <v>185.7380662020906</v>
       </c>
       <c r="AD9">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="AE9">
-        <v>263.1077333333333</v>
+        <v>216.42184939524</v>
       </c>
       <c r="AF9">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="AG9">
-        <v>144.1920712694877</v>
+        <v>74.81598599766627</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1447,97 +1447,97 @@
         <v>40</v>
       </c>
       <c r="C10">
-        <v>2204</v>
+        <v>1946</v>
       </c>
       <c r="D10">
-        <v>2101.739277307466</v>
+        <v>2146.30767882635</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1881.6</v>
+        <v>1550.7</v>
       </c>
       <c r="G10">
-        <v>2457</v>
+        <v>2819</v>
       </c>
       <c r="H10">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="I10">
-        <v>116.4224037339557</v>
+        <v>222.4983420268256</v>
       </c>
       <c r="J10">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>85.92267260579064</v>
+        <v>80.52979094076656</v>
       </c>
       <c r="L10">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>233.9205626810095</v>
+        <v>76.87577821011674</v>
       </c>
       <c r="N10">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="O10">
-        <v>180.6969162995595</v>
+        <v>101.3272485009993</v>
       </c>
       <c r="P10">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="Q10">
-        <v>146.783275261324</v>
+        <v>179.5097324723247</v>
       </c>
       <c r="R10">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="S10">
-        <v>119.4844408427877</v>
+        <v>157.759756097561</v>
       </c>
       <c r="T10">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="U10">
-        <v>268.7778736759513</v>
+        <v>152.2418319719953</v>
       </c>
       <c r="V10">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="W10">
-        <v>139.5247352024922</v>
+        <v>230.3845493562232</v>
       </c>
       <c r="X10">
         <v>152</v>
       </c>
       <c r="Y10">
-        <v>111.1158588855918</v>
+        <v>187.20859030837</v>
       </c>
       <c r="Z10">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="AA10">
-        <v>199.7477477477478</v>
+        <v>175.8065502183406</v>
       </c>
       <c r="AB10">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="AC10">
-        <v>292.7308347529813</v>
+        <v>171.2927376760564</v>
       </c>
       <c r="AD10">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="AE10">
-        <v>110.2744718309859</v>
+        <v>265.4158</v>
       </c>
       <c r="AF10">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="AG10">
-        <v>96.33748378728923</v>
+        <v>145.4569710467706</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1548,97 +1548,97 @@
         <v>41</v>
       </c>
       <c r="C11">
-        <v>2002</v>
+        <v>2204</v>
       </c>
       <c r="D11">
-        <v>2095.32843105301</v>
+        <v>2092.550436215834</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1640.1</v>
+        <v>1881.6</v>
       </c>
       <c r="G11">
-        <v>3108</v>
+        <v>2457</v>
       </c>
       <c r="H11">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="I11">
-        <v>256.2269454123112</v>
+        <v>117.443698949825</v>
       </c>
       <c r="J11">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>161.4741056218058</v>
+        <v>86.67641425389756</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="M11">
-        <v>81.97394366197183</v>
+        <v>214.4963332079729</v>
       </c>
       <c r="N11">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="O11">
-        <v>150.576199376947</v>
+        <v>182.2820484581498</v>
       </c>
       <c r="P11">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="Q11">
-        <v>79.15464888191447</v>
+        <v>148.070905923345</v>
       </c>
       <c r="R11">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="S11">
-        <v>255.1278602044181</v>
+        <v>120.5325972447326</v>
       </c>
       <c r="T11">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="U11">
-        <v>162.6066450567261</v>
+        <v>269.6546429964885</v>
       </c>
       <c r="V11">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="W11">
-        <v>118.5140311804009</v>
+        <v>140.9242981908921</v>
       </c>
       <c r="X11">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="Y11">
-        <v>161.0417639429312</v>
+        <v>107.246309148265</v>
       </c>
       <c r="Z11">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="AA11">
-        <v>97.45934065934065</v>
+        <v>201.5</v>
       </c>
       <c r="AB11">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="AC11">
-        <v>168.0804218852999</v>
+        <v>295.2987649063032</v>
       </c>
       <c r="AD11">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AE11">
-        <v>218.3258585022755</v>
+        <v>111.2418353873239</v>
       </c>
       <c r="AF11">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="AG11">
-        <v>184.7666666666667</v>
+        <v>97.18258754863814</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1649,97 +1649,97 @@
         <v>42</v>
       </c>
       <c r="C12">
-        <v>1972</v>
+        <v>2053</v>
       </c>
       <c r="D12">
-        <v>2094.099286853719</v>
+        <v>2090.153478999498</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1511.5</v>
+        <v>1684.1</v>
       </c>
       <c r="G12">
-        <v>2549</v>
+        <v>2168</v>
       </c>
       <c r="H12">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="I12">
-        <v>116.4796313364055</v>
+        <v>164.0617245415529</v>
       </c>
       <c r="J12">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="K12">
-        <v>180.7151013653289</v>
+        <v>160.1638958990536</v>
       </c>
       <c r="L12">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="M12">
-        <v>259.7094080996885</v>
+        <v>287.4978576751118</v>
       </c>
       <c r="N12">
         <v>165</v>
       </c>
       <c r="O12">
-        <v>155.8083475298126</v>
+        <v>138.7917450169236</v>
       </c>
       <c r="P12">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="Q12">
-        <v>104.1541827541827</v>
+        <v>35.70388435615467</v>
       </c>
       <c r="R12">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S12">
-        <v>71.04292101341281</v>
+        <v>105.8855058365759</v>
       </c>
       <c r="T12">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="U12">
-        <v>189.5042735042735</v>
+        <v>83.8267461669506</v>
       </c>
       <c r="V12">
+        <v>214</v>
+      </c>
+      <c r="W12">
+        <v>193.9396677471637</v>
+      </c>
+      <c r="X12">
+        <v>170</v>
+      </c>
+      <c r="Y12">
+        <v>250.6463414634146</v>
+      </c>
+      <c r="Z12">
+        <v>184</v>
+      </c>
+      <c r="AA12">
+        <v>238.991637630662</v>
+      </c>
+      <c r="AB12">
+        <v>180</v>
+      </c>
+      <c r="AC12">
+        <v>179.3305122494432</v>
+      </c>
+      <c r="AD12">
+        <v>84</v>
+      </c>
+      <c r="AE12">
+        <v>117.2043668122271</v>
+      </c>
+      <c r="AF12">
         <v>90</v>
       </c>
-      <c r="W12">
-        <v>70.78680383114579</v>
-      </c>
-      <c r="X12">
-        <v>169</v>
-      </c>
-      <c r="Y12">
-        <v>217.5997677119628</v>
-      </c>
-      <c r="Z12">
-        <v>98</v>
-      </c>
-      <c r="AA12">
-        <v>144.7605596269154</v>
-      </c>
-      <c r="AB12">
-        <v>173</v>
-      </c>
-      <c r="AC12">
-        <v>248.7520103761349</v>
-      </c>
-      <c r="AD12">
-        <v>154</v>
-      </c>
-      <c r="AE12">
-        <v>112.5779096604022</v>
-      </c>
-      <c r="AF12">
-        <v>182</v>
-      </c>
       <c r="AG12">
-        <v>222.2083700440529</v>
+        <v>134.1095936042638</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1750,97 +1750,97 @@
         <v>43</v>
       </c>
       <c r="C13">
-        <v>2039</v>
+        <v>1970</v>
       </c>
       <c r="D13">
-        <v>2081.495466595416</v>
+        <v>2089.341848874687</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1674.1</v>
+        <v>1511.5</v>
       </c>
       <c r="G13">
-        <v>2170</v>
+        <v>2563</v>
       </c>
       <c r="H13">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="I13">
-        <v>151.3506473126716</v>
+        <v>115.5464944649447</v>
       </c>
       <c r="J13">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K13">
-        <v>165.9427629409825</v>
+        <v>165.7089319292967</v>
       </c>
       <c r="L13">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="M13">
-        <v>284.9977645305514</v>
+        <v>262.314535246413</v>
       </c>
       <c r="N13">
         <v>165</v>
       </c>
       <c r="O13">
-        <v>151.360364087712</v>
+        <v>157.1751490630324</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="Q13">
-        <v>35.39340191557289</v>
+        <v>105.0678571428572</v>
       </c>
       <c r="R13">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="S13">
-        <v>104.9647211413748</v>
+        <v>71.66613263785395</v>
       </c>
       <c r="T13">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="U13">
-        <v>83.09778534923338</v>
+        <v>191.1666666666667</v>
       </c>
       <c r="V13">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="W13">
-        <v>192.2531604538088</v>
+        <v>71.40776871230933</v>
       </c>
       <c r="X13">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y13">
-        <v>248.466710613052</v>
+        <v>219.5086236933798</v>
       </c>
       <c r="Z13">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="AA13">
-        <v>236.913356562137</v>
+        <v>146.0304463690873</v>
       </c>
       <c r="AB13">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AC13">
-        <v>177.7710467706013</v>
+        <v>250.9341439688716</v>
       </c>
       <c r="AD13">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AE13">
-        <v>116.0403738317757</v>
+        <v>108.6574447949527</v>
       </c>
       <c r="AF13">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="AG13">
-        <v>132.9433710859427</v>
+        <v>224.157654185022</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1851,97 +1851,97 @@
         <v>44</v>
       </c>
       <c r="C14">
-        <v>1954</v>
+        <v>2002</v>
       </c>
       <c r="D14">
-        <v>2041.503775834629</v>
+        <v>2082.295426019693</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1420.5</v>
+        <v>1640.1</v>
       </c>
       <c r="G14">
-        <v>2468</v>
+        <v>3108</v>
       </c>
       <c r="H14">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="I14">
-        <v>227.6325333333333</v>
+        <v>258.4746515679442</v>
       </c>
       <c r="J14">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="K14">
-        <v>45.30863546473302</v>
+        <v>162.8906090289608</v>
       </c>
       <c r="L14">
+        <v>84</v>
+      </c>
+      <c r="M14">
+        <v>82.69304577464789</v>
+      </c>
+      <c r="N14">
+        <v>109</v>
+      </c>
+      <c r="O14">
+        <v>152.0866188396756</v>
+      </c>
+      <c r="P14">
+        <v>91</v>
+      </c>
+      <c r="Q14">
+        <v>79.41285602809208</v>
+      </c>
+      <c r="R14">
+        <v>349</v>
+      </c>
+      <c r="S14">
+        <v>246.2431703470031</v>
+      </c>
+      <c r="T14">
+        <v>181</v>
+      </c>
+      <c r="U14">
+        <v>164.0330834683955</v>
+      </c>
+      <c r="V14">
+        <v>120</v>
+      </c>
+      <c r="W14">
+        <v>119.5536748329621</v>
+      </c>
+      <c r="X14">
         <v>112</v>
       </c>
-      <c r="M14">
-        <v>165.4406395736176</v>
-      </c>
-      <c r="N14">
-        <v>190</v>
-      </c>
-      <c r="O14">
-        <v>156.9552906110283</v>
-      </c>
-      <c r="P14">
-        <v>84</v>
-      </c>
-      <c r="Q14">
-        <v>120.7813229571984</v>
-      </c>
-      <c r="R14">
-        <v>182</v>
-      </c>
-      <c r="S14">
-        <v>164.237037037037</v>
-      </c>
-      <c r="T14">
-        <v>228</v>
-      </c>
-      <c r="U14">
-        <v>162.6517374517374</v>
-      </c>
-      <c r="V14">
-        <v>170</v>
-      </c>
-      <c r="W14">
-        <v>173.6976958525345</v>
-      </c>
-      <c r="X14">
-        <v>174</v>
-      </c>
       <c r="Y14">
-        <v>150.0555425904317</v>
+        <v>162.4544747081712</v>
       </c>
       <c r="Z14">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="AA14">
-        <v>183.4873722387075</v>
+        <v>98.31428571428572</v>
       </c>
       <c r="AB14">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC14">
-        <v>153.3390654205607</v>
+        <v>169.5548780487805</v>
       </c>
       <c r="AD14">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="AE14">
-        <v>107.4414096916299</v>
+        <v>200.1965776607748</v>
       </c>
       <c r="AF14">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="AG14">
-        <v>230.475493612079</v>
+        <v>186.3875</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1952,97 +1952,97 @@
         <v>45</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>1954</v>
       </c>
       <c r="D15">
-        <v>2015.09794450064</v>
+        <v>2051.767688627969</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1798.1</v>
+        <v>1420.5</v>
       </c>
       <c r="G15">
-        <v>2348</v>
+        <v>2468</v>
       </c>
       <c r="H15">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="I15">
-        <v>198.5110022271715</v>
+        <v>229.6294</v>
       </c>
       <c r="J15">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>92.74002574002574</v>
+        <v>45.70609756097561</v>
       </c>
       <c r="L15">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>213.3890573500329</v>
+        <v>166.8919387075283</v>
       </c>
       <c r="N15">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="O15">
-        <v>70.45633581796783</v>
+        <v>158.3321535022355</v>
       </c>
       <c r="P15">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q15">
-        <v>75.02777129521587</v>
+        <v>121.8408560311284</v>
       </c>
       <c r="R15">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="S15">
-        <v>109.8832599118943</v>
+        <v>165.6777777777778</v>
       </c>
       <c r="T15">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="U15">
-        <v>207.4154838709677</v>
+        <v>164.0785714285714</v>
       </c>
       <c r="V15">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="W15">
-        <v>152.4145265888456</v>
+        <v>175.3830719557195</v>
       </c>
       <c r="X15">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="Y15">
-        <v>237.0850968703427</v>
+        <v>151.3718786464411</v>
       </c>
       <c r="Z15">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="AA15">
-        <v>143.1043442283823</v>
+        <v>177.097523659306</v>
       </c>
       <c r="AB15">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="AC15">
-        <v>258.9891737891738</v>
+        <v>154.8771990018715</v>
       </c>
       <c r="AD15">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="AE15">
-        <v>146.783275261324</v>
+        <v>108.3839207048458</v>
       </c>
       <c r="AF15">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="AG15">
-        <v>109.2985915492958</v>
+        <v>232.497299651568</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2053,97 +2053,97 @@
         <v>46</v>
       </c>
       <c r="C16">
-        <v>2037</v>
+        <v>2000</v>
       </c>
       <c r="D16">
-        <v>1982.40485932653</v>
+        <v>2019.441411626356</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1938.1</v>
+        <v>1798.1</v>
       </c>
       <c r="G16">
-        <v>2272</v>
+        <v>2348</v>
       </c>
       <c r="H16">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="I16">
-        <v>152.1463024650233</v>
+        <v>200.2524053452116</v>
       </c>
       <c r="J16">
+        <v>130</v>
+      </c>
+      <c r="K16">
+        <v>93.55357142857143</v>
+      </c>
+      <c r="L16">
+        <v>146</v>
+      </c>
+      <c r="M16">
+        <v>215.2609756097561</v>
+      </c>
+      <c r="N16">
         <v>81</v>
       </c>
-      <c r="K16">
-        <v>111.8960747663551</v>
-      </c>
-      <c r="L16">
-        <v>270</v>
-      </c>
-      <c r="M16">
-        <v>192.6138996138996</v>
-      </c>
-      <c r="N16">
-        <v>94</v>
-      </c>
       <c r="O16">
-        <v>121.0318234610917</v>
+        <v>70.68616855247757</v>
       </c>
       <c r="P16">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="Q16">
-        <v>173.9840422024398</v>
+        <v>75.68593932322054</v>
       </c>
       <c r="R16">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="S16">
-        <v>208.6979385453131</v>
+        <v>110.8471916299559</v>
       </c>
       <c r="T16">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="U16">
-        <v>134.4643375082399</v>
+        <v>209.4280212177122</v>
       </c>
       <c r="V16">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="W16">
-        <v>189.8884567645842</v>
+        <v>153.7515564202335</v>
       </c>
       <c r="X16">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="Y16">
-        <v>178.7586636971047</v>
+        <v>239.1648845007452</v>
       </c>
       <c r="Z16">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="AA16">
-        <v>159.6038910505837</v>
+        <v>131.2212861978187</v>
       </c>
       <c r="AB16">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="AC16">
-        <v>141.5736076622916</v>
+        <v>261.2611111111111</v>
       </c>
       <c r="AD16">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="AE16">
-        <v>150.7010175010175</v>
+        <v>148.070905923345</v>
       </c>
       <c r="AF16">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="AG16">
-        <v>67.04480408858602</v>
+        <v>110.2573943661972</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2154,97 +2154,97 @@
         <v>47</v>
       </c>
       <c r="C17">
-        <v>1941</v>
+        <v>2037</v>
       </c>
       <c r="D17">
-        <v>1952.893665822379</v>
+        <v>1974.917180797667</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1594</v>
+        <v>1938.1</v>
       </c>
       <c r="G17">
-        <v>2245</v>
+        <v>2272</v>
       </c>
       <c r="H17">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="I17">
-        <v>186.9700170357751</v>
+        <v>153.4809793471019</v>
       </c>
       <c r="J17">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>192.2114774114774</v>
+        <v>113.0184965689332</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="M17">
-        <v>53.72070484581497</v>
+        <v>194.3035714285714</v>
       </c>
       <c r="N17">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="O17">
-        <v>230.9278839815425</v>
+        <v>122.0935540069686</v>
       </c>
       <c r="P17">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="Q17">
-        <v>242.25236508994</v>
+        <v>167.925141955836</v>
       </c>
       <c r="R17">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="S17">
-        <v>162.2341463414634</v>
+        <v>210.5287047841307</v>
       </c>
       <c r="T17">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="U17">
-        <v>126.4673920211012</v>
+        <v>135.6439024390244</v>
       </c>
       <c r="V17">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="W17">
-        <v>160.511583011583</v>
+        <v>174.1205528394133</v>
       </c>
       <c r="X17">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="Y17">
-        <v>35.13169014084507</v>
+        <v>180.3267928730512</v>
       </c>
       <c r="Z17">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AA17">
-        <v>88.688</v>
+        <v>161.0039883268483</v>
       </c>
       <c r="AB17">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AC17">
-        <v>160.414930875576</v>
+        <v>142.8155374246187</v>
       </c>
       <c r="AD17">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="AE17">
-        <v>187.5202682563338</v>
+        <v>152.0230158730159</v>
       </c>
       <c r="AF17">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="AG17">
-        <v>125.8432068109259</v>
+        <v>67.63294293015332</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2255,97 +2255,97 @@
         <v>48</v>
       </c>
       <c r="C18">
-        <v>1930</v>
+        <v>1941</v>
       </c>
       <c r="D18">
-        <v>1940.851782299268</v>
+        <v>1964.660795353688</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1997.5</v>
+        <v>1594</v>
       </c>
       <c r="G18">
-        <v>2571</v>
+        <v>2245</v>
       </c>
       <c r="H18">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I18">
-        <v>171.4562474562474</v>
+        <v>188.6101788756388</v>
       </c>
       <c r="J18">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="K18">
-        <v>194.1270925110132</v>
+        <v>193.8976190476191</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>66.95377468060394</v>
+        <v>54.19196035242291</v>
       </c>
       <c r="N18">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="O18">
-        <v>193.6354666666666</v>
+        <v>232.9536585365854</v>
       </c>
       <c r="P18">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="Q18">
-        <v>172.8056218057922</v>
+        <v>244.3774816788808</v>
       </c>
       <c r="R18">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="S18">
-        <v>85.87746478873238</v>
+        <v>163.6573170731708</v>
       </c>
       <c r="T18">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="U18">
-        <v>106.1802057467187</v>
+        <v>122.0632334384858</v>
       </c>
       <c r="V18">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="W18">
-        <v>193.5064623584277</v>
+        <v>161.9196428571429</v>
       </c>
       <c r="X18">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="Y18">
-        <v>126.6714748784441</v>
+        <v>35.43987676056339</v>
       </c>
       <c r="Z18">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AA18">
-        <v>132.998956780924</v>
+        <v>89.46599999999999</v>
       </c>
       <c r="AB18">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AC18">
-        <v>151.360364087712</v>
+        <v>161.9714252767528</v>
       </c>
       <c r="AD18">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AE18">
-        <v>116.4677042801556</v>
+        <v>189.1652570789866</v>
       </c>
       <c r="AF18">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="AG18">
-        <v>228.8109462578305</v>
+        <v>126.9471443774388</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2356,97 +2356,97 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>1966</v>
+        <v>1930</v>
       </c>
       <c r="D19">
-        <v>1936.786546063506</v>
+        <v>1934.005742709342</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1698.8</v>
+        <v>1997.5</v>
       </c>
       <c r="G19">
-        <v>3033</v>
+        <v>2571</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>172.9603174603175</v>
       </c>
       <c r="J19">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K19">
-        <v>127.7188940092166</v>
+        <v>195.8300385462555</v>
       </c>
       <c r="L19">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>124.1632</v>
+        <v>67.54111498257839</v>
       </c>
       <c r="N19">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="O19">
-        <v>230.0596627756161</v>
+        <v>195.3341</v>
       </c>
       <c r="P19">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="Q19">
-        <v>310.3299295774648</v>
+        <v>174.3215289608177</v>
       </c>
       <c r="R19">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="S19">
-        <v>191.18712998713</v>
+        <v>86.63080985915494</v>
       </c>
       <c r="T19">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U19">
-        <v>136.291135857461</v>
+        <v>107.111653068464</v>
       </c>
       <c r="V19">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="W19">
-        <v>150.3466467958271</v>
+        <v>195.203964023984</v>
       </c>
       <c r="X19">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="Y19">
-        <v>96.55693935693935</v>
+        <v>127.7826782820097</v>
       </c>
       <c r="Z19">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="AA19">
-        <v>96.12658022690438</v>
+        <v>134.1656669150522</v>
       </c>
       <c r="AB19">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AC19">
-        <v>184.1228803716608</v>
+        <v>138.7917450169236</v>
       </c>
       <c r="AD19">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AE19">
-        <v>215.7181639858768</v>
+        <v>117.4893968871595</v>
       </c>
       <c r="AF19">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="AG19">
-        <v>74.16538311940879</v>
+        <v>220.8427287066246</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2457,97 +2457,97 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D20">
-        <v>1817.211573209091</v>
+        <v>1830.222046235003</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1690.4</v>
+        <v>1680.4</v>
       </c>
       <c r="G20">
         <v>1816</v>
       </c>
       <c r="H20">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I20">
-        <v>223.7921495327103</v>
+        <v>223.2464129756706</v>
       </c>
       <c r="J20">
         <v>129</v>
       </c>
       <c r="K20">
-        <v>111.2480746791132</v>
+        <v>112.2239789964994</v>
       </c>
       <c r="L20">
         <v>201</v>
       </c>
       <c r="M20">
-        <v>198.5110022271715</v>
+        <v>200.2524053452116</v>
       </c>
       <c r="N20">
         <v>161</v>
       </c>
       <c r="O20">
-        <v>145.2866096866097</v>
+        <v>146.5611111111111</v>
       </c>
       <c r="P20">
         <v>104</v>
       </c>
       <c r="Q20">
-        <v>85.91236959761549</v>
+        <v>86.66602086438152</v>
       </c>
       <c r="R20">
         <v>104</v>
       </c>
       <c r="S20">
-        <v>98.20647359454854</v>
+        <v>99.06797274275979</v>
       </c>
       <c r="T20">
         <v>149</v>
       </c>
       <c r="U20">
-        <v>220.2418666666667</v>
+        <v>222.1739</v>
       </c>
       <c r="V20">
         <v>29</v>
       </c>
       <c r="W20">
-        <v>37.33960511033681</v>
+        <v>37.66716027874565</v>
       </c>
       <c r="X20">
         <v>214</v>
       </c>
       <c r="Y20">
-        <v>168.3152891096133</v>
+        <v>169.7918056048244</v>
       </c>
       <c r="Z20">
         <v>64</v>
       </c>
       <c r="AA20">
-        <v>93.54040870138431</v>
+        <v>94.3609756097561</v>
       </c>
       <c r="AB20">
         <v>113</v>
       </c>
       <c r="AC20">
-        <v>166.9177881412392</v>
+        <v>168.3820453031313</v>
       </c>
       <c r="AD20">
         <v>213</v>
       </c>
       <c r="AE20">
-        <v>191.3547811993517</v>
+        <v>193.0334076175041</v>
       </c>
       <c r="AF20">
         <v>88</v>
       </c>
       <c r="AG20">
-        <v>76.54515496273048</v>
+        <v>76.79484978540773</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2558,97 +2558,97 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <v>1457</v>
+        <v>1594</v>
       </c>
       <c r="D21">
-        <v>1418.443461554032</v>
+        <v>1526.564318842398</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1358.9</v>
+        <v>1485.6</v>
       </c>
       <c r="G21">
-        <v>2417</v>
+        <v>2659</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>96.66279179810725</v>
       </c>
       <c r="J21">
         <v>275</v>
       </c>
       <c r="K21">
-        <v>239.2036092585328</v>
+        <v>239.9839055793991</v>
       </c>
       <c r="L21">
         <v>169</v>
       </c>
       <c r="M21">
-        <v>152.5058201058201</v>
+        <v>153.8436507936508</v>
       </c>
       <c r="N21">
         <v>151</v>
       </c>
       <c r="O21">
-        <v>154.2844239631336</v>
+        <v>155.781434501845</v>
       </c>
       <c r="P21">
         <v>27</v>
       </c>
       <c r="Q21">
-        <v>39.4623599208965</v>
+        <v>39.80853658536586</v>
       </c>
       <c r="R21">
         <v>109</v>
       </c>
       <c r="S21">
-        <v>150.576199376947</v>
+        <v>152.0866188396756</v>
       </c>
       <c r="T21">
         <v>13</v>
       </c>
       <c r="U21">
-        <v>19.20293137908061</v>
+        <v>19.37138574283811</v>
       </c>
       <c r="V21">
         <v>126</v>
       </c>
       <c r="W21">
-        <v>122.9609154929577</v>
+        <v>124.0395686619718</v>
       </c>
       <c r="X21">
         <v>70</v>
       </c>
       <c r="Y21">
-        <v>103.4693333333333</v>
+        <v>104.377</v>
       </c>
       <c r="Z21">
         <v>176</v>
       </c>
       <c r="AA21">
-        <v>166.1955706984668</v>
+        <v>167.6534923339012</v>
       </c>
       <c r="AB21">
         <v>113</v>
       </c>
       <c r="AC21">
-        <v>97.44986386619992</v>
+        <v>98.30472578763127</v>
       </c>
       <c r="AD21">
         <v>135</v>
       </c>
       <c r="AE21">
-        <v>96.3069498069498</v>
+        <v>97.15178571428571</v>
       </c>
       <c r="AF21">
         <v>93</v>
       </c>
       <c r="AG21">
-        <v>76.82548435171385</v>
+        <v>77.49942250372578</v>
       </c>
     </row>
   </sheetData>

--- a/TableTeams.xlsx
+++ b/TableTeams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>team</t>
   </si>
@@ -34,6 +34,12 @@
     <t>threatAllowed</t>
   </si>
   <si>
+    <t>threat GW14</t>
+  </si>
+  <si>
+    <t>threat GW14 Adj</t>
+  </si>
+  <si>
     <t>threat GW13</t>
   </si>
   <si>
@@ -127,43 +133,43 @@
     <t>Leicester</t>
   </si>
   <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
     <t>Man Utd</t>
   </si>
   <si>
-    <t>Arsenal</t>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Southampton</t>
   </si>
   <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Southampton</t>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Norwich</t>
   </si>
   <si>
     <t>West Ham</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Spurs</t>
+  </si>
+  <si>
     <t>Watford</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Spurs</t>
   </si>
   <si>
     <t>Sheffield Utd</t>
@@ -527,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,2025 +636,2151 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>4113</v>
+        <v>4445</v>
       </c>
       <c r="D2">
-        <v>3906.517537486269</v>
+        <v>4178.050085017644</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3283.2</v>
+        <v>3578.099999999999</v>
       </c>
       <c r="G2">
-        <v>1542</v>
+        <v>1582</v>
       </c>
       <c r="H2">
+        <v>332</v>
+      </c>
+      <c r="I2">
+        <v>268.2972918756269</v>
+      </c>
+      <c r="J2">
         <v>182</v>
       </c>
-      <c r="I2">
-        <v>268.3390243902439</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
+        <v>271.3832202344232</v>
+      </c>
+      <c r="L2">
         <v>252</v>
       </c>
-      <c r="K2">
-        <v>375.7572</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>379.0349719975109</v>
+      </c>
+      <c r="N2">
         <v>447</v>
       </c>
-      <c r="M2">
-        <v>354.6585846044697</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>373.9853582554517</v>
+      </c>
+      <c r="P2">
         <v>435</v>
       </c>
-      <c r="O2">
-        <v>306.9220031545742</v>
-      </c>
-      <c r="P2">
+      <c r="Q2">
+        <v>310.0673842524329</v>
+      </c>
+      <c r="R2">
         <v>309</v>
       </c>
-      <c r="Q2">
-        <v>280.0343800648298</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
+        <v>280.4671047690575</v>
+      </c>
+      <c r="T2">
         <v>240</v>
       </c>
-      <c r="S2">
-        <v>247.59963099631</v>
-      </c>
-      <c r="T2">
+      <c r="U2">
+        <v>253.2099519860323</v>
+      </c>
+      <c r="V2">
         <v>257</v>
       </c>
-      <c r="U2">
-        <v>333.8089721254356</v>
-      </c>
-      <c r="V2">
+      <c r="W2">
+        <v>318.2349897540984</v>
+      </c>
+      <c r="X2">
         <v>401</v>
       </c>
-      <c r="W2">
-        <v>381.983241056218</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>382.1991719242902</v>
+      </c>
+      <c r="Z2">
         <v>382</v>
       </c>
-      <c r="Y2">
-        <v>274.9035714285715</v>
-      </c>
-      <c r="Z2">
+      <c r="AA2">
+        <v>267.0133603238866</v>
+      </c>
+      <c r="AB2">
         <v>185</v>
       </c>
-      <c r="AA2">
-        <v>182.1215889084507</v>
-      </c>
-      <c r="AB2">
+      <c r="AC2">
+        <v>178.3659752692461</v>
+      </c>
+      <c r="AD2">
         <v>317</v>
       </c>
-      <c r="AC2">
-        <v>276.6359929769801</v>
-      </c>
-      <c r="AD2">
+      <c r="AE2">
+        <v>277.1141772151898</v>
+      </c>
+      <c r="AF2">
         <v>469</v>
       </c>
-      <c r="AE2">
-        <v>408.0081096849476</v>
-      </c>
-      <c r="AF2">
+      <c r="AG2">
+        <v>405.878947368421</v>
+      </c>
+      <c r="AH2">
         <v>237</v>
       </c>
-      <c r="AG2">
-        <v>215.7452380952381</v>
+      <c r="AI2">
+        <v>212.7981797919762</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>2958</v>
+        <v>3193</v>
       </c>
       <c r="D3">
-        <v>2921.962679656396</v>
+        <v>3156.464203534266</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2532.599999999999</v>
+        <v>2651.8</v>
       </c>
       <c r="G3">
-        <v>1500</v>
+        <v>1607</v>
       </c>
       <c r="H3">
+        <v>235</v>
+      </c>
+      <c r="I3">
+        <v>226.5729956122856</v>
+      </c>
+      <c r="J3">
         <v>194</v>
       </c>
-      <c r="I3">
-        <v>175.8144651539708</v>
-      </c>
-      <c r="J3">
+      <c r="K3">
+        <v>176.0861434472399</v>
+      </c>
+      <c r="L3">
         <v>158</v>
       </c>
-      <c r="K3">
-        <v>229.1768482490272</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>241.4044247787611</v>
+      </c>
+      <c r="N3">
         <v>348</v>
       </c>
-      <c r="M3">
-        <v>245.5376025236593</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>248.0539074019463</v>
+      </c>
+      <c r="P3">
         <v>343</v>
       </c>
-      <c r="O3">
-        <v>298.3939906651109</v>
-      </c>
-      <c r="P3">
+      <c r="Q3">
+        <v>296.8368421052631</v>
+      </c>
+      <c r="R3">
         <v>117</v>
       </c>
-      <c r="Q3">
-        <v>163.2489394884591</v>
-      </c>
-      <c r="R3">
+      <c r="S3">
+        <v>164.9945740956826</v>
+      </c>
+      <c r="T3">
         <v>258</v>
       </c>
-      <c r="S3">
-        <v>384.4475016655563</v>
-      </c>
-      <c r="T3">
+      <c r="U3">
+        <v>379.3259124087591</v>
+      </c>
+      <c r="V3">
         <v>151</v>
       </c>
-      <c r="U3">
-        <v>185.976954845815</v>
-      </c>
-      <c r="V3">
+      <c r="W3">
+        <v>179.7056129985229</v>
+      </c>
+      <c r="X3">
         <v>122</v>
       </c>
-      <c r="W3">
-        <v>179.8756097560976</v>
-      </c>
-      <c r="X3">
+      <c r="Y3">
+        <v>181.9162245527452</v>
+      </c>
+      <c r="Z3">
         <v>318</v>
       </c>
-      <c r="Y3">
-        <v>267.4895449417074</v>
-      </c>
-      <c r="Z3">
+      <c r="AA3">
+        <v>256.9835506519559</v>
+      </c>
+      <c r="AB3">
         <v>202</v>
       </c>
-      <c r="AA3">
-        <v>201.2486859688196</v>
-      </c>
-      <c r="AB3">
+      <c r="AC3">
+        <v>208.4774551665243</v>
+      </c>
+      <c r="AD3">
         <v>362</v>
       </c>
-      <c r="AC3">
-        <v>301.6644187779434</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>304.5562826313957</v>
+      </c>
+      <c r="AF3">
         <v>163</v>
       </c>
-      <c r="AE3">
-        <v>129.3274033345158</v>
-      </c>
-      <c r="AF3">
+      <c r="AG3">
+        <v>136.37497403946</v>
+      </c>
+      <c r="AH3">
         <v>222</v>
       </c>
-      <c r="AG3">
-        <v>159.7607142857143</v>
+      <c r="AI3">
+        <v>155.1753036437247</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>2752</v>
+        <v>2987</v>
       </c>
       <c r="D4">
-        <v>2851.777022136241</v>
+        <v>3066.570646168492</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2470</v>
+        <v>2664</v>
       </c>
       <c r="G4">
-        <v>1517</v>
+        <v>1621</v>
       </c>
       <c r="H4">
+        <v>235</v>
+      </c>
+      <c r="I4">
+        <v>211.0024145616642</v>
+      </c>
+      <c r="J4">
         <v>129</v>
       </c>
-      <c r="I4">
-        <v>187.1127431906615</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>197.096017699115</v>
+      </c>
+      <c r="L4">
         <v>259</v>
       </c>
-      <c r="K4">
-        <v>234.7213735818476</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>235.0840781073977</v>
+      </c>
+      <c r="N4">
         <v>260</v>
       </c>
-      <c r="M4">
-        <v>247.6699318568995</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>247.8099369085174</v>
+      </c>
+      <c r="P4">
         <v>245</v>
       </c>
-      <c r="O4">
-        <v>244.0887527839644</v>
-      </c>
-      <c r="P4">
+      <c r="Q4">
+        <v>252.8563193851409</v>
+      </c>
+      <c r="R4">
         <v>259</v>
       </c>
-      <c r="Q4">
-        <v>217.8609815720195</v>
-      </c>
-      <c r="R4">
+      <c r="S4">
+        <v>209.3042126379137</v>
+      </c>
+      <c r="T4">
         <v>157</v>
       </c>
-      <c r="S4">
-        <v>124.5668854203618</v>
-      </c>
-      <c r="T4">
+      <c r="U4">
+        <v>131.355036344756</v>
+      </c>
+      <c r="V4">
         <v>339</v>
       </c>
-      <c r="U4">
-        <v>333.7255061619718</v>
-      </c>
-      <c r="V4">
+      <c r="W4">
+        <v>326.8435979258077</v>
+      </c>
+      <c r="X4">
         <v>103</v>
       </c>
-      <c r="W4">
-        <v>153.5833</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>154.9230242688239</v>
+      </c>
+      <c r="Z4">
         <v>229</v>
       </c>
-      <c r="Y4">
-        <v>236.2513145756458</v>
-      </c>
-      <c r="Z4">
+      <c r="AA4">
+        <v>241.6044958533392</v>
+      </c>
+      <c r="AB4">
         <v>162</v>
       </c>
-      <c r="AA4">
-        <v>199.5249449339207</v>
-      </c>
-      <c r="AB4">
+      <c r="AC4">
+        <v>192.7967503692762</v>
+      </c>
+      <c r="AD4">
         <v>287</v>
       </c>
-      <c r="AC4">
-        <v>206.5375</v>
-      </c>
-      <c r="AD4">
+      <c r="AE4">
+        <v>200.6095141700405</v>
+      </c>
+      <c r="AF4">
         <v>163</v>
       </c>
-      <c r="AE4">
-        <v>242.8873750832778</v>
-      </c>
-      <c r="AF4">
+      <c r="AG4">
+        <v>239.6516423357664</v>
+      </c>
+      <c r="AH4">
         <v>160</v>
       </c>
-      <c r="AG4">
-        <v>223.2464129756706</v>
+      <c r="AI4">
+        <v>225.6336056009335</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>2584</v>
+        <v>2727</v>
       </c>
       <c r="D5">
-        <v>2483.347746123975</v>
+        <v>2716.438000382404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2020</v>
+        <v>2179.5</v>
       </c>
       <c r="G5">
-        <v>1722</v>
+        <v>1952</v>
       </c>
       <c r="H5">
+        <v>143</v>
+      </c>
+      <c r="I5">
+        <v>210.2465328467153</v>
+      </c>
+      <c r="J5">
         <v>251</v>
       </c>
-      <c r="I5">
-        <v>180.6303571428572</v>
-      </c>
-      <c r="J5">
+      <c r="K5">
+        <v>175.445951417004</v>
+      </c>
+      <c r="L5">
         <v>341</v>
       </c>
-      <c r="K5">
-        <v>270.5561014544165</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>285.2997923156802</v>
+      </c>
+      <c r="N5">
         <v>118</v>
       </c>
-      <c r="M5">
-        <v>102.6544924154026</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>102.1187969924812</v>
+      </c>
+      <c r="P5">
         <v>143</v>
       </c>
-      <c r="O5">
-        <v>140.7750660211268</v>
-      </c>
-      <c r="P5">
+      <c r="Q5">
+        <v>137.8720781810929</v>
+      </c>
+      <c r="R5">
         <v>300</v>
       </c>
-      <c r="Q5">
-        <v>273.0952380952381</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>269.3647845468054</v>
+      </c>
+      <c r="T5">
         <v>145</v>
       </c>
-      <c r="S5">
-        <v>144.4606904231626</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>149.649658411614</v>
+      </c>
+      <c r="V5">
         <v>235</v>
       </c>
-      <c r="U5">
-        <v>340.8642996108949</v>
-      </c>
-      <c r="V5">
+      <c r="W5">
+        <v>359.0508849557522</v>
+      </c>
+      <c r="X5">
         <v>236</v>
       </c>
-      <c r="W5">
-        <v>290.6659691629956</v>
-      </c>
-      <c r="X5">
+      <c r="Y5">
+        <v>280.8644017725258</v>
+      </c>
+      <c r="Z5">
         <v>209</v>
       </c>
-      <c r="Y5">
-        <v>182.3877682403433</v>
-      </c>
-      <c r="Z5">
+      <c r="AA5">
+        <v>182.7030379746835</v>
+      </c>
+      <c r="AB5">
         <v>230</v>
       </c>
-      <c r="AA5">
-        <v>237.282979704797</v>
-      </c>
-      <c r="AB5">
+      <c r="AC5">
+        <v>242.6595373199476</v>
+      </c>
+      <c r="AD5">
         <v>131</v>
       </c>
-      <c r="AC5">
-        <v>92.42938485804417</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <v>93.37661456797404</v>
+      </c>
+      <c r="AF5">
         <v>119</v>
       </c>
-      <c r="AE5">
-        <v>113.3566226575809</v>
-      </c>
-      <c r="AF5">
+      <c r="AG5">
+        <v>113.4207018927445</v>
+      </c>
+      <c r="AH5">
         <v>126</v>
       </c>
-      <c r="AG5">
-        <v>114.1887763371151</v>
+      <c r="AI5">
+        <v>114.3652271873826</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>2292</v>
+        <v>2522</v>
       </c>
       <c r="D6">
-        <v>2230.691484582446</v>
+        <v>2530.685261444066</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2166.2</v>
+        <v>2363.3</v>
       </c>
       <c r="G6">
-        <v>1501</v>
+        <v>1644</v>
       </c>
       <c r="H6">
+        <v>230</v>
+      </c>
+      <c r="I6">
+        <v>284.8017418032787</v>
+      </c>
+      <c r="J6">
         <v>243</v>
       </c>
-      <c r="I6">
-        <v>239.2191681338028</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>234.2861188671719</v>
+      </c>
+      <c r="L6">
         <v>218</v>
       </c>
-      <c r="K6">
-        <v>181.6653129657228</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>183.4068221371388</v>
+      </c>
+      <c r="N6">
         <v>171</v>
       </c>
-      <c r="M6">
-        <v>154.970482171799</v>
-      </c>
-      <c r="N6">
+      <c r="O6">
+        <v>155.2099511828764</v>
+      </c>
+      <c r="P6">
         <v>392</v>
       </c>
-      <c r="O6">
-        <v>311.0205037247251</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>327.9692627206646</v>
+      </c>
+      <c r="R6">
         <v>173</v>
       </c>
-      <c r="Q6">
-        <v>172.3565478841871</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>178.5475234842015</v>
+      </c>
+      <c r="T6">
         <v>46</v>
       </c>
-      <c r="S6">
-        <v>68.59060000000001</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>69.18892345986309</v>
+      </c>
+      <c r="V6">
         <v>187</v>
       </c>
-      <c r="U6">
-        <v>157.2973110191801</v>
-      </c>
-      <c r="V6">
+      <c r="W6">
+        <v>151.11925777332</v>
+      </c>
+      <c r="X6">
         <v>196</v>
       </c>
-      <c r="W6">
-        <v>170.5108518086348</v>
-      </c>
-      <c r="X6">
+      <c r="Y6">
+        <v>169.6210526315789</v>
+      </c>
+      <c r="Z6">
         <v>112</v>
       </c>
-      <c r="Y6">
-        <v>156.2724890829695</v>
-      </c>
-      <c r="Z6">
+      <c r="AA6">
+        <v>157.9435239206535</v>
+      </c>
+      <c r="AB6">
         <v>181</v>
       </c>
-      <c r="AA6">
-        <v>157.9530433086227</v>
-      </c>
-      <c r="AB6">
+      <c r="AC6">
+        <v>158.2260759493671</v>
+      </c>
+      <c r="AD6">
         <v>130</v>
       </c>
-      <c r="AC6">
-        <v>160.1126101321586</v>
-      </c>
-      <c r="AD6">
+      <c r="AE6">
+        <v>154.7134416543575</v>
+      </c>
+      <c r="AF6">
         <v>113</v>
       </c>
-      <c r="AE6">
-        <v>166.6060975609756</v>
-      </c>
-      <c r="AF6">
+      <c r="AG6">
+        <v>168.4961752004935</v>
+      </c>
+      <c r="AH6">
         <v>130</v>
       </c>
-      <c r="AG6">
-        <v>134.1164667896679</v>
+      <c r="AI6">
+        <v>137.1553906591008</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>2234</v>
+        <v>2582</v>
       </c>
       <c r="D7">
-        <v>2199.16626724136</v>
+        <v>2438.747195440465</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2097.4</v>
+        <v>2240.9</v>
       </c>
       <c r="G7">
-        <v>1603</v>
+        <v>2873</v>
       </c>
       <c r="H7">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="I7">
-        <v>181.0504129955947</v>
+        <v>244.6457489878543</v>
       </c>
       <c r="J7">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="K7">
-        <v>306.1611575704225</v>
+        <v>183.2277258566978</v>
       </c>
       <c r="L7">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>109.0835934451814</v>
+        <v>142.6147810218978</v>
       </c>
       <c r="N7">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="O7">
-        <v>204.3785714285714</v>
+        <v>144.5406809253601</v>
       </c>
       <c r="P7">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="Q7">
-        <v>89.46599999999999</v>
+        <v>171.547840781074</v>
       </c>
       <c r="R7">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="S7">
-        <v>101.7806130124107</v>
+        <v>151.1431314623338</v>
       </c>
       <c r="T7">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="U7">
-        <v>134.9989940387481</v>
+        <v>163.4711392405063</v>
       </c>
       <c r="V7">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="W7">
-        <v>114.7</v>
+        <v>204.480455075846</v>
       </c>
       <c r="X7">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="Y7">
-        <v>135.5997001998668</v>
+        <v>186.7532291359481</v>
       </c>
       <c r="Z7">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="AA7">
-        <v>218.9838240510819</v>
+        <v>97.21774447949527</v>
       </c>
       <c r="AB7">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="AC7">
-        <v>209.3460899513776</v>
+        <v>263.0857142857143</v>
       </c>
       <c r="AD7">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="AE7">
-        <v>113.4831642066421</v>
+        <v>132.3614187927816</v>
       </c>
       <c r="AF7">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="AG7">
-        <v>280.1341463414634</v>
+        <v>233.2470538001708</v>
+      </c>
+      <c r="AH7">
+        <v>149</v>
+      </c>
+      <c r="AI7">
+        <v>120.4105315947843</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>2232</v>
+        <v>2455</v>
       </c>
       <c r="D8">
-        <v>2181.041124738705</v>
+        <v>2351.308558865469</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2078.9</v>
+        <v>2269.7</v>
       </c>
       <c r="G8">
-        <v>2684</v>
+        <v>1714</v>
       </c>
       <c r="H8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I8">
-        <v>173.7589038666194</v>
+        <v>157.5284871719257</v>
       </c>
       <c r="J8">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="K8">
-        <v>144.5403397734844</v>
+        <v>174.9451994091581</v>
       </c>
       <c r="L8">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="M8">
-        <v>141.3381226937269</v>
+        <v>299.8476665337056</v>
       </c>
       <c r="N8">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="O8">
-        <v>171.2831645056726</v>
+        <v>109.2721518987342</v>
       </c>
       <c r="P8">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="Q8">
-        <v>156.4177037444934</v>
+        <v>198.5125506072875</v>
       </c>
       <c r="R8">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="S8">
-        <v>163.1890557939914</v>
+        <v>90.24642190416925</v>
       </c>
       <c r="T8">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="U8">
-        <v>202.3170617592015</v>
+        <v>97.78304914744231</v>
       </c>
       <c r="V8">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="W8">
-        <v>184.8587697160883</v>
+        <v>136.293143056039</v>
       </c>
       <c r="X8">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="Y8">
-        <v>97.16281942078365</v>
+        <v>113.1332095096582</v>
       </c>
       <c r="Z8">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="AA8">
-        <v>264.4658109684947</v>
+        <v>133.7932481751825</v>
       </c>
       <c r="AB8">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="AC8">
-        <v>131.2168</v>
+        <v>230.9171339563863</v>
       </c>
       <c r="AD8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AE8">
-        <v>225.159420935412</v>
+        <v>209.6695831768682</v>
       </c>
       <c r="AF8">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AG8">
-        <v>125.3331515607371</v>
+        <v>116.0545613269315</v>
+      </c>
+      <c r="AH8">
+        <v>190</v>
+      </c>
+      <c r="AI8">
+        <v>283.3121529919803</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>2208</v>
+        <v>2268</v>
       </c>
       <c r="D9">
-        <v>2156.268084906123</v>
+        <v>2350.799077895887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1925.5</v>
+        <v>1825.2</v>
       </c>
       <c r="G9">
-        <v>3170</v>
+        <v>2291</v>
       </c>
       <c r="H9">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="I9">
-        <v>203.5612260248214</v>
+        <v>255.8722304283604</v>
       </c>
       <c r="J9">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K9">
-        <v>128.9581411439114</v>
+        <v>164.3453164556962</v>
       </c>
       <c r="L9">
+        <v>227</v>
+      </c>
+      <c r="M9">
+        <v>161.8052786788558</v>
+      </c>
+      <c r="N9">
+        <v>345</v>
+      </c>
+      <c r="O9">
+        <v>290.2539157674904</v>
+      </c>
+      <c r="P9">
+        <v>165</v>
+      </c>
+      <c r="Q9">
+        <v>133.3405215646941</v>
+      </c>
+      <c r="R9">
+        <v>45</v>
+      </c>
+      <c r="S9">
+        <v>37.64953271028038</v>
+      </c>
+      <c r="T9">
+        <v>73</v>
+      </c>
+      <c r="U9">
+        <v>111.5349557522124</v>
+      </c>
+      <c r="V9">
+        <v>88</v>
+      </c>
+      <c r="W9">
+        <v>83.87413249211356</v>
+      </c>
+      <c r="X9">
+        <v>214</v>
+      </c>
+      <c r="Y9">
+        <v>194.2393541119039</v>
+      </c>
+      <c r="Z9">
+        <v>170</v>
+      </c>
+      <c r="AA9">
+        <v>253.4898210980876</v>
+      </c>
+      <c r="AB9">
+        <v>184</v>
+      </c>
+      <c r="AC9">
+        <v>227.8413934426229</v>
+      </c>
+      <c r="AD9">
+        <v>180</v>
+      </c>
+      <c r="AE9">
+        <v>185.7719897523484</v>
+      </c>
+      <c r="AF9">
         <v>84</v>
       </c>
-      <c r="M9">
-        <v>125.2524</v>
-      </c>
-      <c r="N9">
-        <v>160</v>
-      </c>
-      <c r="O9">
-        <v>232.0778210116732</v>
-      </c>
-      <c r="P9">
-        <v>318</v>
-      </c>
-      <c r="Q9">
-        <v>313.0522447183099</v>
-      </c>
-      <c r="R9">
-        <v>268</v>
-      </c>
-      <c r="S9">
-        <v>192.8642857142857</v>
-      </c>
-      <c r="T9">
-        <v>138</v>
-      </c>
-      <c r="U9">
-        <v>137.4867260579065</v>
-      </c>
-      <c r="V9">
-        <v>182</v>
-      </c>
-      <c r="W9">
-        <v>151.6655365126676</v>
-      </c>
-      <c r="X9">
-        <v>107</v>
-      </c>
-      <c r="Y9">
-        <v>97.40396825396826</v>
-      </c>
-      <c r="Z9">
-        <v>107</v>
-      </c>
-      <c r="AA9">
-        <v>96.96983387358185</v>
-      </c>
-      <c r="AB9">
-        <v>143</v>
-      </c>
-      <c r="AC9">
-        <v>185.7380662020906</v>
-      </c>
-      <c r="AD9">
-        <v>248</v>
-      </c>
-      <c r="AE9">
-        <v>216.42184939524</v>
-      </c>
-      <c r="AF9">
-        <v>86</v>
-      </c>
       <c r="AG9">
-        <v>74.81598599766627</v>
+        <v>118.4576429404901</v>
+      </c>
+      <c r="AH9">
+        <v>90</v>
+      </c>
+      <c r="AI9">
+        <v>132.3229927007299</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>1946</v>
+        <v>2134</v>
       </c>
       <c r="D10">
-        <v>2146.30767882635</v>
+        <v>2331.656619678654</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1550.7</v>
+        <v>1669</v>
       </c>
       <c r="G10">
-        <v>2819</v>
+        <v>2889</v>
       </c>
       <c r="H10">
+        <v>188</v>
+      </c>
+      <c r="I10">
+        <v>179.1856466876972</v>
+      </c>
+      <c r="J10">
         <v>267</v>
       </c>
-      <c r="I10">
-        <v>222.4983420268256</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>224.6312913331013</v>
+      </c>
+      <c r="L10">
         <v>62</v>
       </c>
-      <c r="K10">
-        <v>80.52979094076656</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>76.77264344262294</v>
+      </c>
+      <c r="N10">
         <v>53</v>
       </c>
-      <c r="M10">
-        <v>76.87577821011674</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>80.97743362831858</v>
+      </c>
+      <c r="P10">
         <v>68</v>
       </c>
-      <c r="O10">
-        <v>101.3272485009993</v>
-      </c>
-      <c r="P10">
+      <c r="Q10">
+        <v>99.97737226277371</v>
+      </c>
+      <c r="R10">
         <v>174</v>
       </c>
-      <c r="Q10">
-        <v>179.5097324723247</v>
-      </c>
-      <c r="R10">
+      <c r="S10">
+        <v>183.5772151898734</v>
+      </c>
+      <c r="T10">
         <v>107</v>
       </c>
-      <c r="S10">
-        <v>157.759756097561</v>
-      </c>
-      <c r="T10">
+      <c r="U10">
+        <v>159.5494756323257</v>
+      </c>
+      <c r="V10">
         <v>175</v>
       </c>
-      <c r="U10">
-        <v>152.2418319719953</v>
-      </c>
-      <c r="V10">
+      <c r="W10">
+        <v>151.4473684210526</v>
+      </c>
+      <c r="X10">
         <v>264</v>
       </c>
-      <c r="W10">
-        <v>230.3845493562232</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>230.7827848101266</v>
+      </c>
+      <c r="Z10">
         <v>152</v>
       </c>
-      <c r="Y10">
-        <v>187.20859030837</v>
-      </c>
-      <c r="Z10">
+      <c r="AA10">
+        <v>180.8957163958641</v>
+      </c>
+      <c r="AB10">
         <v>126</v>
       </c>
-      <c r="AA10">
-        <v>175.8065502183406</v>
-      </c>
-      <c r="AB10">
+      <c r="AC10">
+        <v>177.6864644107351</v>
+      </c>
+      <c r="AD10">
         <v>174</v>
       </c>
-      <c r="AC10">
-        <v>171.2927376760564</v>
-      </c>
-      <c r="AD10">
+      <c r="AE10">
+        <v>167.7604307937774</v>
+      </c>
+      <c r="AF10">
         <v>178</v>
       </c>
-      <c r="AE10">
-        <v>265.4158</v>
-      </c>
-      <c r="AF10">
+      <c r="AG10">
+        <v>267.7310516490355</v>
+      </c>
+      <c r="AH10">
         <v>146</v>
       </c>
-      <c r="AG10">
-        <v>145.4569710467706</v>
+      <c r="AI10">
+        <v>150.6817250213493</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>2204</v>
+        <v>2319</v>
       </c>
       <c r="D11">
-        <v>2092.550436215834</v>
+        <v>2305.741824091213</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1881.6</v>
+        <v>2028.9</v>
       </c>
       <c r="G11">
-        <v>2457</v>
+        <v>3391</v>
       </c>
       <c r="H11">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I11">
-        <v>117.443698949825</v>
+        <v>156.5333138856476</v>
       </c>
       <c r="J11">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="K11">
-        <v>86.67641425389756</v>
+        <v>195.5660982948846</v>
       </c>
       <c r="L11">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>214.4963332079729</v>
+        <v>131.8801833260585</v>
       </c>
       <c r="N11">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="O11">
-        <v>182.2820484581498</v>
+        <v>126.344990665837</v>
       </c>
       <c r="P11">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="Q11">
-        <v>148.070905923345</v>
+        <v>244.4601769911504</v>
       </c>
       <c r="R11">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="S11">
-        <v>120.5325972447326</v>
+        <v>306.5966493817311</v>
       </c>
       <c r="T11">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="U11">
-        <v>269.6546429964885</v>
+        <v>187.3287449392712</v>
       </c>
       <c r="V11">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="W11">
-        <v>140.9242981908921</v>
+        <v>142.4251921434671</v>
       </c>
       <c r="X11">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y11">
-        <v>107.246309148265</v>
+        <v>153.1194570135747</v>
       </c>
       <c r="Z11">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="AA11">
-        <v>201.5</v>
+        <v>96.0734398216939</v>
       </c>
       <c r="AB11">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="AC11">
-        <v>295.2987649063032</v>
+        <v>97.11967705595193</v>
       </c>
       <c r="AD11">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="AE11">
-        <v>111.2418353873239</v>
+        <v>177.072387295082</v>
       </c>
       <c r="AF11">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="AG11">
-        <v>97.18258754863814</v>
+        <v>216.7959493670886</v>
+      </c>
+      <c r="AH11">
+        <v>86</v>
+      </c>
+      <c r="AI11">
+        <v>74.42556390977444</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>2053</v>
+        <v>2192</v>
       </c>
       <c r="D12">
-        <v>2090.153478999498</v>
+        <v>2274.174996619742</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1684.1</v>
+        <v>1698.3</v>
       </c>
       <c r="G12">
-        <v>2168</v>
+        <v>2765</v>
       </c>
       <c r="H12">
+        <v>222</v>
+      </c>
+      <c r="I12">
+        <v>192.1218045112782</v>
+      </c>
+      <c r="J12">
+        <v>112</v>
+      </c>
+      <c r="K12">
+        <v>118.1646442601484</v>
+      </c>
+      <c r="L12">
+        <v>197</v>
+      </c>
+      <c r="M12">
+        <v>159.2005015045135</v>
+      </c>
+      <c r="N12">
         <v>188</v>
       </c>
-      <c r="I12">
-        <v>164.0617245415529</v>
-      </c>
-      <c r="J12">
-        <v>227</v>
-      </c>
-      <c r="K12">
-        <v>160.1638958990536</v>
-      </c>
-      <c r="L12">
-        <v>345</v>
-      </c>
-      <c r="M12">
-        <v>287.4978576751118</v>
-      </c>
-      <c r="N12">
+      <c r="O12">
+        <v>265.1194865810969</v>
+      </c>
+      <c r="P12">
         <v>165</v>
       </c>
-      <c r="O12">
-        <v>138.7917450169236</v>
-      </c>
-      <c r="P12">
-        <v>45</v>
-      </c>
       <c r="Q12">
-        <v>35.70388435615467</v>
+        <v>157.2639984227129</v>
       </c>
       <c r="R12">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="S12">
-        <v>105.8855058365759</v>
+        <v>102.0522267206478</v>
       </c>
       <c r="T12">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U12">
-        <v>83.8267461669506</v>
+        <v>72.35315001740341</v>
       </c>
       <c r="V12">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="W12">
-        <v>193.9396677471637</v>
+        <v>188.5553491827637</v>
       </c>
       <c r="X12">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="Y12">
-        <v>250.6463414634146</v>
+        <v>75.29906542056075</v>
       </c>
       <c r="Z12">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AA12">
-        <v>238.991637630662</v>
+        <v>209.2673668032787</v>
       </c>
       <c r="AB12">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="AC12">
-        <v>179.3305122494432</v>
+        <v>144.0850364963504</v>
       </c>
       <c r="AD12">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="AE12">
-        <v>117.2043668122271</v>
+        <v>264.3225663716814</v>
       </c>
       <c r="AF12">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="AG12">
-        <v>134.1095936042638</v>
+        <v>109.7709820112061</v>
+      </c>
+      <c r="AH12">
+        <v>182</v>
+      </c>
+      <c r="AI12">
+        <v>216.5988183161004</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>1970</v>
+        <v>2191</v>
       </c>
       <c r="D13">
-        <v>2089.341848874687</v>
+        <v>2239.477680989188</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1511.5</v>
+        <v>1786.6</v>
       </c>
       <c r="G13">
-        <v>2563</v>
+        <v>3458</v>
       </c>
       <c r="H13">
+        <v>189</v>
+      </c>
+      <c r="I13">
+        <v>159.0086668987121</v>
+      </c>
+      <c r="J13">
+        <v>199</v>
+      </c>
+      <c r="K13">
+        <v>246.4154200819672</v>
+      </c>
+      <c r="L13">
+        <v>171</v>
+      </c>
+      <c r="M13">
+        <v>162.9826892744479</v>
+      </c>
+      <c r="N13">
+        <v>84</v>
+      </c>
+      <c r="O13">
+        <v>80.98779417630634</v>
+      </c>
+      <c r="P13">
+        <v>109</v>
+      </c>
+      <c r="Q13">
+        <v>153.7128938156359</v>
+      </c>
+      <c r="R13">
+        <v>91</v>
+      </c>
+      <c r="S13">
+        <v>79.55012658227848</v>
+      </c>
+      <c r="T13">
+        <v>349</v>
+      </c>
+      <c r="U13">
+        <v>248.7667059864347</v>
+      </c>
+      <c r="V13">
+        <v>181</v>
+      </c>
+      <c r="W13">
+        <v>164.2865565152084</v>
+      </c>
+      <c r="X13">
+        <v>120</v>
+      </c>
+      <c r="Y13">
+        <v>123.8479931682323</v>
+      </c>
+      <c r="Z13">
         <v>112</v>
       </c>
-      <c r="I13">
-        <v>115.5464944649447</v>
-      </c>
-      <c r="J13">
-        <v>197</v>
-      </c>
-      <c r="K13">
-        <v>165.7089319292967</v>
-      </c>
-      <c r="L13">
-        <v>188</v>
-      </c>
-      <c r="M13">
-        <v>262.314535246413</v>
-      </c>
-      <c r="N13">
-        <v>165</v>
-      </c>
-      <c r="O13">
-        <v>157.1751490630324</v>
-      </c>
-      <c r="P13">
-        <v>146</v>
-      </c>
-      <c r="Q13">
-        <v>105.0678571428572</v>
-      </c>
-      <c r="R13">
-        <v>86</v>
-      </c>
-      <c r="S13">
-        <v>71.66613263785395</v>
-      </c>
-      <c r="T13">
-        <v>210</v>
-      </c>
-      <c r="U13">
-        <v>191.1666666666667</v>
-      </c>
-      <c r="V13">
-        <v>90</v>
-      </c>
-      <c r="W13">
-        <v>71.40776871230933</v>
-      </c>
-      <c r="X13">
-        <v>169</v>
-      </c>
-      <c r="Y13">
-        <v>219.5086236933798</v>
-      </c>
-      <c r="Z13">
-        <v>98</v>
-      </c>
       <c r="AA13">
-        <v>146.0304463690873</v>
+        <v>171.1221238938053</v>
       </c>
       <c r="AB13">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AC13">
-        <v>250.9341439688716</v>
+        <v>96.97132243684992</v>
       </c>
       <c r="AD13">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="AE13">
-        <v>108.6574447949527</v>
+        <v>171.4784083898828</v>
       </c>
       <c r="AF13">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="AG13">
-        <v>224.157654185022</v>
+        <v>192.3336008024072</v>
+      </c>
+      <c r="AH13">
+        <v>125</v>
+      </c>
+      <c r="AI13">
+        <v>188.0133789670193</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>2002</v>
+        <v>2308</v>
       </c>
       <c r="D14">
-        <v>2082.295426019693</v>
+        <v>2229.180435452242</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1640.1</v>
+        <v>1983.1</v>
       </c>
       <c r="G14">
-        <v>3108</v>
+        <v>2692</v>
       </c>
       <c r="H14">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="I14">
-        <v>258.4746515679442</v>
+        <v>155.0761258482418</v>
       </c>
       <c r="J14">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="K14">
-        <v>162.8906090289608</v>
+        <v>116.8308270676692</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>82.69304577464789</v>
+        <v>89.78979504696839</v>
       </c>
       <c r="N14">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="O14">
-        <v>152.0866188396756</v>
+        <v>206.0717151454363</v>
       </c>
       <c r="P14">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="Q14">
-        <v>79.41285602809208</v>
+        <v>176.1353028064993</v>
       </c>
       <c r="R14">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="S14">
-        <v>246.2431703470031</v>
+        <v>141.1626024590164</v>
       </c>
       <c r="T14">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="U14">
-        <v>164.0330834683955</v>
+        <v>120.718850920015</v>
       </c>
       <c r="V14">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="W14">
-        <v>119.5536748329621</v>
+        <v>270.1207594936709</v>
       </c>
       <c r="X14">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Y14">
-        <v>162.4544747081712</v>
+        <v>142.4312135355893</v>
       </c>
       <c r="Z14">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="AA14">
-        <v>98.31428571428572</v>
+        <v>108.3453848422294</v>
       </c>
       <c r="AB14">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="AC14">
-        <v>169.5548780487805</v>
+        <v>195.7165991902834</v>
       </c>
       <c r="AD14">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="AE14">
-        <v>200.1965776607748</v>
+        <v>295.4656940063091</v>
       </c>
       <c r="AF14">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AG14">
-        <v>186.3875</v>
+        <v>108.9478659752692</v>
+      </c>
+      <c r="AH14">
+        <v>67</v>
+      </c>
+      <c r="AI14">
+        <v>102.3676991150442</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>1954</v>
+        <v>2051</v>
       </c>
       <c r="D15">
-        <v>2051.767688627969</v>
+        <v>2145.375526848894</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1420.5</v>
+        <v>1504</v>
       </c>
       <c r="G15">
-        <v>2468</v>
+        <v>2663</v>
       </c>
       <c r="H15">
+        <v>97</v>
+      </c>
+      <c r="I15">
+        <v>100.1104611443211</v>
+      </c>
+      <c r="J15">
         <v>154</v>
       </c>
-      <c r="I15">
-        <v>229.6294</v>
-      </c>
-      <c r="J15">
+      <c r="K15">
+        <v>231.6324828873678</v>
+      </c>
+      <c r="L15">
         <v>31</v>
       </c>
-      <c r="K15">
-        <v>45.70609756097561</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>46.22461443553362</v>
+      </c>
+      <c r="N15">
         <v>112</v>
       </c>
-      <c r="M15">
-        <v>166.8919387075283</v>
-      </c>
-      <c r="N15">
+      <c r="O15">
+        <v>164.6686131386861</v>
+      </c>
+      <c r="P15">
         <v>190</v>
       </c>
-      <c r="O15">
-        <v>158.3321535022355</v>
-      </c>
-      <c r="P15">
+      <c r="Q15">
+        <v>159.8499825965889</v>
+      </c>
+      <c r="R15">
         <v>84</v>
       </c>
-      <c r="Q15">
-        <v>121.8408560311284</v>
-      </c>
-      <c r="R15">
+      <c r="S15">
+        <v>128.341592920354</v>
+      </c>
+      <c r="T15">
         <v>182</v>
       </c>
-      <c r="S15">
-        <v>165.6777777777778</v>
-      </c>
-      <c r="T15">
+      <c r="U15">
+        <v>163.4146359583953</v>
+      </c>
+      <c r="V15">
         <v>228</v>
       </c>
-      <c r="U15">
-        <v>164.0785714285714</v>
-      </c>
-      <c r="V15">
+      <c r="W15">
+        <v>159.3692307692307</v>
+      </c>
+      <c r="X15">
         <v>170</v>
       </c>
-      <c r="W15">
-        <v>175.3830719557195</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
+        <v>179.3570493234396</v>
+      </c>
+      <c r="Z15">
         <v>174</v>
       </c>
-      <c r="Y15">
-        <v>151.3718786464411</v>
-      </c>
-      <c r="Z15">
+      <c r="AA15">
+        <v>150.581954887218</v>
+      </c>
+      <c r="AB15">
         <v>251</v>
       </c>
-      <c r="AA15">
-        <v>177.097523659306</v>
-      </c>
-      <c r="AB15">
+      <c r="AC15">
+        <v>178.9124447065762</v>
+      </c>
+      <c r="AD15">
         <v>111</v>
       </c>
-      <c r="AC15">
-        <v>154.8771990018715</v>
-      </c>
-      <c r="AD15">
+      <c r="AE15">
+        <v>156.5333138856476</v>
+      </c>
+      <c r="AF15">
         <v>88</v>
       </c>
-      <c r="AE15">
-        <v>108.3839207048458</v>
-      </c>
-      <c r="AF15">
+      <c r="AG15">
+        <v>104.7290989660266</v>
+      </c>
+      <c r="AH15">
         <v>179</v>
       </c>
-      <c r="AG15">
-        <v>232.497299651568</v>
+      <c r="AI15">
+        <v>221.6500512295082</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>2144</v>
       </c>
       <c r="D16">
-        <v>2019.441411626356</v>
+        <v>2139.881350398731</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1798.1</v>
+        <v>2102.2</v>
       </c>
       <c r="G16">
-        <v>2348</v>
+        <v>2507</v>
       </c>
       <c r="H16">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="I16">
-        <v>200.2524053452116</v>
+        <v>160.9394523957685</v>
       </c>
       <c r="J16">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>93.55357142857143</v>
+        <v>151.4363138686131</v>
       </c>
       <c r="L16">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="M16">
-        <v>215.2609756097561</v>
+        <v>114.2270128354726</v>
       </c>
       <c r="N16">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="O16">
-        <v>70.68616855247757</v>
+        <v>188.7267206477733</v>
       </c>
       <c r="P16">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q16">
-        <v>75.68593932322054</v>
+        <v>116.3972336065574</v>
       </c>
       <c r="R16">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="S16">
-        <v>110.8471916299559</v>
+        <v>169.6460631082277</v>
       </c>
       <c r="T16">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="U16">
-        <v>209.4280212177122</v>
+        <v>209.4300751879699</v>
       </c>
       <c r="V16">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="W16">
-        <v>153.7515564202335</v>
+        <v>137.1827267119062</v>
       </c>
       <c r="X16">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="Y16">
-        <v>239.1648845007452</v>
+        <v>167.2817452357071</v>
       </c>
       <c r="Z16">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="AA16">
-        <v>131.2212861978187</v>
+        <v>186.8040563620837</v>
       </c>
       <c r="AB16">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="AC16">
-        <v>261.2611111111111</v>
+        <v>169.5942477876106</v>
       </c>
       <c r="AD16">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="AE16">
-        <v>148.070905923345</v>
+        <v>150.5981308411215</v>
       </c>
       <c r="AF16">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="AG16">
-        <v>110.2573943661972</v>
+        <v>149.946396731055</v>
+      </c>
+      <c r="AH16">
+        <v>71</v>
+      </c>
+      <c r="AI16">
+        <v>67.67117507886435</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>2037</v>
+        <v>2136</v>
       </c>
       <c r="D17">
-        <v>1974.917180797667</v>
+        <v>2138.091369883224</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1938.1</v>
+        <v>1739.2</v>
       </c>
       <c r="G17">
-        <v>2272</v>
+        <v>2342</v>
       </c>
       <c r="H17">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="I17">
-        <v>153.4809793471019</v>
+        <v>176.9938039804732</v>
       </c>
       <c r="J17">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="K17">
-        <v>113.0184965689332</v>
+        <v>188.7167981072555</v>
       </c>
       <c r="L17">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="M17">
-        <v>194.3035714285714</v>
+        <v>191.2489970282318</v>
       </c>
       <c r="N17">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="O17">
-        <v>122.0935540069686</v>
+        <v>52.36454948301329</v>
       </c>
       <c r="P17">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="Q17">
-        <v>167.925141955836</v>
+        <v>235.596421961752</v>
       </c>
       <c r="R17">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="S17">
-        <v>210.5287047841307</v>
+        <v>241.121897810219</v>
       </c>
       <c r="T17">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="U17">
-        <v>135.6439024390244</v>
+        <v>156.0218237704918</v>
       </c>
       <c r="V17">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="W17">
-        <v>174.1205528394133</v>
+        <v>123.3141551164848</v>
       </c>
       <c r="X17">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="Y17">
-        <v>180.3267928730512</v>
+        <v>157.2722672064777</v>
       </c>
       <c r="Z17">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="AA17">
-        <v>161.0039883268483</v>
+        <v>34.70905464698843</v>
       </c>
       <c r="AB17">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AC17">
-        <v>142.8155374246187</v>
+        <v>90.24642190416925</v>
       </c>
       <c r="AD17">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AE17">
-        <v>152.0230158730159</v>
+        <v>165.6415102575295</v>
       </c>
       <c r="AF17">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="AG17">
-        <v>67.63294293015332</v>
+        <v>190.9786634180299</v>
+      </c>
+      <c r="AH17">
+        <v>160</v>
+      </c>
+      <c r="AI17">
+        <v>133.865005192108</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>1941</v>
+        <v>2132</v>
       </c>
       <c r="D18">
-        <v>1964.660795353688</v>
+        <v>2106.288812420234</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1594</v>
+        <v>2178.4</v>
       </c>
       <c r="G18">
-        <v>2245</v>
+        <v>2793</v>
       </c>
       <c r="H18">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I18">
-        <v>188.6101788756388</v>
+        <v>176.5837974683544</v>
       </c>
       <c r="J18">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="K18">
-        <v>193.8976190476191</v>
+        <v>170.5976968796434</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="M18">
-        <v>54.19196035242291</v>
+        <v>189.2264401772526</v>
       </c>
       <c r="N18">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="O18">
-        <v>232.9536585365854</v>
+        <v>64.38995901639345</v>
       </c>
       <c r="P18">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="Q18">
-        <v>244.3774816788808</v>
+        <v>197.0380211574362</v>
       </c>
       <c r="R18">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="S18">
-        <v>163.6573170731708</v>
+        <v>174.420070977918</v>
       </c>
       <c r="T18">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="U18">
-        <v>122.0632334384858</v>
+        <v>84.84435580374949</v>
       </c>
       <c r="V18">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="W18">
-        <v>161.9196428571429</v>
+        <v>112.9485981308411</v>
       </c>
       <c r="X18">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="Y18">
-        <v>35.43987676056339</v>
+        <v>192.6034671532847</v>
       </c>
       <c r="Z18">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AA18">
-        <v>89.46599999999999</v>
+        <v>127.9801351858806</v>
       </c>
       <c r="AB18">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AC18">
-        <v>161.9714252767528</v>
+        <v>135.4518273581622</v>
       </c>
       <c r="AD18">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="AE18">
-        <v>189.1652570789866</v>
+        <v>133.3405215646941</v>
       </c>
       <c r="AF18">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AG18">
-        <v>126.9471443774388</v>
+        <v>123.7579646017699</v>
+      </c>
+      <c r="AH18">
+        <v>313</v>
+      </c>
+      <c r="AI18">
+        <v>223.105956944854</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19">
-        <v>1930</v>
+        <v>2070</v>
       </c>
       <c r="D19">
-        <v>1934.005742709342</v>
+        <v>2078.283340893697</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1997.5</v>
+        <v>1875.3</v>
       </c>
       <c r="G19">
-        <v>2571</v>
+        <v>2536</v>
       </c>
       <c r="H19">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="I19">
-        <v>172.9603174603175</v>
+        <v>58.56593977154725</v>
       </c>
       <c r="J19">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="K19">
-        <v>195.8300385462555</v>
+        <v>207.4453885567891</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="M19">
-        <v>67.54111498257839</v>
+        <v>90.86842105263158</v>
       </c>
       <c r="N19">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="O19">
-        <v>195.3341</v>
+        <v>217.7030228254164</v>
       </c>
       <c r="P19">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q19">
-        <v>174.3215289608177</v>
+        <v>70.80835443037975</v>
       </c>
       <c r="R19">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19">
-        <v>86.63080985915494</v>
+        <v>75.29097744360902</v>
       </c>
       <c r="T19">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U19">
-        <v>107.111653068464</v>
+        <v>107.109305760709</v>
       </c>
       <c r="V19">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="W19">
-        <v>195.203964023984</v>
+        <v>214.173417721519</v>
       </c>
       <c r="X19">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="Y19">
-        <v>127.7826782820097</v>
+        <v>161.9548672566372</v>
       </c>
       <c r="Z19">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="AA19">
-        <v>134.1656669150522</v>
+        <v>241.457605290637</v>
       </c>
       <c r="AB19">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AC19">
-        <v>138.7917450169236</v>
+        <v>126.0674022066198</v>
       </c>
       <c r="AD19">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AE19">
-        <v>117.4893968871595</v>
+        <v>257.6923105497771</v>
       </c>
       <c r="AF19">
-        <v>313</v>
+        <v>114</v>
       </c>
       <c r="AG19">
-        <v>220.8427287066246</v>
+        <v>141.1626024590164</v>
+      </c>
+      <c r="AH19">
+        <v>112</v>
+      </c>
+      <c r="AI19">
+        <v>107.9837255684085</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20">
-        <v>1729</v>
+        <v>1852</v>
       </c>
       <c r="D20">
-        <v>1830.222046235003</v>
+        <v>1976.563144996109</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1680.4</v>
+        <v>1811.6</v>
       </c>
       <c r="G20">
-        <v>1816</v>
+        <v>2031</v>
       </c>
       <c r="H20">
+        <v>123</v>
+      </c>
+      <c r="I20">
+        <v>129.7701003928416</v>
+      </c>
+      <c r="J20">
         <v>160</v>
       </c>
-      <c r="I20">
-        <v>223.2464129756706</v>
-      </c>
-      <c r="J20">
+      <c r="K20">
+        <v>225.6336056009335</v>
+      </c>
+      <c r="L20">
         <v>129</v>
       </c>
-      <c r="K20">
-        <v>112.2239789964994</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>111.6383458646616</v>
+      </c>
+      <c r="N20">
         <v>201</v>
       </c>
-      <c r="M20">
-        <v>200.2524053452116</v>
-      </c>
-      <c r="N20">
+      <c r="O20">
+        <v>207.4453885567891</v>
+      </c>
+      <c r="P20">
         <v>161</v>
       </c>
-      <c r="O20">
-        <v>146.5611111111111</v>
-      </c>
-      <c r="P20">
-        <v>104</v>
-      </c>
       <c r="Q20">
-        <v>86.66602086438152</v>
+        <v>144.5591010401189</v>
       </c>
       <c r="R20">
         <v>104</v>
       </c>
       <c r="S20">
-        <v>99.06797274275979</v>
+        <v>87.49683257918552</v>
       </c>
       <c r="T20">
+        <v>104</v>
+      </c>
+      <c r="U20">
+        <v>99.12397476340693</v>
+      </c>
+      <c r="V20">
         <v>149</v>
       </c>
-      <c r="U20">
-        <v>222.1739</v>
-      </c>
-      <c r="V20">
+      <c r="W20">
+        <v>224.111947728687</v>
+      </c>
+      <c r="X20">
         <v>29</v>
       </c>
-      <c r="W20">
-        <v>37.66716027874565</v>
-      </c>
-      <c r="X20">
+      <c r="Y20">
+        <v>35.90978483606557</v>
+      </c>
+      <c r="Z20">
         <v>214</v>
       </c>
-      <c r="Y20">
-        <v>169.7918056048244</v>
-      </c>
-      <c r="Z20">
+      <c r="AA20">
+        <v>179.0444444444444</v>
+      </c>
+      <c r="AB20">
         <v>64</v>
       </c>
-      <c r="AA20">
-        <v>94.3609756097561</v>
-      </c>
-      <c r="AB20">
+      <c r="AC20">
+        <v>95.43146206045651</v>
+      </c>
+      <c r="AD20">
         <v>113</v>
       </c>
-      <c r="AC20">
-        <v>168.3820453031313</v>
-      </c>
-      <c r="AD20">
+      <c r="AE20">
+        <v>166.1388686131387</v>
+      </c>
+      <c r="AF20">
         <v>213</v>
       </c>
-      <c r="AE20">
-        <v>193.0334076175041</v>
-      </c>
-      <c r="AF20">
+      <c r="AG20">
+        <v>193.3316935786707</v>
+      </c>
+      <c r="AH20">
         <v>88</v>
       </c>
-      <c r="AG20">
-        <v>76.79484978540773</v>
+      <c r="AI20">
+        <v>76.92759493670886</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21">
-        <v>1594</v>
+        <v>1634</v>
       </c>
       <c r="D21">
-        <v>1526.564318842398</v>
+        <v>1588.22186897938</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1485.6</v>
+        <v>1537.1</v>
       </c>
       <c r="G21">
-        <v>2659</v>
+        <v>2991</v>
       </c>
       <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>61.11504424778761</v>
+      </c>
+      <c r="J21">
         <v>137</v>
       </c>
-      <c r="I21">
-        <v>96.66279179810725</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
+        <v>97.65340607490417</v>
+      </c>
+      <c r="L21">
         <v>275</v>
       </c>
-      <c r="K21">
-        <v>239.9839055793991</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>240.3987341772152</v>
+      </c>
+      <c r="N21">
         <v>169</v>
       </c>
-      <c r="M21">
-        <v>153.8436507936508</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
+        <v>151.742161961367</v>
+      </c>
+      <c r="P21">
         <v>151</v>
       </c>
-      <c r="O21">
-        <v>155.781434501845</v>
-      </c>
-      <c r="P21">
+      <c r="Q21">
+        <v>159.3112614578787</v>
+      </c>
+      <c r="R21">
         <v>27</v>
       </c>
-      <c r="Q21">
-        <v>39.80853658536586</v>
-      </c>
-      <c r="R21">
+      <c r="S21">
+        <v>40.26014805675509</v>
+      </c>
+      <c r="T21">
         <v>109</v>
       </c>
-      <c r="S21">
-        <v>152.0866188396756</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>153.7128938156359</v>
+      </c>
+      <c r="V21">
         <v>13</v>
       </c>
-      <c r="U21">
-        <v>19.37138574283811</v>
-      </c>
-      <c r="V21">
+      <c r="W21">
+        <v>19.11332116788321</v>
+      </c>
+      <c r="X21">
         <v>126</v>
       </c>
-      <c r="W21">
-        <v>124.0395686619718</v>
-      </c>
-      <c r="X21">
+      <c r="Y21">
+        <v>121.4816912644595</v>
+      </c>
+      <c r="Z21">
         <v>70</v>
       </c>
-      <c r="Y21">
-        <v>104.377</v>
-      </c>
-      <c r="Z21">
+      <c r="AA21">
+        <v>105.2874922215308</v>
+      </c>
+      <c r="AB21">
         <v>176</v>
       </c>
-      <c r="AA21">
-        <v>167.6534923339012</v>
-      </c>
-      <c r="AB21">
+      <c r="AC21">
+        <v>167.7482649842271</v>
+      </c>
+      <c r="AD21">
         <v>113</v>
       </c>
-      <c r="AC21">
-        <v>98.30472578763127</v>
-      </c>
-      <c r="AD21">
+      <c r="AE21">
+        <v>97.79172932330826</v>
+      </c>
+      <c r="AF21">
         <v>135</v>
       </c>
-      <c r="AE21">
-        <v>97.15178571428571</v>
-      </c>
-      <c r="AF21">
+      <c r="AG21">
+        <v>94.36336032388664</v>
+      </c>
+      <c r="AH21">
         <v>93</v>
       </c>
-      <c r="AG21">
-        <v>77.49942250372578</v>
+      <c r="AI21">
+        <v>78.2423599025409</v>
       </c>
     </row>
   </sheetData>
